--- a/EC/Train Runs and Enforcements 2016-06-28.xlsx
+++ b/EC/Train Runs and Enforcements 2016-06-28.xlsx
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Enforcements!$A$6:$N$78</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Trips'!$A$2:$G$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Train Runs'!$A$12:$AC$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Train Runs'!$A$12:$AC$164</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Trips&amp;Operators'!$A$1:$E$211</definedName>
     <definedName name="Denver_Train_Runs_04122016" localSheetId="0">'Train Runs'!$A$12:$J$105</definedName>
   </definedNames>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="647">
   <si>
     <t>Train ID</t>
   </si>
@@ -1976,6 +1976,30 @@
   </si>
   <si>
     <t>105-28</t>
+  </si>
+  <si>
+    <t>204:139</t>
+  </si>
+  <si>
+    <t>204:232965</t>
+  </si>
+  <si>
+    <t>204:232955</t>
+  </si>
+  <si>
+    <t>204:163</t>
+  </si>
+  <si>
+    <t>204:178</t>
+  </si>
+  <si>
+    <t>Onboard In-route Failure</t>
+  </si>
+  <si>
+    <t>Onboard In-Route Failure</t>
+  </si>
+  <si>
+    <t>Comms</t>
   </si>
 </sst>
 </file>
@@ -2560,101 +2584,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_XINGS" xfId="1"/>
   </cellStyles>
-  <dxfs count="72">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="39">
     <dxf>
       <fill>
         <patternFill>
@@ -2813,36 +2743,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -2869,13 +2769,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2888,16 +2781,32 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2953,83 +2862,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C6500"/>
       </font>
@@ -3040,70 +2872,22 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C6500"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3408,10 +3192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CM205"/>
+  <dimension ref="A1:CM214"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R171" sqref="R171"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R109" sqref="R109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3534,8 +3318,8 @@
         <v>14</v>
       </c>
       <c r="J4" s="3">
-        <f>COUNT($N$13:$P$1857)</f>
-        <v>180</v>
+        <f>COUNT($N$13:$P$1866)</f>
+        <v>189</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -3568,21 +3352,21 @@
         <v>17</v>
       </c>
       <c r="J5" s="3">
-        <f>COUNT($N$13:$N$1857)</f>
-        <v>165</v>
+        <f>COUNT($N$13:$N$1866)</f>
+        <v>175</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="45">
-        <f>AVERAGE($N$13:$N$857)</f>
-        <v>36.194848484867677</v>
+        <f>AVERAGE($N$13:$N$866)</f>
+        <v>36.318952380972249</v>
       </c>
       <c r="N5" s="5">
-        <f>MIN($N$13:$N$857)</f>
+        <f>MIN($N$13:$N$866)</f>
         <v>0.95000000204890966</v>
       </c>
       <c r="O5" s="6">
-        <f>MAX($N$13:$N$857)</f>
+        <f>MAX($N$13:$N$866)</f>
         <v>56.549999996786937</v>
       </c>
       <c r="P5" s="4"/>
@@ -3605,21 +3389,21 @@
         <v>43</v>
       </c>
       <c r="J6" s="3">
-        <f>COUNT($O$13:$O$857)</f>
+        <f>COUNT($O$13:$O$866)</f>
         <v>0</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="45">
-        <f>IFERROR(AVERAGE($O$13:$O$857),0)</f>
+        <f>IFERROR(AVERAGE($O$13:$O$866),0)</f>
         <v>0</v>
       </c>
       <c r="N6" s="5">
-        <f>MIN($O$13:$O$857)</f>
+        <f>MIN($O$13:$O$866)</f>
         <v>0</v>
       </c>
       <c r="O6" s="6">
-        <f>MAX($O$13:$O$857)</f>
+        <f>MAX($O$13:$O$866)</f>
         <v>0</v>
       </c>
       <c r="P6" s="4"/>
@@ -3642,8 +3426,8 @@
         <v>9</v>
       </c>
       <c r="J7" s="3">
-        <f>COUNT($P$13:$P$857)</f>
-        <v>15</v>
+        <f>COUNT($P$13:$P$866)</f>
+        <v>14</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -3676,21 +3460,21 @@
         <v>16</v>
       </c>
       <c r="J8" s="3">
-        <f>COUNT($N$13:$O$857)</f>
-        <v>165</v>
+        <f>COUNT($N$13:$O$866)</f>
+        <v>175</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="45">
-        <f>AVERAGE($N$13:$P$857)</f>
-        <v>35.355185185191736</v>
+        <f>AVERAGE($N$13:$P$866)</f>
+        <v>35.486419753149328</v>
       </c>
       <c r="N8" s="5">
-        <f>MIN($N$13:$O$857)</f>
+        <f>MIN($N$13:$O$866)</f>
         <v>0.95000000204890966</v>
       </c>
       <c r="O8" s="6">
-        <f>MAX($N$13:$O$857)</f>
+        <f>MAX($N$13:$O$866)</f>
         <v>56.549999996786937</v>
       </c>
       <c r="P8" s="4"/>
@@ -3714,7 +3498,7 @@
       </c>
       <c r="J9" s="7">
         <f>J8/J4</f>
-        <v>0.91666666666666663</v>
+        <v>0.92592592592592593</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -5509,7 +5293,9 @@
         <v>13.13333333353512</v>
       </c>
       <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
+      <c r="R29" s="44" t="s">
+        <v>644</v>
+      </c>
       <c r="S29" s="70">
         <f>SUM(U29:U29)/12</f>
         <v>0.41666666666666669</v>
@@ -6853,7 +6639,9 @@
         <v>18.300000003073364</v>
       </c>
       <c r="Q43" s="44"/>
-      <c r="R43" s="44"/>
+      <c r="R43" s="44" t="s">
+        <v>644</v>
+      </c>
       <c r="S43" s="70">
         <f>SUM(U43:U43)/12</f>
         <v>0.5</v>
@@ -7045,7 +6833,9 @@
         <v>14.183333327528089</v>
       </c>
       <c r="Q45" s="44"/>
-      <c r="R45" s="44"/>
+      <c r="R45" s="44" t="s">
+        <v>645</v>
+      </c>
       <c r="S45" s="70">
         <f>SUM(U45:U45)/12</f>
         <v>0.41666666666666669</v>
@@ -8739,7 +8529,7 @@
         <v>42549.433472222219</v>
       </c>
       <c r="F63" s="25">
-        <v>42549.435601851852</v>
+        <v>42549.434004629627</v>
       </c>
       <c r="G63" s="31">
         <v>3</v>
@@ -8748,7 +8538,7 @@
         <v>297</v>
       </c>
       <c r="I63" s="25">
-        <v>42549.435289351852</v>
+        <v>42549.435671296298</v>
       </c>
       <c r="J63" s="43">
         <v>0</v>
@@ -8763,15 +8553,18 @@
       </c>
       <c r="M63" s="11">
         <f>I63-F63</f>
-        <v>-3.125000002910383E-4</v>
+        <v>1.6666666706441902E-3</v>
       </c>
       <c r="N63" s="12"/>
       <c r="O63" s="12"/>
       <c r="P63" s="12">
-        <v>1</v>
+        <f>24*60*SUM($M63:$M63)</f>
+        <v>2.4000000057276338</v>
       </c>
       <c r="Q63" s="44"/>
-      <c r="R63" s="44"/>
+      <c r="R63" s="44" t="s">
+        <v>645</v>
+      </c>
       <c r="S63" s="70">
         <f>SUM(U63:U63)/12</f>
         <v>0</v>
@@ -8786,7 +8579,7 @@
       </c>
       <c r="V63" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E63-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I63+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B63&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 10:23:12-0600',mode:absolute,to:'2016-06-28 10:27:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 10:23:12-0600',mode:absolute,to:'2016-06-28 10:28:22-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W63" s="48" t="str">
         <f>IF(AA63&lt;23,"Y","N")</f>
@@ -8956,17 +8749,17 @@
         <f>I65-F65</f>
         <v>2.9212962959718425E-2</v>
       </c>
-      <c r="N65" s="12"/>
-      <c r="O65" s="12"/>
-      <c r="P65" s="12">
+      <c r="N65" s="12">
         <f>24*60*SUM($M65:$M65)</f>
         <v>42.066666661994532</v>
       </c>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
       <c r="Q65" s="44"/>
       <c r="R65" s="44"/>
       <c r="S65" s="70">
         <f>SUM(U65:U65)/12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T65" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A65,3)),"Southbound","NorthBound")</f>
@@ -8974,7 +8767,7 @@
       </c>
       <c r="U65" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T65="NorthBound","&gt;=","&lt;=")&amp;Y65,Variables!$M$2:$M$19,IF(T65="NorthBound","&lt;=","&gt;=")&amp;Z65)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="V65" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E65-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I65+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B65&amp;"%22')),sort:!(Time,asc))"</f>
@@ -8982,7 +8775,7 @@
       </c>
       <c r="W65" s="48" t="str">
         <f>IF(AA65&lt;23,"Y","N")</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="X65" s="48">
         <f>VALUE(LEFT(A65,3))-VALUE(LEFT(A64,3))</f>
@@ -8993,11 +8786,11 @@
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="Z65" s="48">
-        <v>0.01</v>
+        <v>233326</v>
       </c>
       <c r="AA65" s="48">
         <f>ABS(Z65-Y65)</f>
-        <v>3.3799999999999997E-2</v>
+        <v>233325.95619999999</v>
       </c>
       <c r="AB65" s="49" t="e">
         <f>VLOOKUP(A65,Enforcements!$C$7:$J$32,8,0)</f>
@@ -9442,7 +9235,9 @@
         <v>25.28333333437331</v>
       </c>
       <c r="Q70" s="44"/>
-      <c r="R70" s="44"/>
+      <c r="R70" s="44" t="s">
+        <v>644</v>
+      </c>
       <c r="S70" s="70">
         <f>SUM(U70:U70)/12</f>
         <v>0.16666666666666666</v>
@@ -9538,7 +9333,9 @@
         <v>14.949999995296821</v>
       </c>
       <c r="Q71" s="44"/>
-      <c r="R71" s="44"/>
+      <c r="R71" s="44" t="s">
+        <v>644</v>
+      </c>
       <c r="S71" s="70">
         <f>SUM(U71:U71)/12</f>
         <v>0.66666666666666663</v>
@@ -9730,7 +9527,9 @@
         <v>17.966666665161029</v>
       </c>
       <c r="Q73" s="44"/>
-      <c r="R73" s="44"/>
+      <c r="R73" s="44" t="s">
+        <v>644</v>
+      </c>
       <c r="S73" s="70">
         <f>SUM(U73:U73)/12</f>
         <v>0.5</v>
@@ -10306,7 +10105,9 @@
         <v>1.8166666617617011</v>
       </c>
       <c r="Q79" s="44"/>
-      <c r="R79" s="44"/>
+      <c r="R79" s="44" t="s">
+        <v>644</v>
+      </c>
       <c r="S79" s="70">
         <f>SUM(U79:U79)/12</f>
         <v>0</v>
@@ -12225,7 +12026,9 @@
         <v>2.3499999940395355</v>
       </c>
       <c r="Q99" s="44"/>
-      <c r="R99" s="44"/>
+      <c r="R99" s="44" t="s">
+        <v>645</v>
+      </c>
       <c r="S99" s="70">
         <f>SUM(U99:U99)/12</f>
         <v>0</v>
@@ -12510,7 +12313,9 @@
         <v>29.550000003073364</v>
       </c>
       <c r="Q102" s="44"/>
-      <c r="R102" s="44"/>
+      <c r="R102" s="44" t="s">
+        <v>645</v>
+      </c>
       <c r="S102" s="70">
         <f>SUM(U102:U102)/12</f>
         <v>1</v>
@@ -12894,7 +12699,9 @@
         <v>18.033333336934447</v>
       </c>
       <c r="Q106" s="44"/>
-      <c r="R106" s="44"/>
+      <c r="R106" s="44" t="s">
+        <v>646</v>
+      </c>
       <c r="S106" s="70">
         <f>SUM(U106:U106)/12</f>
         <v>0</v>
@@ -16555,7 +16362,7 @@
         <v>N</v>
       </c>
       <c r="X144" s="48">
-        <f>VALUE(LEFT(A144,3))-VALUE(LEFT(A143,3))</f>
+        <f t="shared" ref="X144:X149" si="0">VALUE(LEFT(A144,3))-VALUE(LEFT(A143,3))</f>
         <v>1</v>
       </c>
       <c r="Y144" s="48">
@@ -16651,7 +16458,7 @@
         <v>N</v>
       </c>
       <c r="X145" s="48">
-        <f>VALUE(LEFT(A145,3))-VALUE(LEFT(A144,3))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Y145" s="48">
@@ -16675,7 +16482,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="43" t="s">
         <v>479</v>
       </c>
@@ -16747,7 +16554,7 @@
         <v>N</v>
       </c>
       <c r="X146" s="48">
-        <f>VALUE(LEFT(A146,3))-VALUE(LEFT(A145,3))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Y146" s="48">
@@ -16771,52 +16578,52 @@
         <v>GRADE CROSSING</v>
       </c>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="43" t="s">
-        <v>482</v>
+        <v>633</v>
       </c>
       <c r="B147" s="43">
-        <v>4020</v>
+        <v>4028</v>
       </c>
       <c r="C147" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D147" s="43" t="s">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="E147" s="25">
-        <v>42549.950162037036</v>
+        <v>42549.973611111112</v>
       </c>
       <c r="F147" s="25">
-        <v>42549.951574074075</v>
+        <v>42549.974606481483</v>
       </c>
       <c r="G147" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H147" s="25" t="s">
-        <v>307</v>
+        <v>643</v>
       </c>
       <c r="I147" s="25">
-        <v>42549.986388888887</v>
+        <v>42550.005891203706</v>
       </c>
       <c r="J147" s="43">
         <v>0</v>
       </c>
       <c r="K147" s="43" t="str">
         <f>IF(ISEVEN(B147),(B147-1)&amp;"/"&amp;B147,B147&amp;"/"&amp;(B147+1))</f>
-        <v>4019/4020</v>
+        <v>4027/4028</v>
       </c>
       <c r="L147" s="43" t="str">
         <f>VLOOKUP(A147,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>LEVERE</v>
+        <v>BARTLETT</v>
       </c>
       <c r="M147" s="11">
         <f>I147-F147</f>
-        <v>3.481481481139781E-2</v>
+        <v>3.1284722223063E-2</v>
       </c>
       <c r="N147" s="12">
         <f>24*60*SUM($M147:$M147)</f>
-        <v>50.133333328412846</v>
+        <v>45.050000001210719</v>
       </c>
       <c r="O147" s="12"/>
       <c r="P147" s="12"/>
@@ -16828,7 +16635,7 @@
       </c>
       <c r="T147" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A147,3)),"Southbound","NorthBound")</f>
-        <v>NorthBound</v>
+        <v>Southbound</v>
       </c>
       <c r="U147" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T147="NorthBound","&gt;=","&lt;=")&amp;Y147,Variables!$M$2:$M$19,IF(T147="NorthBound","&lt;=","&gt;=")&amp;Z147)</f>
@@ -16836,27 +16643,27 @@
       </c>
       <c r="V147" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E147-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I147+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B147&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 22:47:14-0600',mode:absolute,to:'2016-06-28 23:41:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 23:21:00-0600',mode:absolute,to:'2016-06-29 00:09:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W147" s="48" t="str">
         <f>IF(AA147&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X147" s="48">
-        <f>VALUE(LEFT(A147,3))-VALUE(LEFT(A146,3))</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="Y147" s="48">
         <f>RIGHT(D147,LEN(D147)-4)/10000</f>
-        <v>4.5499999999999999E-2</v>
+        <v>23.296700000000001</v>
       </c>
       <c r="Z147" s="48">
         <f>RIGHT(H147,LEN(H147)-4)/10000</f>
-        <v>23.331600000000002</v>
+        <v>1.78E-2</v>
       </c>
       <c r="AA147" s="48">
         <f>ABS(Z147-Y147)</f>
-        <v>23.286100000000001</v>
+        <v>23.2789</v>
       </c>
       <c r="AB147" s="49" t="e">
         <f>VLOOKUP(A147,Enforcements!$C$7:$J$32,8,0)</f>
@@ -16867,52 +16674,52 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="43" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B148" s="43">
-        <v>4039</v>
+        <v>4020</v>
       </c>
       <c r="C148" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D148" s="43" t="s">
-        <v>484</v>
+        <v>101</v>
       </c>
       <c r="E148" s="25">
-        <v>42549.217499999999</v>
+        <v>42549.950162037036</v>
       </c>
       <c r="F148" s="25">
-        <v>42549.218194444446</v>
+        <v>42549.951574074075</v>
       </c>
       <c r="G148" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H148" s="25" t="s">
-        <v>485</v>
+        <v>307</v>
       </c>
       <c r="I148" s="25">
-        <v>42549.227037037039</v>
+        <v>42549.986388888887</v>
       </c>
       <c r="J148" s="43">
         <v>0</v>
       </c>
       <c r="K148" s="43" t="str">
         <f>IF(ISEVEN(B148),(B148-1)&amp;"/"&amp;B148,B148&amp;"/"&amp;(B148+1))</f>
-        <v>4039/4040</v>
+        <v>4019/4020</v>
       </c>
       <c r="L148" s="43" t="str">
         <f>VLOOKUP(A148,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>HELVIE</v>
+        <v>LEVERE</v>
       </c>
       <c r="M148" s="11">
         <f>I148-F148</f>
-        <v>8.8425925932824612E-3</v>
+        <v>3.481481481139781E-2</v>
       </c>
       <c r="N148" s="12">
         <f>24*60*SUM($M148:$M148)</f>
-        <v>12.733333334326744</v>
+        <v>50.133333328412846</v>
       </c>
       <c r="O148" s="12"/>
       <c r="P148" s="12"/>
@@ -16920,39 +16727,39 @@
       <c r="R148" s="44"/>
       <c r="S148" s="70">
         <f>SUM(U148:U148)/12</f>
-        <v>0.58333333333333337</v>
+        <v>1</v>
       </c>
       <c r="T148" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A148,3)),"Southbound","NorthBound")</f>
-        <v>Southbound</v>
+        <v>NorthBound</v>
       </c>
       <c r="U148" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T148="NorthBound","&gt;=","&lt;=")&amp;Y148,Variables!$M$2:$M$19,IF(T148="NorthBound","&lt;=","&gt;=")&amp;Z148)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="V148" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E148-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I148+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B148&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 05:12:12-0600',mode:absolute,to:'2016-06-28 05:27:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 22:47:14-0600',mode:absolute,to:'2016-06-28 23:41:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W148" s="48" t="str">
-        <f>IF(AA148&lt;5.5,"Y","N")</f>
+        <f>IF(AA148&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X148" s="48">
-        <f>VALUE(LEFT(A148,3))-VALUE(LEFT(A147,3))</f>
-        <v>563</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="Y148" s="48">
         <f>RIGHT(D148,LEN(D148)-4)/10000</f>
-        <v>5.8624000000000001</v>
+        <v>4.5499999999999999E-2</v>
       </c>
       <c r="Z148" s="48">
         <f>RIGHT(H148,LEN(H148)-4)/10000</f>
-        <v>8.3900000000000002E-2</v>
+        <v>23.331600000000002</v>
       </c>
       <c r="AA148" s="48">
         <f>ABS(Z148-Y148)</f>
-        <v>5.7785000000000002</v>
+        <v>23.286100000000001</v>
       </c>
       <c r="AB148" s="49" t="e">
         <f>VLOOKUP(A148,Enforcements!$C$7:$J$32,8,0)</f>
@@ -16963,52 +16770,52 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="43" t="s">
-        <v>486</v>
+        <v>619</v>
       </c>
       <c r="B149" s="43">
-        <v>4040</v>
+        <v>4019</v>
       </c>
       <c r="C149" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D149" s="43" t="s">
-        <v>487</v>
+        <v>641</v>
       </c>
       <c r="E149" s="25">
-        <v>42549.237870370373</v>
+        <v>42549.991423611114</v>
       </c>
       <c r="F149" s="25">
-        <v>42549.23883101852</v>
+        <v>42549.992407407408</v>
       </c>
       <c r="G149" s="25">
         <v>1</v>
       </c>
       <c r="H149" s="25" t="s">
-        <v>488</v>
+        <v>642</v>
       </c>
       <c r="I149" s="25">
-        <v>42549.252951388888</v>
+        <v>42550.02412037037</v>
       </c>
       <c r="J149" s="43">
         <v>0</v>
       </c>
       <c r="K149" s="43" t="str">
         <f>IF(ISEVEN(B149),(B149-1)&amp;"/"&amp;B149,B149&amp;"/"&amp;(B149+1))</f>
-        <v>4039/4040</v>
+        <v>4019/4020</v>
       </c>
       <c r="L149" s="43" t="str">
         <f>VLOOKUP(A149,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>HELVIE</v>
+        <v>LEVERE</v>
       </c>
       <c r="M149" s="11">
         <f>I149-F149</f>
-        <v>1.4120370367891155E-2</v>
+        <v>3.1712962962046731E-2</v>
       </c>
       <c r="N149" s="12">
         <f>24*60*SUM($M149:$M149)</f>
-        <v>20.333333329763263</v>
+        <v>45.666666665347293</v>
       </c>
       <c r="O149" s="12"/>
       <c r="P149" s="12"/>
@@ -17016,39 +16823,39 @@
       <c r="R149" s="44"/>
       <c r="S149" s="70">
         <f>SUM(U149:U149)/12</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="T149" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A149,3)),"Southbound","NorthBound")</f>
-        <v>NorthBound</v>
+        <v>Southbound</v>
       </c>
       <c r="U149" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T149="NorthBound","&gt;=","&lt;=")&amp;Y149,Variables!$M$2:$M$19,IF(T149="NorthBound","&lt;=","&gt;=")&amp;Z149)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="V149" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E149-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I149+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B149&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 05:41:32-0600',mode:absolute,to:'2016-06-28 06:05:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 23:46:39-0600',mode:absolute,to:'2016-06-29 00:35:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W149" s="48" t="str">
-        <f t="shared" ref="W149:W196" si="0">IF(AA149&lt;5.5,"Y","N")</f>
+        <f>IF(AA149&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X149" s="48">
-        <f>VALUE(LEFT(A149,3))-VALUE(LEFT(A148,3))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Y149" s="48">
         <f>RIGHT(D149,LEN(D149)-4)/10000</f>
-        <v>0.1137</v>
+        <v>23.295500000000001</v>
       </c>
       <c r="Z149" s="48">
         <f>RIGHT(H149,LEN(H149)-4)/10000</f>
-        <v>5.8924000000000003</v>
+        <v>1.6299999999999999E-2</v>
       </c>
       <c r="AA149" s="48">
         <f>ABS(Z149-Y149)</f>
-        <v>5.7787000000000006</v>
+        <v>23.279199999999999</v>
       </c>
       <c r="AB149" s="49" t="e">
         <f>VLOOKUP(A149,Enforcements!$C$7:$J$32,8,0)</f>
@@ -17059,52 +16866,52 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="43" t="s">
-        <v>489</v>
+        <v>630</v>
       </c>
       <c r="B150" s="43">
-        <v>4039</v>
+        <v>4018</v>
       </c>
       <c r="C150" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D150" s="43" t="s">
-        <v>490</v>
+        <v>71</v>
       </c>
       <c r="E150" s="25">
-        <v>42549.254155092596</v>
+        <v>42549.972997685189</v>
       </c>
       <c r="F150" s="25">
-        <v>42549.255046296297</v>
+        <v>42549.973692129628</v>
       </c>
       <c r="G150" s="25">
         <v>1</v>
       </c>
       <c r="H150" s="25" t="s">
-        <v>491</v>
+        <v>147</v>
       </c>
       <c r="I150" s="25">
-        <v>42549.266724537039</v>
+        <v>42550.004305555558</v>
       </c>
       <c r="J150" s="43">
         <v>0</v>
       </c>
       <c r="K150" s="43" t="str">
         <f>IF(ISEVEN(B150),(B150-1)&amp;"/"&amp;B150,B150&amp;"/"&amp;(B150+1))</f>
-        <v>4039/4040</v>
+        <v>4017/4018</v>
       </c>
       <c r="L150" s="43" t="str">
         <f>VLOOKUP(A150,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>HELVIE</v>
+        <v>MOSES</v>
       </c>
       <c r="M150" s="11">
         <f>I150-F150</f>
-        <v>1.1678240742185153E-2</v>
+        <v>3.0613425929914229E-2</v>
       </c>
       <c r="N150" s="12">
         <f>24*60*SUM($M150:$M150)</f>
-        <v>16.81666666874662</v>
+        <v>44.083333339076489</v>
       </c>
       <c r="O150" s="12"/>
       <c r="P150" s="12"/>
@@ -17112,22 +16919,22 @@
       <c r="R150" s="44"/>
       <c r="S150" s="70">
         <f>SUM(U150:U150)/12</f>
-        <v>0.58333333333333337</v>
+        <v>1</v>
       </c>
       <c r="T150" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A150,3)),"Southbound","NorthBound")</f>
-        <v>Southbound</v>
+        <v>NorthBound</v>
       </c>
       <c r="U150" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T150="NorthBound","&gt;=","&lt;=")&amp;Y150,Variables!$M$2:$M$19,IF(T150="NorthBound","&lt;=","&gt;=")&amp;Z150)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="V150" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E150-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I150+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B150&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 06:04:59-0600',mode:absolute,to:'2016-06-28 06:25:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 23:20:07-0600',mode:absolute,to:'2016-06-29 00:07:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W150" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA150&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X150" s="48">
@@ -17136,15 +16943,15 @@
       </c>
       <c r="Y150" s="48">
         <f>RIGHT(D150,LEN(D150)-4)/10000</f>
-        <v>5.8604000000000003</v>
+        <v>4.5699999999999998E-2</v>
       </c>
       <c r="Z150" s="48">
         <f>RIGHT(H150,LEN(H150)-4)/10000</f>
-        <v>8.1100000000000005E-2</v>
+        <v>23.3293</v>
       </c>
       <c r="AA150" s="48">
         <f>ABS(Z150-Y150)</f>
-        <v>5.7793000000000001</v>
+        <v>23.2836</v>
       </c>
       <c r="AB150" s="49" t="e">
         <f>VLOOKUP(A150,Enforcements!$C$7:$J$32,8,0)</f>
@@ -17155,52 +16962,52 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="43" t="s">
-        <v>492</v>
+        <v>629</v>
       </c>
       <c r="B151" s="43">
-        <v>4029</v>
+        <v>4017</v>
       </c>
       <c r="C151" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D151" s="43" t="s">
-        <v>493</v>
+        <v>640</v>
       </c>
       <c r="E151" s="25">
-        <v>42549.263703703706</v>
+        <v>42550.012291666666</v>
       </c>
       <c r="F151" s="25">
-        <v>42549.266400462962</v>
+        <v>42550.013356481482</v>
       </c>
       <c r="G151" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H151" s="25" t="s">
-        <v>494</v>
+        <v>73</v>
       </c>
       <c r="I151" s="25">
-        <v>42549.277395833335</v>
+        <v>42550.044189814813</v>
       </c>
       <c r="J151" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K151" s="43" t="str">
         <f>IF(ISEVEN(B151),(B151-1)&amp;"/"&amp;B151,B151&amp;"/"&amp;(B151+1))</f>
-        <v>4029/4030</v>
+        <v>4017/4018</v>
       </c>
       <c r="L151" s="43" t="str">
         <f>VLOOKUP(A151,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>YORK</v>
+        <v>MOSES</v>
       </c>
       <c r="M151" s="11">
         <f>I151-F151</f>
-        <v>1.099537037225673E-2</v>
+        <v>3.0833333330519963E-2</v>
       </c>
       <c r="N151" s="12">
         <f>24*60*SUM($M151:$M151)</f>
-        <v>15.833333336049691</v>
+        <v>44.399999995948747</v>
       </c>
       <c r="O151" s="12"/>
       <c r="P151" s="12"/>
@@ -17208,22 +17015,22 @@
       <c r="R151" s="44"/>
       <c r="S151" s="70">
         <f>SUM(U151:U151)/12</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="T151" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A151,3)),"Southbound","NorthBound")</f>
-        <v>NorthBound</v>
+        <v>Southbound</v>
       </c>
       <c r="U151" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T151="NorthBound","&gt;=","&lt;=")&amp;Y151,Variables!$M$2:$M$19,IF(T151="NorthBound","&lt;=","&gt;=")&amp;Z151)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="V151" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E151-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I151+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B151&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 06:18:44-0600',mode:absolute,to:'2016-06-28 06:40:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-29 00:16:42-0600',mode:absolute,to:'2016-06-29 01:04:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W151" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA151&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X151" s="48">
@@ -17232,15 +17039,15 @@
       </c>
       <c r="Y151" s="48">
         <f>RIGHT(D151,LEN(D151)-4)/10000</f>
-        <v>4.4999999999999998E-2</v>
+        <v>23.296500000000002</v>
       </c>
       <c r="Z151" s="48">
         <f>RIGHT(H151,LEN(H151)-4)/10000</f>
-        <v>5.8914</v>
+        <v>1.49E-2</v>
       </c>
       <c r="AA151" s="48">
         <f>ABS(Z151-Y151)</f>
-        <v>5.8464</v>
+        <v>23.281600000000001</v>
       </c>
       <c r="AB151" s="49" t="e">
         <f>VLOOKUP(A151,Enforcements!$C$7:$J$32,8,0)</f>
@@ -17251,52 +17058,52 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="43" t="s">
-        <v>495</v>
+        <v>617</v>
       </c>
       <c r="B152" s="43">
-        <v>4030</v>
+        <v>4025</v>
       </c>
       <c r="C152" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D152" s="43" t="s">
-        <v>496</v>
+        <v>71</v>
       </c>
       <c r="E152" s="25">
-        <v>42549.280034722222</v>
+        <v>42549.993101851855</v>
       </c>
       <c r="F152" s="25">
-        <v>42549.281099537038</v>
+        <v>42549.994212962964</v>
       </c>
       <c r="G152" s="25">
         <v>1</v>
       </c>
       <c r="H152" s="25" t="s">
-        <v>497</v>
+        <v>147</v>
       </c>
       <c r="I152" s="25">
-        <v>42549.292511574073</v>
+        <v>42550.027777777781</v>
       </c>
       <c r="J152" s="43">
         <v>0</v>
       </c>
       <c r="K152" s="43" t="str">
         <f>IF(ISEVEN(B152),(B152-1)&amp;"/"&amp;B152,B152&amp;"/"&amp;(B152+1))</f>
-        <v>4029/4030</v>
+        <v>4025/4026</v>
       </c>
       <c r="L152" s="43" t="str">
         <f>VLOOKUP(A152,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>YORK</v>
+        <v>ADANE</v>
       </c>
       <c r="M152" s="11">
         <f>I152-F152</f>
-        <v>1.1412037034460809E-2</v>
+        <v>3.3564814817509614E-2</v>
       </c>
       <c r="N152" s="12">
         <f>24*60*SUM($M152:$M152)</f>
-        <v>16.433333329623565</v>
+        <v>48.333333337213844</v>
       </c>
       <c r="O152" s="12"/>
       <c r="P152" s="12"/>
@@ -17304,22 +17111,22 @@
       <c r="R152" s="44"/>
       <c r="S152" s="70">
         <f>SUM(U152:U152)/12</f>
-        <v>0.58333333333333337</v>
+        <v>1</v>
       </c>
       <c r="T152" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A152,3)),"Southbound","NorthBound")</f>
-        <v>Southbound</v>
+        <v>NorthBound</v>
       </c>
       <c r="U152" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T152="NorthBound","&gt;=","&lt;=")&amp;Y152,Variables!$M$2:$M$19,IF(T152="NorthBound","&lt;=","&gt;=")&amp;Z152)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="V152" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E152-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I152+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B152&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 06:42:15-0600',mode:absolute,to:'2016-06-28 07:02:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 23:49:04-0600',mode:absolute,to:'2016-06-29 00:41:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W152" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA152&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X152" s="48">
@@ -17328,15 +17135,15 @@
       </c>
       <c r="Y152" s="48">
         <f>RIGHT(D152,LEN(D152)-4)/10000</f>
-        <v>5.8601999999999999</v>
+        <v>4.5699999999999998E-2</v>
       </c>
       <c r="Z152" s="48">
         <f>RIGHT(H152,LEN(H152)-4)/10000</f>
-        <v>7.9000000000000001E-2</v>
+        <v>23.3293</v>
       </c>
       <c r="AA152" s="48">
         <f>ABS(Z152-Y152)</f>
-        <v>5.7812000000000001</v>
+        <v>23.2836</v>
       </c>
       <c r="AB152" s="49" t="e">
         <f>VLOOKUP(A152,Enforcements!$C$7:$J$32,8,0)</f>
@@ -17347,52 +17154,52 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="43" t="s">
-        <v>498</v>
+        <v>622</v>
       </c>
       <c r="B153" s="43">
-        <v>4040</v>
+        <v>4026</v>
       </c>
       <c r="C153" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D153" s="43" t="s">
-        <v>499</v>
+        <v>151</v>
       </c>
       <c r="E153" s="25">
-        <v>42549.279745370368</v>
+        <v>42550.038194444445</v>
       </c>
       <c r="F153" s="25">
-        <v>42549.280648148146</v>
+        <v>42550.039131944446</v>
       </c>
       <c r="G153" s="25">
         <v>1</v>
       </c>
       <c r="H153" s="25" t="s">
-        <v>500</v>
+        <v>639</v>
       </c>
       <c r="I153" s="25">
-        <v>42549.294571759259</v>
+        <v>42550.065775462965</v>
       </c>
       <c r="J153" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K153" s="43" t="str">
         <f>IF(ISEVEN(B153),(B153-1)&amp;"/"&amp;B153,B153&amp;"/"&amp;(B153+1))</f>
-        <v>4039/4040</v>
+        <v>4025/4026</v>
       </c>
       <c r="L153" s="43" t="str">
         <f>VLOOKUP(A153,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>HELVIE</v>
+        <v>ADANE</v>
       </c>
       <c r="M153" s="11">
         <f>I153-F153</f>
-        <v>1.3923611113568768E-2</v>
+        <v>2.6643518518540077E-2</v>
       </c>
       <c r="N153" s="12">
         <f>24*60*SUM($M153:$M153)</f>
-        <v>20.050000003539026</v>
+        <v>38.366666666697711</v>
       </c>
       <c r="O153" s="12"/>
       <c r="P153" s="12"/>
@@ -17400,22 +17207,22 @@
       <c r="R153" s="44"/>
       <c r="S153" s="70">
         <f>SUM(U153:U153)/12</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="T153" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A153,3)),"Southbound","NorthBound")</f>
-        <v>NorthBound</v>
+        <v>Southbound</v>
       </c>
       <c r="U153" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T153="NorthBound","&gt;=","&lt;=")&amp;Y153,Variables!$M$2:$M$19,IF(T153="NorthBound","&lt;=","&gt;=")&amp;Z153)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="V153" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E153-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I153+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B153&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 06:41:50-0600',mode:absolute,to:'2016-06-28 07:05:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-29 00:54:00-0600',mode:absolute,to:'2016-06-29 01:35:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W153" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA153&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X153" s="48">
@@ -17424,15 +17231,15 @@
       </c>
       <c r="Y153" s="48">
         <f>RIGHT(D153,LEN(D153)-4)/10000</f>
-        <v>0.11210000000000001</v>
+        <v>23.2973</v>
       </c>
       <c r="Z153" s="48">
         <f>RIGHT(H153,LEN(H153)-4)/10000</f>
-        <v>5.8940999999999999</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="AA153" s="48">
         <f>ABS(Z153-Y153)</f>
-        <v>5.782</v>
+        <v>23.2834</v>
       </c>
       <c r="AB153" s="49" t="e">
         <f>VLOOKUP(A153,Enforcements!$C$7:$J$32,8,0)</f>
@@ -17443,52 +17250,52 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="43" t="s">
-        <v>501</v>
+        <v>631</v>
       </c>
       <c r="B154" s="43">
-        <v>4039</v>
+        <v>4028</v>
       </c>
       <c r="C154" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D154" s="43" t="s">
-        <v>502</v>
+        <v>155</v>
       </c>
       <c r="E154" s="25">
-        <v>42549.295543981483</v>
+        <v>42550.056284722225</v>
       </c>
       <c r="F154" s="25">
-        <v>42549.296423611115</v>
+        <v>42550.05704861111</v>
       </c>
       <c r="G154" s="25">
         <v>1</v>
       </c>
       <c r="H154" s="25" t="s">
-        <v>503</v>
+        <v>169</v>
       </c>
       <c r="I154" s="25">
-        <v>42549.309293981481</v>
+        <v>42550.088113425925</v>
       </c>
       <c r="J154" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K154" s="43" t="str">
         <f>IF(ISEVEN(B154),(B154-1)&amp;"/"&amp;B154,B154&amp;"/"&amp;(B154+1))</f>
-        <v>4039/4040</v>
+        <v>4027/4028</v>
       </c>
       <c r="L154" s="43" t="str">
         <f>VLOOKUP(A154,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>HELVIE</v>
+        <v>BARTLETT</v>
       </c>
       <c r="M154" s="11">
         <f>I154-F154</f>
-        <v>1.2870370366727002E-2</v>
+        <v>3.1064814815181307E-2</v>
       </c>
       <c r="N154" s="12">
         <f>24*60*SUM($M154:$M154)</f>
-        <v>18.533333328086883</v>
+        <v>44.733333333861083</v>
       </c>
       <c r="O154" s="12"/>
       <c r="P154" s="12"/>
@@ -17496,7 +17303,7 @@
       <c r="R154" s="44"/>
       <c r="S154" s="70">
         <f>SUM(U154:U154)/12</f>
-        <v>0.58333333333333337</v>
+        <v>1</v>
       </c>
       <c r="T154" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A154,3)),"Southbound","NorthBound")</f>
@@ -17504,31 +17311,31 @@
       </c>
       <c r="U154" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T154="NorthBound","&gt;=","&lt;=")&amp;Y154,Variables!$M$2:$M$19,IF(T154="NorthBound","&lt;=","&gt;=")&amp;Z154)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="V154" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E154-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I154+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B154&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 07:04:35-0600',mode:absolute,to:'2016-06-28 07:26:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-29 01:20:03-0600',mode:absolute,to:'2016-06-29 02:07:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W154" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA154&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X154" s="48">
         <f>VALUE(LEFT(A154,3))-VALUE(LEFT(A153,3))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y154" s="48">
         <f>RIGHT(D154,LEN(D154)-4)/10000</f>
-        <v>5.8609</v>
+        <v>23.299399999999999</v>
       </c>
       <c r="Z154" s="48">
         <f>RIGHT(H154,LEN(H154)-4)/10000</f>
-        <v>9.4500000000000001E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="AA154" s="48">
         <f>ABS(Z154-Y154)</f>
-        <v>5.7664</v>
+        <v>23.282699999999998</v>
       </c>
       <c r="AB154" s="49" t="e">
         <f>VLOOKUP(A154,Enforcements!$C$7:$J$32,8,0)</f>
@@ -17539,52 +17346,52 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A155" s="81" t="s">
-        <v>504</v>
-      </c>
-      <c r="B155" s="86">
-        <v>4029</v>
-      </c>
-      <c r="C155" s="66" t="s">
+    <row r="155" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="43" t="s">
+        <v>483</v>
+      </c>
+      <c r="B155" s="43">
+        <v>4039</v>
+      </c>
+      <c r="C155" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="D155" s="66" t="s">
-        <v>505</v>
-      </c>
-      <c r="E155" s="78">
-        <v>42549.304375</v>
+      <c r="D155" s="43" t="s">
+        <v>484</v>
+      </c>
+      <c r="E155" s="25">
+        <v>42549.217499999999</v>
       </c>
       <c r="F155" s="25">
-        <v>42549.305208333331</v>
+        <v>42549.218194444446</v>
       </c>
       <c r="G155" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155" s="25" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="I155" s="25">
-        <v>42549.315821759257</v>
+        <v>42549.227037037039</v>
       </c>
       <c r="J155" s="43">
         <v>0</v>
       </c>
       <c r="K155" s="43" t="str">
         <f>IF(ISEVEN(B155),(B155-1)&amp;"/"&amp;B155,B155&amp;"/"&amp;(B155+1))</f>
-        <v>4029/4030</v>
+        <v>4039/4040</v>
       </c>
       <c r="L155" s="43" t="str">
         <f>VLOOKUP(A155,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>YORK</v>
+        <v>HELVIE</v>
       </c>
       <c r="M155" s="11">
         <f>I155-F155</f>
-        <v>1.0613425925839692E-2</v>
+        <v>8.8425925932824612E-3</v>
       </c>
       <c r="N155" s="12">
         <f>24*60*SUM($M155:$M155)</f>
-        <v>15.283333333209157</v>
+        <v>12.733333334326744</v>
       </c>
       <c r="O155" s="12"/>
       <c r="P155" s="12"/>
@@ -17592,39 +17399,39 @@
       <c r="R155" s="44"/>
       <c r="S155" s="70">
         <f>SUM(U155:U155)/12</f>
-        <v>0.66666666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T155" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A155,3)),"Southbound","NorthBound")</f>
-        <v>NorthBound</v>
+        <v>Southbound</v>
       </c>
       <c r="U155" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T155="NorthBound","&gt;=","&lt;=")&amp;Y155,Variables!$M$2:$M$19,IF(T155="NorthBound","&lt;=","&gt;=")&amp;Z155)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V155" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E155-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I155+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B155&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 07:17:18-0600',mode:absolute,to:'2016-06-28 07:35:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 05:12:12-0600',mode:absolute,to:'2016-06-28 05:27:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W155" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA155&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X155" s="48">
-        <f>VALUE(LEFT(A155,3))-VALUE(LEFT(A154,3))</f>
-        <v>1</v>
+        <f>VALUE(LEFT(A155,3))-VALUE(LEFT(A144,3))</f>
+        <v>567</v>
       </c>
       <c r="Y155" s="48">
         <f>RIGHT(D155,LEN(D155)-4)/10000</f>
-        <v>0.10829999999999999</v>
+        <v>5.8624000000000001</v>
       </c>
       <c r="Z155" s="48">
         <f>RIGHT(H155,LEN(H155)-4)/10000</f>
-        <v>5.8916000000000004</v>
+        <v>8.3900000000000002E-2</v>
       </c>
       <c r="AA155" s="48">
         <f>ABS(Z155-Y155)</f>
-        <v>5.7833000000000006</v>
+        <v>5.7785000000000002</v>
       </c>
       <c r="AB155" s="49" t="e">
         <f>VLOOKUP(A155,Enforcements!$C$7:$J$32,8,0)</f>
@@ -17635,52 +17442,52 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A156" s="81" t="s">
-        <v>507</v>
-      </c>
-      <c r="B156" s="86">
-        <v>4030</v>
-      </c>
-      <c r="C156" s="66" t="s">
+    <row r="156" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="B156" s="43">
+        <v>4040</v>
+      </c>
+      <c r="C156" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="D156" s="66" t="s">
-        <v>508</v>
-      </c>
-      <c r="E156" s="78">
-        <v>42549.317025462966</v>
+      <c r="D156" s="43" t="s">
+        <v>487</v>
+      </c>
+      <c r="E156" s="25">
+        <v>42549.237870370373</v>
       </c>
       <c r="F156" s="25">
-        <v>42549.318009259259</v>
+        <v>42549.23883101852</v>
       </c>
       <c r="G156" s="25">
         <v>1</v>
       </c>
       <c r="H156" s="25" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="I156" s="25">
-        <v>42549.330150462964</v>
+        <v>42549.252951388888</v>
       </c>
       <c r="J156" s="43">
         <v>0</v>
       </c>
       <c r="K156" s="43" t="str">
         <f>IF(ISEVEN(B156),(B156-1)&amp;"/"&amp;B156,B156&amp;"/"&amp;(B156+1))</f>
-        <v>4029/4030</v>
+        <v>4039/4040</v>
       </c>
       <c r="L156" s="43" t="str">
         <f>VLOOKUP(A156,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>YORK</v>
+        <v>HELVIE</v>
       </c>
       <c r="M156" s="11">
         <f>I156-F156</f>
-        <v>1.2141203704231884E-2</v>
+        <v>1.4120370367891155E-2</v>
       </c>
       <c r="N156" s="12">
         <f>24*60*SUM($M156:$M156)</f>
-        <v>17.483333334093913</v>
+        <v>20.333333329763263</v>
       </c>
       <c r="O156" s="12"/>
       <c r="P156" s="12"/>
@@ -17688,22 +17495,22 @@
       <c r="R156" s="44"/>
       <c r="S156" s="70">
         <f>SUM(U156:U156)/12</f>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T156" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A156,3)),"Southbound","NorthBound")</f>
-        <v>Southbound</v>
+        <v>NorthBound</v>
       </c>
       <c r="U156" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T156="NorthBound","&gt;=","&lt;=")&amp;Y156,Variables!$M$2:$M$19,IF(T156="NorthBound","&lt;=","&gt;=")&amp;Z156)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V156" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E156-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I156+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B156&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 07:35:31-0600',mode:absolute,to:'2016-06-28 07:56:25-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 05:41:32-0600',mode:absolute,to:'2016-06-28 06:05:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W156" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA156&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X156" s="48">
@@ -17712,15 +17519,15 @@
       </c>
       <c r="Y156" s="48">
         <f>RIGHT(D156,LEN(D156)-4)/10000</f>
-        <v>5.8597999999999999</v>
+        <v>0.1137</v>
       </c>
       <c r="Z156" s="48">
         <f>RIGHT(H156,LEN(H156)-4)/10000</f>
-        <v>7.7499999999999999E-2</v>
+        <v>5.8924000000000003</v>
       </c>
       <c r="AA156" s="48">
         <f>ABS(Z156-Y156)</f>
-        <v>5.7823000000000002</v>
+        <v>5.7787000000000006</v>
       </c>
       <c r="AB156" s="49" t="e">
         <f>VLOOKUP(A156,Enforcements!$C$7:$J$32,8,0)</f>
@@ -17732,32 +17539,32 @@
       </c>
     </row>
     <row r="157" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A157" s="81" t="s">
-        <v>510</v>
-      </c>
-      <c r="B157" s="86">
-        <v>4040</v>
-      </c>
-      <c r="C157" s="66" t="s">
+      <c r="A157" s="43" t="s">
+        <v>489</v>
+      </c>
+      <c r="B157" s="43">
+        <v>4039</v>
+      </c>
+      <c r="C157" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="D157" s="66" t="s">
-        <v>511</v>
-      </c>
-      <c r="E157" s="78">
-        <v>42549.321331018517</v>
+      <c r="D157" s="43" t="s">
+        <v>490</v>
+      </c>
+      <c r="E157" s="25">
+        <v>42549.254155092596</v>
       </c>
       <c r="F157" s="25">
-        <v>42549.322268518517</v>
+        <v>42549.255046296297</v>
       </c>
       <c r="G157" s="25">
         <v>1</v>
       </c>
       <c r="H157" s="25" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="I157" s="25">
-        <v>42549.335752314815</v>
+        <v>42549.266724537039</v>
       </c>
       <c r="J157" s="43">
         <v>0</v>
@@ -17772,11 +17579,11 @@
       </c>
       <c r="M157" s="11">
         <f>I157-F157</f>
-        <v>1.3483796297805384E-2</v>
+        <v>1.1678240742185153E-2</v>
       </c>
       <c r="N157" s="12">
         <f>24*60*SUM($M157:$M157)</f>
-        <v>19.416666668839753</v>
+        <v>16.81666666874662</v>
       </c>
       <c r="O157" s="12"/>
       <c r="P157" s="12"/>
@@ -17784,22 +17591,22 @@
       <c r="R157" s="44"/>
       <c r="S157" s="70">
         <f>SUM(U157:U157)/12</f>
-        <v>0.66666666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T157" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A157,3)),"Southbound","NorthBound")</f>
-        <v>NorthBound</v>
+        <v>Southbound</v>
       </c>
       <c r="U157" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T157="NorthBound","&gt;=","&lt;=")&amp;Y157,Variables!$M$2:$M$19,IF(T157="NorthBound","&lt;=","&gt;=")&amp;Z157)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V157" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E157-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I157+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B157&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 07:41:43-0600',mode:absolute,to:'2016-06-28 08:04:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 06:04:59-0600',mode:absolute,to:'2016-06-28 06:25:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W157" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA157&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X157" s="48">
@@ -17808,15 +17615,15 @@
       </c>
       <c r="Y157" s="48">
         <f>RIGHT(D157,LEN(D157)-4)/10000</f>
-        <v>0.12609999999999999</v>
+        <v>5.8604000000000003</v>
       </c>
       <c r="Z157" s="48">
         <f>RIGHT(H157,LEN(H157)-4)/10000</f>
-        <v>5.8924000000000003</v>
+        <v>8.1100000000000005E-2</v>
       </c>
       <c r="AA157" s="48">
         <f>ABS(Z157-Y157)</f>
-        <v>5.7663000000000002</v>
+        <v>5.7793000000000001</v>
       </c>
       <c r="AB157" s="49" t="e">
         <f>VLOOKUP(A157,Enforcements!$C$7:$J$32,8,0)</f>
@@ -17828,51 +17635,51 @@
       </c>
     </row>
     <row r="158" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A158" s="81" t="s">
-        <v>512</v>
-      </c>
-      <c r="B158" s="86">
-        <v>4039</v>
-      </c>
-      <c r="C158" s="66" t="s">
+      <c r="A158" s="43" t="s">
+        <v>492</v>
+      </c>
+      <c r="B158" s="43">
+        <v>4029</v>
+      </c>
+      <c r="C158" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="D158" s="66" t="s">
-        <v>513</v>
-      </c>
-      <c r="E158" s="78">
-        <v>42549.337118055555</v>
+      <c r="D158" s="43" t="s">
+        <v>493</v>
+      </c>
+      <c r="E158" s="25">
+        <v>42549.263703703706</v>
       </c>
       <c r="F158" s="25">
-        <v>42549.338020833333</v>
+        <v>42549.266400462962</v>
       </c>
       <c r="G158" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H158" s="25" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="I158" s="25">
-        <v>42549.351331018515</v>
+        <v>42549.277395833335</v>
       </c>
       <c r="J158" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K158" s="43" t="str">
         <f>IF(ISEVEN(B158),(B158-1)&amp;"/"&amp;B158,B158&amp;"/"&amp;(B158+1))</f>
-        <v>4039/4040</v>
+        <v>4029/4030</v>
       </c>
       <c r="L158" s="43" t="str">
         <f>VLOOKUP(A158,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>HELVIE</v>
+        <v>YORK</v>
       </c>
       <c r="M158" s="11">
         <f>I158-F158</f>
-        <v>1.3310185182490386E-2</v>
+        <v>1.099537037225673E-2</v>
       </c>
       <c r="N158" s="12">
         <f>24*60*SUM($M158:$M158)</f>
-        <v>19.166666662786156</v>
+        <v>15.833333336049691</v>
       </c>
       <c r="O158" s="12"/>
       <c r="P158" s="12"/>
@@ -17880,22 +17687,22 @@
       <c r="R158" s="44"/>
       <c r="S158" s="70">
         <f>SUM(U158:U158)/12</f>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T158" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A158,3)),"Southbound","NorthBound")</f>
-        <v>Southbound</v>
+        <v>NorthBound</v>
       </c>
       <c r="U158" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T158="NorthBound","&gt;=","&lt;=")&amp;Y158,Variables!$M$2:$M$19,IF(T158="NorthBound","&lt;=","&gt;=")&amp;Z158)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V158" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E158-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I158+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B158&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 08:04:27-0600',mode:absolute,to:'2016-06-28 08:26:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 06:18:44-0600',mode:absolute,to:'2016-06-28 06:40:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W158" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA158&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X158" s="48">
@@ -17904,15 +17711,15 @@
       </c>
       <c r="Y158" s="48">
         <f>RIGHT(D158,LEN(D158)-4)/10000</f>
-        <v>5.8593999999999999</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="Z158" s="48">
         <f>RIGHT(H158,LEN(H158)-4)/10000</f>
-        <v>9.2999999999999999E-2</v>
+        <v>5.8914</v>
       </c>
       <c r="AA158" s="48">
         <f>ABS(Z158-Y158)</f>
-        <v>5.7664</v>
+        <v>5.8464</v>
       </c>
       <c r="AB158" s="49" t="e">
         <f>VLOOKUP(A158,Enforcements!$C$7:$J$32,8,0)</f>
@@ -17924,35 +17731,35 @@
       </c>
     </row>
     <row r="159" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A159" s="81" t="s">
-        <v>515</v>
-      </c>
-      <c r="B159" s="86">
-        <v>4029</v>
-      </c>
-      <c r="C159" s="66" t="s">
+      <c r="A159" s="43" t="s">
+        <v>495</v>
+      </c>
+      <c r="B159" s="43">
+        <v>4030</v>
+      </c>
+      <c r="C159" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="D159" s="66" t="s">
-        <v>516</v>
-      </c>
-      <c r="E159" s="78">
-        <v>42549.344930555555</v>
+      <c r="D159" s="43" t="s">
+        <v>496</v>
+      </c>
+      <c r="E159" s="25">
+        <v>42549.280034722222</v>
       </c>
       <c r="F159" s="25">
-        <v>42549.346122685187</v>
+        <v>42549.281099537038</v>
       </c>
       <c r="G159" s="25">
         <v>1</v>
       </c>
       <c r="H159" s="25" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="I159" s="25">
-        <v>42549.360659722224</v>
+        <v>42549.292511574073</v>
       </c>
       <c r="J159" s="43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K159" s="43" t="str">
         <f>IF(ISEVEN(B159),(B159-1)&amp;"/"&amp;B159,B159&amp;"/"&amp;(B159+1))</f>
@@ -17960,15 +17767,15 @@
       </c>
       <c r="L159" s="43" t="str">
         <f>VLOOKUP(A159,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>ACKERMAN</v>
+        <v>YORK</v>
       </c>
       <c r="M159" s="11">
         <f>I159-F159</f>
-        <v>1.4537037037371192E-2</v>
+        <v>1.1412037034460809E-2</v>
       </c>
       <c r="N159" s="12">
         <f>24*60*SUM($M159:$M159)</f>
-        <v>20.933333333814517</v>
+        <v>16.433333329623565</v>
       </c>
       <c r="O159" s="12"/>
       <c r="P159" s="12"/>
@@ -17976,22 +17783,22 @@
       <c r="R159" s="44"/>
       <c r="S159" s="70">
         <f>SUM(U159:U159)/12</f>
-        <v>0.66666666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T159" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A159,3)),"Southbound","NorthBound")</f>
-        <v>NorthBound</v>
+        <v>Southbound</v>
       </c>
       <c r="U159" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T159="NorthBound","&gt;=","&lt;=")&amp;Y159,Variables!$M$2:$M$19,IF(T159="NorthBound","&lt;=","&gt;=")&amp;Z159)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V159" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E159-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I159+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B159&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 08:15:42-0600',mode:absolute,to:'2016-06-28 08:40:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 06:42:15-0600',mode:absolute,to:'2016-06-28 07:02:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W159" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA159&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X159" s="48">
@@ -18000,15 +17807,15 @@
       </c>
       <c r="Y159" s="48">
         <f>RIGHT(D159,LEN(D159)-4)/10000</f>
-        <v>0.1074</v>
+        <v>5.8601999999999999</v>
       </c>
       <c r="Z159" s="48">
         <f>RIGHT(H159,LEN(H159)-4)/10000</f>
-        <v>5.8954000000000004</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="AA159" s="48">
         <f>ABS(Z159-Y159)</f>
-        <v>5.7880000000000003</v>
+        <v>5.7812000000000001</v>
       </c>
       <c r="AB159" s="49" t="e">
         <f>VLOOKUP(A159,Enforcements!$C$7:$J$32,8,0)</f>
@@ -18020,51 +17827,51 @@
       </c>
     </row>
     <row r="160" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A160" s="81" t="s">
-        <v>518</v>
-      </c>
-      <c r="B160" s="86">
-        <v>4030</v>
-      </c>
-      <c r="C160" s="66" t="s">
+      <c r="A160" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="B160" s="43">
+        <v>4040</v>
+      </c>
+      <c r="C160" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="D160" s="66" t="s">
-        <v>484</v>
-      </c>
-      <c r="E160" s="78">
-        <v>42549.361921296295</v>
+      <c r="D160" s="43" t="s">
+        <v>499</v>
+      </c>
+      <c r="E160" s="25">
+        <v>42549.279745370368</v>
       </c>
       <c r="F160" s="25">
-        <v>42549.363067129627</v>
+        <v>42549.280648148146</v>
       </c>
       <c r="G160" s="25">
         <v>1</v>
       </c>
       <c r="H160" s="25" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="I160" s="25">
-        <v>42549.375925925924</v>
+        <v>42549.294571759259</v>
       </c>
       <c r="J160" s="43">
         <v>0</v>
       </c>
       <c r="K160" s="43" t="str">
         <f>IF(ISEVEN(B160),(B160-1)&amp;"/"&amp;B160,B160&amp;"/"&amp;(B160+1))</f>
-        <v>4029/4030</v>
+        <v>4039/4040</v>
       </c>
       <c r="L160" s="43" t="str">
         <f>VLOOKUP(A160,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>ACKERMAN</v>
+        <v>HELVIE</v>
       </c>
       <c r="M160" s="11">
         <f>I160-F160</f>
-        <v>1.2858796297223307E-2</v>
+        <v>1.3923611113568768E-2</v>
       </c>
       <c r="N160" s="12">
         <f>24*60*SUM($M160:$M160)</f>
-        <v>18.516666668001562</v>
+        <v>20.050000003539026</v>
       </c>
       <c r="O160" s="12"/>
       <c r="P160" s="12"/>
@@ -18072,22 +17879,22 @@
       <c r="R160" s="44"/>
       <c r="S160" s="70">
         <f>SUM(U160:U160)/12</f>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T160" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A160,3)),"Southbound","NorthBound")</f>
-        <v>Southbound</v>
+        <v>NorthBound</v>
       </c>
       <c r="U160" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T160="NorthBound","&gt;=","&lt;=")&amp;Y160,Variables!$M$2:$M$19,IF(T160="NorthBound","&lt;=","&gt;=")&amp;Z160)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V160" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E160-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I160+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B160&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 08:40:10-0600',mode:absolute,to:'2016-06-28 09:02:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 06:41:50-0600',mode:absolute,to:'2016-06-28 07:05:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W160" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA160&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X160" s="48">
@@ -18096,15 +17903,15 @@
       </c>
       <c r="Y160" s="48">
         <f>RIGHT(D160,LEN(D160)-4)/10000</f>
-        <v>5.8624000000000001</v>
+        <v>0.11210000000000001</v>
       </c>
       <c r="Z160" s="48">
         <f>RIGHT(H160,LEN(H160)-4)/10000</f>
-        <v>6.8500000000000005E-2</v>
+        <v>5.8940999999999999</v>
       </c>
       <c r="AA160" s="48">
         <f>ABS(Z160-Y160)</f>
-        <v>5.7938999999999998</v>
+        <v>5.782</v>
       </c>
       <c r="AB160" s="49" t="e">
         <f>VLOOKUP(A160,Enforcements!$C$7:$J$32,8,0)</f>
@@ -18116,51 +17923,51 @@
       </c>
     </row>
     <row r="161" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A161" s="81" t="s">
-        <v>520</v>
-      </c>
-      <c r="B161" s="86">
-        <v>4029</v>
-      </c>
-      <c r="C161" s="66" t="s">
+      <c r="A161" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="B161" s="43">
+        <v>4039</v>
+      </c>
+      <c r="C161" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="D161" s="66" t="s">
-        <v>521</v>
-      </c>
-      <c r="E161" s="78">
-        <v>42549.3828587963</v>
+      <c r="D161" s="43" t="s">
+        <v>502</v>
+      </c>
+      <c r="E161" s="25">
+        <v>42549.295543981483</v>
       </c>
       <c r="F161" s="25">
-        <v>42549.383726851855</v>
+        <v>42549.296423611115</v>
       </c>
       <c r="G161" s="25">
         <v>1</v>
       </c>
       <c r="H161" s="25" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="I161" s="25">
-        <v>42549.399837962963</v>
+        <v>42549.309293981481</v>
       </c>
       <c r="J161" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K161" s="43" t="str">
         <f>IF(ISEVEN(B161),(B161-1)&amp;"/"&amp;B161,B161&amp;"/"&amp;(B161+1))</f>
-        <v>4029/4030</v>
+        <v>4039/4040</v>
       </c>
       <c r="L161" s="43" t="str">
         <f>VLOOKUP(A161,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>ACKERMAN</v>
+        <v>HELVIE</v>
       </c>
       <c r="M161" s="11">
         <f>I161-F161</f>
-        <v>1.6111111108330078E-2</v>
+        <v>1.2870370366727002E-2</v>
       </c>
       <c r="N161" s="12">
         <f>24*60*SUM($M161:$M161)</f>
-        <v>23.199999995995313</v>
+        <v>18.533333328086883</v>
       </c>
       <c r="O161" s="12"/>
       <c r="P161" s="12"/>
@@ -18168,22 +17975,22 @@
       <c r="R161" s="44"/>
       <c r="S161" s="70">
         <f>SUM(U161:U161)/12</f>
-        <v>0.66666666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T161" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A161,3)),"Southbound","NorthBound")</f>
-        <v>NorthBound</v>
+        <v>Southbound</v>
       </c>
       <c r="U161" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T161="NorthBound","&gt;=","&lt;=")&amp;Y161,Variables!$M$2:$M$19,IF(T161="NorthBound","&lt;=","&gt;=")&amp;Z161)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V161" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E161-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I161+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B161&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 09:10:19-0600',mode:absolute,to:'2016-06-28 09:36:46-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 07:04:35-0600',mode:absolute,to:'2016-06-28 07:26:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W161" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA161&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X161" s="48">
@@ -18192,15 +17999,15 @@
       </c>
       <c r="Y161" s="48">
         <f>RIGHT(D161,LEN(D161)-4)/10000</f>
-        <v>9.9000000000000005E-2</v>
+        <v>5.8609</v>
       </c>
       <c r="Z161" s="48">
         <f>RIGHT(H161,LEN(H161)-4)/10000</f>
-        <v>5.8924000000000003</v>
+        <v>9.4500000000000001E-2</v>
       </c>
       <c r="AA161" s="48">
         <f>ABS(Z161-Y161)</f>
-        <v>5.7934000000000001</v>
+        <v>5.7664</v>
       </c>
       <c r="AB161" s="49" t="e">
         <f>VLOOKUP(A161,Enforcements!$C$7:$J$32,8,0)</f>
@@ -18213,31 +18020,31 @@
     </row>
     <row r="162" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A162" s="81" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="B162" s="86">
-        <v>4030</v>
+        <v>4029</v>
       </c>
       <c r="C162" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D162" s="66" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="E162" s="78">
-        <v>42549.402916666666</v>
+        <v>42549.304375</v>
       </c>
       <c r="F162" s="25">
-        <v>42549.40384259259</v>
+        <v>42549.305208333331</v>
       </c>
       <c r="G162" s="25">
         <v>1</v>
       </c>
       <c r="H162" s="25" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="I162" s="25">
-        <v>42549.413842592592</v>
+        <v>42549.315821759257</v>
       </c>
       <c r="J162" s="43">
         <v>0</v>
@@ -18248,15 +18055,15 @@
       </c>
       <c r="L162" s="43" t="str">
         <f>VLOOKUP(A162,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>ACKERMAN</v>
+        <v>YORK</v>
       </c>
       <c r="M162" s="11">
         <f>I162-F162</f>
-        <v>1.0000000002037268E-2</v>
+        <v>1.0613425925839692E-2</v>
       </c>
       <c r="N162" s="12">
         <f>24*60*SUM($M162:$M162)</f>
-        <v>14.400000002933666</v>
+        <v>15.283333333209157</v>
       </c>
       <c r="O162" s="12"/>
       <c r="P162" s="12"/>
@@ -18264,22 +18071,22 @@
       <c r="R162" s="44"/>
       <c r="S162" s="70">
         <f>SUM(U162:U162)/12</f>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T162" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A162,3)),"Southbound","NorthBound")</f>
-        <v>Southbound</v>
+        <v>NorthBound</v>
       </c>
       <c r="U162" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T162="NorthBound","&gt;=","&lt;=")&amp;Y162,Variables!$M$2:$M$19,IF(T162="NorthBound","&lt;=","&gt;=")&amp;Z162)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V162" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E162-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I162+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B162&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 09:39:12-0600',mode:absolute,to:'2016-06-28 09:56:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 07:17:18-0600',mode:absolute,to:'2016-06-28 07:35:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W162" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA162&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X162" s="48">
@@ -18288,15 +18095,15 @@
       </c>
       <c r="Y162" s="48">
         <f>RIGHT(D162,LEN(D162)-4)/10000</f>
-        <v>5.8604000000000003</v>
+        <v>0.10829999999999999</v>
       </c>
       <c r="Z162" s="48">
         <f>RIGHT(H162,LEN(H162)-4)/10000</f>
-        <v>6.9099999999999995E-2</v>
+        <v>5.8916000000000004</v>
       </c>
       <c r="AA162" s="48">
         <f>ABS(Z162-Y162)</f>
-        <v>5.7913000000000006</v>
+        <v>5.7833000000000006</v>
       </c>
       <c r="AB162" s="49" t="e">
         <f>VLOOKUP(A162,Enforcements!$C$7:$J$32,8,0)</f>
@@ -18309,34 +18116,34 @@
     </row>
     <row r="163" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A163" s="81" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="B163" s="86">
-        <v>4029</v>
+        <v>4030</v>
       </c>
       <c r="C163" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D163" s="66" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="E163" s="78">
-        <v>42549.417002314818</v>
+        <v>42549.317025462966</v>
       </c>
       <c r="F163" s="25">
-        <v>42549.418032407404</v>
+        <v>42549.318009259259</v>
       </c>
       <c r="G163" s="25">
         <v>1</v>
       </c>
       <c r="H163" s="25" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="I163" s="25">
-        <v>42549.440439814818</v>
+        <v>42549.330150462964</v>
       </c>
       <c r="J163" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K163" s="43" t="str">
         <f>IF(ISEVEN(B163),(B163-1)&amp;"/"&amp;B163,B163&amp;"/"&amp;(B163+1))</f>
@@ -18348,11 +18155,11 @@
       </c>
       <c r="M163" s="11">
         <f>I163-F163</f>
-        <v>2.2407407413993496E-2</v>
+        <v>1.2141203704231884E-2</v>
       </c>
       <c r="N163" s="12">
         <f>24*60*SUM($M163:$M163)</f>
-        <v>32.266666676150635</v>
+        <v>17.483333334093913</v>
       </c>
       <c r="O163" s="12"/>
       <c r="P163" s="12"/>
@@ -18360,22 +18167,22 @@
       <c r="R163" s="44"/>
       <c r="S163" s="70">
         <f>SUM(U163:U163)/12</f>
-        <v>0.66666666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T163" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A163,3)),"Southbound","NorthBound")</f>
-        <v>NorthBound</v>
+        <v>Southbound</v>
       </c>
       <c r="U163" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T163="NorthBound","&gt;=","&lt;=")&amp;Y163,Variables!$M$2:$M$19,IF(T163="NorthBound","&lt;=","&gt;=")&amp;Z163)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V163" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E163-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I163+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B163&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 09:59:29-0600',mode:absolute,to:'2016-06-28 10:35:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 07:35:31-0600',mode:absolute,to:'2016-06-28 07:56:25-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W163" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA163&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X163" s="48">
@@ -18384,15 +18191,15 @@
       </c>
       <c r="Y163" s="48">
         <f>RIGHT(D163,LEN(D163)-4)/10000</f>
-        <v>9.9299999999999999E-2</v>
+        <v>5.8597999999999999</v>
       </c>
       <c r="Z163" s="48">
         <f>RIGHT(H163,LEN(H163)-4)/10000</f>
-        <v>5.8901000000000003</v>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="AA163" s="48">
         <f>ABS(Z163-Y163)</f>
-        <v>5.7907999999999999</v>
+        <v>5.7823000000000002</v>
       </c>
       <c r="AB163" s="49" t="e">
         <f>VLOOKUP(A163,Enforcements!$C$7:$J$32,8,0)</f>
@@ -18405,50 +18212,50 @@
     </row>
     <row r="164" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A164" s="81" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="B164" s="86">
-        <v>4030</v>
+        <v>4040</v>
       </c>
       <c r="C164" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D164" s="66" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="E164" s="78">
-        <v>42549.441643518519</v>
+        <v>42549.321331018517</v>
       </c>
       <c r="F164" s="25">
-        <v>42549.442557870374</v>
+        <v>42549.322268518517</v>
       </c>
       <c r="G164" s="25">
         <v>1</v>
       </c>
       <c r="H164" s="25" t="s">
-        <v>529</v>
+        <v>488</v>
       </c>
       <c r="I164" s="25">
-        <v>42549.454502314817</v>
+        <v>42549.335752314815</v>
       </c>
       <c r="J164" s="43">
         <v>0</v>
       </c>
       <c r="K164" s="43" t="str">
         <f>IF(ISEVEN(B164),(B164-1)&amp;"/"&amp;B164,B164&amp;"/"&amp;(B164+1))</f>
-        <v>4029/4030</v>
+        <v>4039/4040</v>
       </c>
       <c r="L164" s="43" t="str">
         <f>VLOOKUP(A164,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>YORK</v>
+        <v>HELVIE</v>
       </c>
       <c r="M164" s="11">
         <f>I164-F164</f>
-        <v>1.1944444442633539E-2</v>
+        <v>1.3483796297805384E-2</v>
       </c>
       <c r="N164" s="12">
         <f>24*60*SUM($M164:$M164)</f>
-        <v>17.199999997392297</v>
+        <v>19.416666668839753</v>
       </c>
       <c r="O164" s="12"/>
       <c r="P164" s="12"/>
@@ -18456,22 +18263,22 @@
       <c r="R164" s="44"/>
       <c r="S164" s="70">
         <f>SUM(U164:U164)/12</f>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T164" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A164,3)),"Southbound","NorthBound")</f>
-        <v>Southbound</v>
+        <v>NorthBound</v>
       </c>
       <c r="U164" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T164="NorthBound","&gt;=","&lt;=")&amp;Y164,Variables!$M$2:$M$19,IF(T164="NorthBound","&lt;=","&gt;=")&amp;Z164)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V164" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E164-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I164+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B164&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 10:34:58-0600',mode:absolute,to:'2016-06-28 10:55:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 07:41:43-0600',mode:absolute,to:'2016-06-28 08:04:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W164" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA164&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X164" s="48">
@@ -18480,15 +18287,15 @@
       </c>
       <c r="Y164" s="48">
         <f>RIGHT(D164,LEN(D164)-4)/10000</f>
-        <v>5.8590999999999998</v>
+        <v>0.12609999999999999</v>
       </c>
       <c r="Z164" s="48">
         <f>RIGHT(H164,LEN(H164)-4)/10000</f>
-        <v>7.3300000000000004E-2</v>
+        <v>5.8924000000000003</v>
       </c>
       <c r="AA164" s="48">
         <f>ABS(Z164-Y164)</f>
-        <v>5.7858000000000001</v>
+        <v>5.7663000000000002</v>
       </c>
       <c r="AB164" s="49" t="e">
         <f>VLOOKUP(A164,Enforcements!$C$7:$J$32,8,0)</f>
@@ -18501,50 +18308,50 @@
     </row>
     <row r="165" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A165" s="81" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="B165" s="86">
-        <v>4029</v>
+        <v>4039</v>
       </c>
       <c r="C165" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D165" s="66" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="E165" s="78">
-        <v>42549.467638888891</v>
+        <v>42549.337118055555</v>
       </c>
       <c r="F165" s="25">
-        <v>42549.4684837963</v>
+        <v>42549.338020833333</v>
       </c>
       <c r="G165" s="25">
         <v>1</v>
       </c>
       <c r="H165" s="25" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="I165" s="25">
-        <v>42549.482442129629</v>
+        <v>42549.351331018515</v>
       </c>
       <c r="J165" s="43">
         <v>0</v>
       </c>
       <c r="K165" s="43" t="str">
         <f>IF(ISEVEN(B165),(B165-1)&amp;"/"&amp;B165,B165&amp;"/"&amp;(B165+1))</f>
-        <v>4029/4030</v>
+        <v>4039/4040</v>
       </c>
       <c r="L165" s="43" t="str">
         <f>VLOOKUP(A165,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>YORK</v>
+        <v>HELVIE</v>
       </c>
       <c r="M165" s="11">
         <f>I165-F165</f>
-        <v>1.395833332935581E-2</v>
+        <v>1.3310185182490386E-2</v>
       </c>
       <c r="N165" s="12">
         <f>24*60*SUM($M165:$M165)</f>
-        <v>20.099999994272366</v>
+        <v>19.166666662786156</v>
       </c>
       <c r="O165" s="12"/>
       <c r="P165" s="12"/>
@@ -18552,22 +18359,22 @@
       <c r="R165" s="44"/>
       <c r="S165" s="70">
         <f>SUM(U165:U165)/12</f>
-        <v>0.66666666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T165" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A165,3)),"Southbound","NorthBound")</f>
-        <v>NorthBound</v>
+        <v>Southbound</v>
       </c>
       <c r="U165" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T165="NorthBound","&gt;=","&lt;=")&amp;Y165,Variables!$M$2:$M$19,IF(T165="NorthBound","&lt;=","&gt;=")&amp;Z165)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V165" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E165-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I165+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B165&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 11:12:24-0600',mode:absolute,to:'2016-06-28 11:35:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 08:04:27-0600',mode:absolute,to:'2016-06-28 08:26:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W165" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA165&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X165" s="48">
@@ -18576,15 +18383,15 @@
       </c>
       <c r="Y165" s="48">
         <f>RIGHT(D165,LEN(D165)-4)/10000</f>
-        <v>0.1021</v>
+        <v>5.8593999999999999</v>
       </c>
       <c r="Z165" s="48">
         <f>RIGHT(H165,LEN(H165)-4)/10000</f>
-        <v>5.8920000000000003</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="AA165" s="48">
         <f>ABS(Z165-Y165)</f>
-        <v>5.7899000000000003</v>
+        <v>5.7664</v>
       </c>
       <c r="AB165" s="49" t="e">
         <f>VLOOKUP(A165,Enforcements!$C$7:$J$32,8,0)</f>
@@ -18597,34 +18404,34 @@
     </row>
     <row r="166" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A166" s="81" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="B166" s="86">
-        <v>4030</v>
+        <v>4029</v>
       </c>
       <c r="C166" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D166" s="66" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="E166" s="78">
-        <v>42549.485000000001</v>
+        <v>42549.344930555555</v>
       </c>
       <c r="F166" s="25">
-        <v>42549.485937500001</v>
+        <v>42549.346122685187</v>
       </c>
       <c r="G166" s="25">
         <v>1</v>
       </c>
       <c r="H166" s="25" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
       <c r="I166" s="25">
-        <v>42549.495740740742</v>
+        <v>42549.360659722224</v>
       </c>
       <c r="J166" s="43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K166" s="43" t="str">
         <f>IF(ISEVEN(B166),(B166-1)&amp;"/"&amp;B166,B166&amp;"/"&amp;(B166+1))</f>
@@ -18632,15 +18439,15 @@
       </c>
       <c r="L166" s="43" t="str">
         <f>VLOOKUP(A166,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>YORK</v>
+        <v>ACKERMAN</v>
       </c>
       <c r="M166" s="11">
         <f>I166-F166</f>
-        <v>9.8032407404389232E-3</v>
+        <v>1.4537037037371192E-2</v>
       </c>
       <c r="N166" s="12">
         <f>24*60*SUM($M166:$M166)</f>
-        <v>14.116666666232049</v>
+        <v>20.933333333814517</v>
       </c>
       <c r="O166" s="12"/>
       <c r="P166" s="12"/>
@@ -18648,22 +18455,22 @@
       <c r="R166" s="44"/>
       <c r="S166" s="70">
         <f>SUM(U166:U166)/12</f>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T166" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A166,3)),"Southbound","NorthBound")</f>
-        <v>Southbound</v>
+        <v>NorthBound</v>
       </c>
       <c r="U166" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T166="NorthBound","&gt;=","&lt;=")&amp;Y166,Variables!$M$2:$M$19,IF(T166="NorthBound","&lt;=","&gt;=")&amp;Z166)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V166" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E166-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I166+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B166&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 11:37:24-0600',mode:absolute,to:'2016-06-28 11:54:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 08:15:42-0600',mode:absolute,to:'2016-06-28 08:40:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W166" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA166&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X166" s="48">
@@ -18672,15 +18479,15 @@
       </c>
       <c r="Y166" s="48">
         <f>RIGHT(D166,LEN(D166)-4)/10000</f>
-        <v>5.8608000000000002</v>
+        <v>0.1074</v>
       </c>
       <c r="Z166" s="48">
         <f>RIGHT(H166,LEN(H166)-4)/10000</f>
-        <v>6.9800000000000001E-2</v>
+        <v>5.8954000000000004</v>
       </c>
       <c r="AA166" s="48">
         <f>ABS(Z166-Y166)</f>
-        <v>5.7910000000000004</v>
+        <v>5.7880000000000003</v>
       </c>
       <c r="AB166" s="49" t="e">
         <f>VLOOKUP(A166,Enforcements!$C$7:$J$32,8,0)</f>
@@ -18693,31 +18500,31 @@
     </row>
     <row r="167" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A167" s="81" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="B167" s="86">
-        <v>4029</v>
+        <v>4030</v>
       </c>
       <c r="C167" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D167" s="66" t="s">
-        <v>537</v>
+        <v>484</v>
       </c>
       <c r="E167" s="78">
-        <v>42549.513090277775</v>
+        <v>42549.361921296295</v>
       </c>
       <c r="F167" s="25">
-        <v>42549.51394675926</v>
+        <v>42549.363067129627</v>
       </c>
       <c r="G167" s="25">
         <v>1</v>
       </c>
       <c r="H167" s="25" t="s">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="I167" s="25">
-        <v>42549.523368055554</v>
+        <v>42549.375925925924</v>
       </c>
       <c r="J167" s="43">
         <v>0</v>
@@ -18728,15 +18535,15 @@
       </c>
       <c r="L167" s="43" t="str">
         <f>VLOOKUP(A167,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>YORK</v>
+        <v>ACKERMAN</v>
       </c>
       <c r="M167" s="11">
         <f>I167-F167</f>
-        <v>9.4212962940218858E-3</v>
+        <v>1.2858796297223307E-2</v>
       </c>
       <c r="N167" s="12">
         <f>24*60*SUM($M167:$M167)</f>
-        <v>13.566666663391516</v>
+        <v>18.516666668001562</v>
       </c>
       <c r="O167" s="12"/>
       <c r="P167" s="12"/>
@@ -18744,22 +18551,22 @@
       <c r="R167" s="44"/>
       <c r="S167" s="70">
         <f>SUM(U167:U167)/12</f>
-        <v>0.66666666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T167" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A167,3)),"Southbound","NorthBound")</f>
-        <v>NorthBound</v>
+        <v>Southbound</v>
       </c>
       <c r="U167" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T167="NorthBound","&gt;=","&lt;=")&amp;Y167,Variables!$M$2:$M$19,IF(T167="NorthBound","&lt;=","&gt;=")&amp;Z167)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V167" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E167-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I167+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B167&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 12:17:51-0600',mode:absolute,to:'2016-06-28 12:34:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 08:40:10-0600',mode:absolute,to:'2016-06-28 09:02:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W167" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA167&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X167" s="48">
@@ -18768,15 +18575,15 @@
       </c>
       <c r="Y167" s="48">
         <f>RIGHT(D167,LEN(D167)-4)/10000</f>
-        <v>9.8100000000000007E-2</v>
+        <v>5.8624000000000001</v>
       </c>
       <c r="Z167" s="48">
         <f>RIGHT(H167,LEN(H167)-4)/10000</f>
-        <v>5.8914</v>
+        <v>6.8500000000000005E-2</v>
       </c>
       <c r="AA167" s="48">
         <f>ABS(Z167-Y167)</f>
-        <v>5.7933000000000003</v>
+        <v>5.7938999999999998</v>
       </c>
       <c r="AB167" s="49" t="e">
         <f>VLOOKUP(A167,Enforcements!$C$7:$J$32,8,0)</f>
@@ -18789,31 +18596,31 @@
     </row>
     <row r="168" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A168" s="81" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="B168" s="86">
-        <v>4030</v>
+        <v>4029</v>
       </c>
       <c r="C168" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D168" s="66" t="s">
-        <v>490</v>
+        <v>521</v>
       </c>
       <c r="E168" s="78">
-        <v>42549.52547453704</v>
+        <v>42549.3828587963</v>
       </c>
       <c r="F168" s="25">
-        <v>42549.526296296295</v>
+        <v>42549.383726851855</v>
       </c>
       <c r="G168" s="25">
         <v>1</v>
       </c>
       <c r="H168" s="25" t="s">
-        <v>539</v>
+        <v>488</v>
       </c>
       <c r="I168" s="25">
-        <v>42549.537314814814</v>
+        <v>42549.399837962963</v>
       </c>
       <c r="J168" s="43">
         <v>0</v>
@@ -18824,15 +18631,15 @@
       </c>
       <c r="L168" s="43" t="str">
         <f>VLOOKUP(A168,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>YORK</v>
+        <v>ACKERMAN</v>
       </c>
       <c r="M168" s="11">
         <f>I168-F168</f>
-        <v>1.1018518518540077E-2</v>
+        <v>1.6111111108330078E-2</v>
       </c>
       <c r="N168" s="12">
         <f>24*60*SUM($M168:$M168)</f>
-        <v>15.866666666697711</v>
+        <v>23.199999995995313</v>
       </c>
       <c r="O168" s="12"/>
       <c r="P168" s="12"/>
@@ -18840,22 +18647,22 @@
       <c r="R168" s="44"/>
       <c r="S168" s="70">
         <f>SUM(U168:U168)/12</f>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T168" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A168,3)),"Southbound","NorthBound")</f>
-        <v>Southbound</v>
+        <v>NorthBound</v>
       </c>
       <c r="U168" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T168="NorthBound","&gt;=","&lt;=")&amp;Y168,Variables!$M$2:$M$19,IF(T168="NorthBound","&lt;=","&gt;=")&amp;Z168)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V168" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E168-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I168+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B168&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 12:35:41-0600',mode:absolute,to:'2016-06-28 12:54:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 09:10:19-0600',mode:absolute,to:'2016-06-28 09:36:46-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W168" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA168&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X168" s="48">
@@ -18864,15 +18671,15 @@
       </c>
       <c r="Y168" s="48">
         <f>RIGHT(D168,LEN(D168)-4)/10000</f>
-        <v>5.8604000000000003</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="Z168" s="48">
         <f>RIGHT(H168,LEN(H168)-4)/10000</f>
-        <v>9.2899999999999996E-2</v>
+        <v>5.8924000000000003</v>
       </c>
       <c r="AA168" s="48">
         <f>ABS(Z168-Y168)</f>
-        <v>5.7675000000000001</v>
+        <v>5.7934000000000001</v>
       </c>
       <c r="AB168" s="49" t="e">
         <f>VLOOKUP(A168,Enforcements!$C$7:$J$32,8,0)</f>
@@ -18885,34 +18692,34 @@
     </row>
     <row r="169" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A169" s="81" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="B169" s="86">
-        <v>4029</v>
+        <v>4030</v>
       </c>
       <c r="C169" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D169" s="66" t="s">
-        <v>541</v>
+        <v>490</v>
       </c>
       <c r="E169" s="78">
-        <v>42549.553124999999</v>
+        <v>42549.402916666666</v>
       </c>
       <c r="F169" s="25">
-        <v>42549.553912037038</v>
+        <v>42549.40384259259</v>
       </c>
       <c r="G169" s="25">
         <v>1</v>
       </c>
       <c r="H169" s="25" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="I169" s="25">
-        <v>42549.564988425926</v>
+        <v>42549.413842592592</v>
       </c>
       <c r="J169" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K169" s="43" t="str">
         <f>IF(ISEVEN(B169),(B169-1)&amp;"/"&amp;B169,B169&amp;"/"&amp;(B169+1))</f>
@@ -18920,15 +18727,15 @@
       </c>
       <c r="L169" s="43" t="str">
         <f>VLOOKUP(A169,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>YORK</v>
+        <v>ACKERMAN</v>
       </c>
       <c r="M169" s="11">
         <f>I169-F169</f>
-        <v>1.1076388887886424E-2</v>
+        <v>1.0000000002037268E-2</v>
       </c>
       <c r="N169" s="12">
         <f>24*60*SUM($M169:$M169)</f>
-        <v>15.94999999855645</v>
+        <v>14.400000002933666</v>
       </c>
       <c r="O169" s="12"/>
       <c r="P169" s="12"/>
@@ -18936,22 +18743,22 @@
       <c r="R169" s="44"/>
       <c r="S169" s="70">
         <f>SUM(U169:U169)/12</f>
-        <v>0.66666666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T169" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A169,3)),"Southbound","NorthBound")</f>
-        <v>NorthBound</v>
+        <v>Southbound</v>
       </c>
       <c r="U169" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T169="NorthBound","&gt;=","&lt;=")&amp;Y169,Variables!$M$2:$M$19,IF(T169="NorthBound","&lt;=","&gt;=")&amp;Z169)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V169" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E169-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I169+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B169&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 13:15:30-0600',mode:absolute,to:'2016-06-28 13:34:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 09:39:12-0600',mode:absolute,to:'2016-06-28 09:56:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W169" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA169&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X169" s="48">
@@ -18960,15 +18767,15 @@
       </c>
       <c r="Y169" s="48">
         <f>RIGHT(D169,LEN(D169)-4)/10000</f>
-        <v>0.1237</v>
+        <v>5.8604000000000003</v>
       </c>
       <c r="Z169" s="48">
         <f>RIGHT(H169,LEN(H169)-4)/10000</f>
-        <v>5.8921999999999999</v>
+        <v>6.9099999999999995E-2</v>
       </c>
       <c r="AA169" s="48">
         <f>ABS(Z169-Y169)</f>
-        <v>5.7684999999999995</v>
+        <v>5.7913000000000006</v>
       </c>
       <c r="AB169" s="49" t="e">
         <f>VLOOKUP(A169,Enforcements!$C$7:$J$32,8,0)</f>
@@ -18981,34 +18788,34 @@
     </row>
     <row r="170" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A170" s="81" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="B170" s="86">
-        <v>4030</v>
+        <v>4029</v>
       </c>
       <c r="C170" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D170" s="66" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="E170" s="78">
-        <v>42549.566342592596</v>
+        <v>42549.417002314818</v>
       </c>
       <c r="F170" s="25">
-        <v>42549.567060185182</v>
+        <v>42549.418032407404</v>
       </c>
       <c r="G170" s="25">
         <v>1</v>
       </c>
       <c r="H170" s="25" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="I170" s="25">
-        <v>42549.578634259262</v>
+        <v>42549.440439814818</v>
       </c>
       <c r="J170" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K170" s="43" t="str">
         <f>IF(ISEVEN(B170),(B170-1)&amp;"/"&amp;B170,B170&amp;"/"&amp;(B170+1))</f>
@@ -19020,11 +18827,11 @@
       </c>
       <c r="M170" s="11">
         <f>I170-F170</f>
-        <v>1.1574074080272112E-2</v>
+        <v>2.2407407413993496E-2</v>
       </c>
       <c r="N170" s="12">
         <f>24*60*SUM($M170:$M170)</f>
-        <v>16.666666675591841</v>
+        <v>32.266666676150635</v>
       </c>
       <c r="O170" s="12"/>
       <c r="P170" s="12"/>
@@ -19032,22 +18839,22 @@
       <c r="R170" s="44"/>
       <c r="S170" s="70">
         <f>SUM(U170:U170)/12</f>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T170" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A170,3)),"Southbound","NorthBound")</f>
-        <v>Southbound</v>
+        <v>NorthBound</v>
       </c>
       <c r="U170" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T170="NorthBound","&gt;=","&lt;=")&amp;Y170,Variables!$M$2:$M$19,IF(T170="NorthBound","&lt;=","&gt;=")&amp;Z170)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V170" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E170-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I170+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B170&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 13:34:32-0600',mode:absolute,to:'2016-06-28 13:54:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 09:59:29-0600',mode:absolute,to:'2016-06-28 10:35:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W170" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA170&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X170" s="48">
@@ -19056,15 +18863,15 @@
       </c>
       <c r="Y170" s="48">
         <f>RIGHT(D170,LEN(D170)-4)/10000</f>
-        <v>5.8605999999999998</v>
+        <v>9.9299999999999999E-2</v>
       </c>
       <c r="Z170" s="48">
         <f>RIGHT(H170,LEN(H170)-4)/10000</f>
-        <v>8.43E-2</v>
+        <v>5.8901000000000003</v>
       </c>
       <c r="AA170" s="48">
         <f>ABS(Z170-Y170)</f>
-        <v>5.7763</v>
+        <v>5.7907999999999999</v>
       </c>
       <c r="AB170" s="49" t="e">
         <f>VLOOKUP(A170,Enforcements!$C$7:$J$32,8,0)</f>
@@ -19077,34 +18884,34 @@
     </row>
     <row r="171" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A171" s="81" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="B171" s="86">
-        <v>4029</v>
+        <v>4030</v>
       </c>
       <c r="C171" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D171" s="66" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="E171" s="78">
-        <v>42549.584710648145</v>
+        <v>42549.441643518519</v>
       </c>
       <c r="F171" s="25">
-        <v>42549.586828703701</v>
+        <v>42549.442557870374</v>
       </c>
       <c r="G171" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H171" s="25" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="I171" s="25">
-        <v>42549.608055555553</v>
+        <v>42549.454502314817</v>
       </c>
       <c r="J171" s="43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K171" s="43" t="str">
         <f>IF(ISEVEN(B171),(B171-1)&amp;"/"&amp;B171,B171&amp;"/"&amp;(B171+1))</f>
@@ -19112,15 +18919,15 @@
       </c>
       <c r="L171" s="43" t="str">
         <f>VLOOKUP(A171,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>LYNN</v>
+        <v>YORK</v>
       </c>
       <c r="M171" s="11">
         <f>I171-F171</f>
-        <v>2.1226851851679385E-2</v>
+        <v>1.1944444442633539E-2</v>
       </c>
       <c r="N171" s="12">
         <f>24*60*SUM($M171:$M171)</f>
-        <v>30.566666666418314</v>
+        <v>17.199999997392297</v>
       </c>
       <c r="O171" s="12"/>
       <c r="P171" s="12"/>
@@ -19128,22 +18935,22 @@
       <c r="R171" s="44"/>
       <c r="S171" s="70">
         <f>SUM(U171:U171)/12</f>
-        <v>0.66666666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T171" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A171,3)),"Southbound","NorthBound")</f>
-        <v>NorthBound</v>
+        <v>Southbound</v>
       </c>
       <c r="U171" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T171="NorthBound","&gt;=","&lt;=")&amp;Y171,Variables!$M$2:$M$19,IF(T171="NorthBound","&lt;=","&gt;=")&amp;Z171)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V171" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E171-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I171+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B171&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 14:00:59-0600',mode:absolute,to:'2016-06-28 14:36:36-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 10:34:58-0600',mode:absolute,to:'2016-06-28 10:55:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W171" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA171&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X171" s="48">
@@ -19152,15 +18959,15 @@
       </c>
       <c r="Y171" s="48">
         <f>RIGHT(D171,LEN(D171)-4)/10000</f>
-        <v>0.1128</v>
+        <v>5.8590999999999998</v>
       </c>
       <c r="Z171" s="48">
         <f>RIGHT(H171,LEN(H171)-4)/10000</f>
-        <v>5.8910999999999998</v>
+        <v>7.3300000000000004E-2</v>
       </c>
       <c r="AA171" s="48">
         <f>ABS(Z171-Y171)</f>
-        <v>5.7782999999999998</v>
+        <v>5.7858000000000001</v>
       </c>
       <c r="AB171" s="49" t="e">
         <f>VLOOKUP(A171,Enforcements!$C$7:$J$32,8,0)</f>
@@ -19173,34 +18980,34 @@
     </row>
     <row r="172" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A172" s="81" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="B172" s="86">
-        <v>4030</v>
+        <v>4029</v>
       </c>
       <c r="C172" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D172" s="66" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="E172" s="78">
-        <v>42549.608807870369</v>
+        <v>42549.467638888891</v>
       </c>
       <c r="F172" s="25">
-        <v>42549.6096412037</v>
+        <v>42549.4684837963</v>
       </c>
       <c r="G172" s="25">
         <v>1</v>
       </c>
       <c r="H172" s="25" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="I172" s="25">
-        <v>42549.623738425929</v>
+        <v>42549.482442129629</v>
       </c>
       <c r="J172" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K172" s="43" t="str">
         <f>IF(ISEVEN(B172),(B172-1)&amp;"/"&amp;B172,B172&amp;"/"&amp;(B172+1))</f>
@@ -19208,15 +19015,15 @@
       </c>
       <c r="L172" s="43" t="str">
         <f>VLOOKUP(A172,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>STORY</v>
+        <v>YORK</v>
       </c>
       <c r="M172" s="11">
         <f>I172-F172</f>
-        <v>1.4097222228883766E-2</v>
+        <v>1.395833332935581E-2</v>
       </c>
       <c r="N172" s="12">
         <f>24*60*SUM($M172:$M172)</f>
-        <v>20.300000009592623</v>
+        <v>20.099999994272366</v>
       </c>
       <c r="O172" s="12"/>
       <c r="P172" s="12"/>
@@ -19224,22 +19031,22 @@
       <c r="R172" s="44"/>
       <c r="S172" s="70">
         <f>SUM(U172:U172)/12</f>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T172" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A172,3)),"Southbound","NorthBound")</f>
-        <v>Southbound</v>
+        <v>NorthBound</v>
       </c>
       <c r="U172" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T172="NorthBound","&gt;=","&lt;=")&amp;Y172,Variables!$M$2:$M$19,IF(T172="NorthBound","&lt;=","&gt;=")&amp;Z172)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V172" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E172-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I172+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B172&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 14:35:41-0600',mode:absolute,to:'2016-06-28 14:59:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 11:12:24-0600',mode:absolute,to:'2016-06-28 11:35:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W172" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA172&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X172" s="48">
@@ -19248,15 +19055,15 @@
       </c>
       <c r="Y172" s="48">
         <f>RIGHT(D172,LEN(D172)-4)/10000</f>
-        <v>5.8586999999999998</v>
+        <v>0.1021</v>
       </c>
       <c r="Z172" s="48">
         <f>RIGHT(H172,LEN(H172)-4)/10000</f>
-        <v>6.2899999999999998E-2</v>
+        <v>5.8920000000000003</v>
       </c>
       <c r="AA172" s="48">
         <f>ABS(Z172-Y172)</f>
-        <v>5.7957999999999998</v>
+        <v>5.7899000000000003</v>
       </c>
       <c r="AB172" s="49" t="e">
         <f>VLOOKUP(A172,Enforcements!$C$7:$J$32,8,0)</f>
@@ -19269,34 +19076,34 @@
     </row>
     <row r="173" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A173" s="81" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="B173" s="86">
-        <v>4029</v>
+        <v>4030</v>
       </c>
       <c r="C173" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D173" s="66" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="E173" s="78">
-        <v>42549.633379629631</v>
+        <v>42549.485000000001</v>
       </c>
       <c r="F173" s="25">
-        <v>42549.634259259263</v>
+        <v>42549.485937500001</v>
       </c>
       <c r="G173" s="25">
         <v>1</v>
       </c>
       <c r="H173" s="25" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="I173" s="25">
-        <v>42549.649641203701</v>
+        <v>42549.495740740742</v>
       </c>
       <c r="J173" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K173" s="43" t="str">
         <f>IF(ISEVEN(B173),(B173-1)&amp;"/"&amp;B173,B173&amp;"/"&amp;(B173+1))</f>
@@ -19304,15 +19111,15 @@
       </c>
       <c r="L173" s="43" t="str">
         <f>VLOOKUP(A173,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>LYNN</v>
+        <v>YORK</v>
       </c>
       <c r="M173" s="11">
         <f>I173-F173</f>
-        <v>1.5381944438559003E-2</v>
+        <v>9.8032407404389232E-3</v>
       </c>
       <c r="N173" s="12">
         <f>24*60*SUM($M173:$M173)</f>
-        <v>22.149999991524965</v>
+        <v>14.116666666232049</v>
       </c>
       <c r="O173" s="12"/>
       <c r="P173" s="12"/>
@@ -19320,22 +19127,22 @@
       <c r="R173" s="44"/>
       <c r="S173" s="70">
         <f>SUM(U173:U173)/12</f>
-        <v>0.66666666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T173" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A173,3)),"Southbound","NorthBound")</f>
-        <v>NorthBound</v>
+        <v>Southbound</v>
       </c>
       <c r="U173" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T173="NorthBound","&gt;=","&lt;=")&amp;Y173,Variables!$M$2:$M$19,IF(T173="NorthBound","&lt;=","&gt;=")&amp;Z173)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V173" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E173-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I173+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B173&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 15:11:04-0600',mode:absolute,to:'2016-06-28 15:36:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 11:37:24-0600',mode:absolute,to:'2016-06-28 11:54:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W173" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA173&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X173" s="48">
@@ -19344,15 +19151,15 @@
       </c>
       <c r="Y173" s="48">
         <f>RIGHT(D173,LEN(D173)-4)/10000</f>
-        <v>9.2200000000000004E-2</v>
+        <v>5.8608000000000002</v>
       </c>
       <c r="Z173" s="48">
         <f>RIGHT(H173,LEN(H173)-4)/10000</f>
-        <v>5.8906999999999998</v>
+        <v>6.9800000000000001E-2</v>
       </c>
       <c r="AA173" s="48">
         <f>ABS(Z173-Y173)</f>
-        <v>5.7984999999999998</v>
+        <v>5.7910000000000004</v>
       </c>
       <c r="AB173" s="49" t="e">
         <f>VLOOKUP(A173,Enforcements!$C$7:$J$32,8,0)</f>
@@ -19365,31 +19172,31 @@
     </row>
     <row r="174" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A174" s="81" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="B174" s="86">
-        <v>4030</v>
+        <v>4029</v>
       </c>
       <c r="C174" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D174" s="66" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="E174" s="78">
-        <v>42549.650891203702</v>
+        <v>42549.513090277775</v>
       </c>
       <c r="F174" s="25">
-        <v>42549.651828703703</v>
+        <v>42549.51394675926</v>
       </c>
       <c r="G174" s="25">
         <v>1</v>
       </c>
       <c r="H174" s="25" t="s">
-        <v>557</v>
+        <v>494</v>
       </c>
       <c r="I174" s="25">
-        <v>42549.664560185185</v>
+        <v>42549.523368055554</v>
       </c>
       <c r="J174" s="43">
         <v>0</v>
@@ -19400,15 +19207,15 @@
       </c>
       <c r="L174" s="43" t="str">
         <f>VLOOKUP(A174,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>STORY</v>
+        <v>YORK</v>
       </c>
       <c r="M174" s="11">
         <f>I174-F174</f>
-        <v>1.2731481481750961E-2</v>
+        <v>9.4212962940218858E-3</v>
       </c>
       <c r="N174" s="12">
         <f>24*60*SUM($M174:$M174)</f>
-        <v>18.333333333721384</v>
+        <v>13.566666663391516</v>
       </c>
       <c r="O174" s="12"/>
       <c r="P174" s="12"/>
@@ -19416,22 +19223,22 @@
       <c r="R174" s="44"/>
       <c r="S174" s="70">
         <f>SUM(U174:U174)/12</f>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T174" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A174,3)),"Southbound","NorthBound")</f>
-        <v>Southbound</v>
+        <v>NorthBound</v>
       </c>
       <c r="U174" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T174="NorthBound","&gt;=","&lt;=")&amp;Y174,Variables!$M$2:$M$19,IF(T174="NorthBound","&lt;=","&gt;=")&amp;Z174)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V174" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E174-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I174+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B174&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 15:36:17-0600',mode:absolute,to:'2016-06-28 15:57:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 12:17:51-0600',mode:absolute,to:'2016-06-28 12:34:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W174" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA174&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X174" s="48">
@@ -19440,15 +19247,15 @@
       </c>
       <c r="Y174" s="48">
         <f>RIGHT(D174,LEN(D174)-4)/10000</f>
-        <v>5.8589000000000002</v>
+        <v>9.8100000000000007E-2</v>
       </c>
       <c r="Z174" s="48">
         <f>RIGHT(H174,LEN(H174)-4)/10000</f>
-        <v>0.1709</v>
+        <v>5.8914</v>
       </c>
       <c r="AA174" s="48">
         <f>ABS(Z174-Y174)</f>
-        <v>5.6880000000000006</v>
+        <v>5.7933000000000003</v>
       </c>
       <c r="AB174" s="49" t="e">
         <f>VLOOKUP(A174,Enforcements!$C$7:$J$32,8,0)</f>
@@ -19461,50 +19268,50 @@
     </row>
     <row r="175" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A175" s="81" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="B175" s="86">
-        <v>4040</v>
+        <v>4030</v>
       </c>
       <c r="C175" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D175" s="66" t="s">
-        <v>559</v>
+        <v>490</v>
       </c>
       <c r="E175" s="78">
-        <v>42549.653344907405</v>
+        <v>42549.52547453704</v>
       </c>
       <c r="F175" s="25">
-        <v>42549.654768518521</v>
+        <v>42549.526296296295</v>
       </c>
       <c r="G175" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H175" s="25" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="I175" s="25">
-        <v>42549.669930555552</v>
+        <v>42549.537314814814</v>
       </c>
       <c r="J175" s="43">
         <v>0</v>
       </c>
       <c r="K175" s="43" t="str">
         <f>IF(ISEVEN(B175),(B175-1)&amp;"/"&amp;B175,B175&amp;"/"&amp;(B175+1))</f>
-        <v>4039/4040</v>
+        <v>4029/4030</v>
       </c>
       <c r="L175" s="43" t="str">
         <f>VLOOKUP(A175,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>DE LA ROSA</v>
+        <v>YORK</v>
       </c>
       <c r="M175" s="11">
         <f>I175-F175</f>
-        <v>1.5162037030677311E-2</v>
+        <v>1.1018518518540077E-2</v>
       </c>
       <c r="N175" s="12">
         <f>24*60*SUM($M175:$M175)</f>
-        <v>21.833333324175328</v>
+        <v>15.866666666697711</v>
       </c>
       <c r="O175" s="12"/>
       <c r="P175" s="12"/>
@@ -19512,22 +19319,22 @@
       <c r="R175" s="44"/>
       <c r="S175" s="70">
         <f>SUM(U175:U175)/12</f>
-        <v>0.66666666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T175" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A175,3)),"Southbound","NorthBound")</f>
-        <v>NorthBound</v>
+        <v>Southbound</v>
       </c>
       <c r="U175" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T175="NorthBound","&gt;=","&lt;=")&amp;Y175,Variables!$M$2:$M$19,IF(T175="NorthBound","&lt;=","&gt;=")&amp;Z175)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V175" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E175-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I175+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B175&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 15:39:49-0600',mode:absolute,to:'2016-06-28 16:05:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 12:35:41-0600',mode:absolute,to:'2016-06-28 12:54:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W175" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA175&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X175" s="48">
@@ -19536,15 +19343,15 @@
       </c>
       <c r="Y175" s="48">
         <f>RIGHT(D175,LEN(D175)-4)/10000</f>
-        <v>9.2299999999999993E-2</v>
+        <v>5.8604000000000003</v>
       </c>
       <c r="Z175" s="48">
         <f>RIGHT(H175,LEN(H175)-4)/10000</f>
-        <v>5.8897000000000004</v>
+        <v>9.2899999999999996E-2</v>
       </c>
       <c r="AA175" s="48">
         <f>ABS(Z175-Y175)</f>
-        <v>5.7974000000000006</v>
+        <v>5.7675000000000001</v>
       </c>
       <c r="AB175" s="49" t="e">
         <f>VLOOKUP(A175,Enforcements!$C$7:$J$32,8,0)</f>
@@ -19557,50 +19364,50 @@
     </row>
     <row r="176" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A176" s="81" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="B176" s="86">
-        <v>4039</v>
+        <v>4029</v>
       </c>
       <c r="C176" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D176" s="66" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="E176" s="78">
-        <v>42549.670590277776</v>
+        <v>42549.553124999999</v>
       </c>
       <c r="F176" s="25">
-        <v>42549.671678240738</v>
+        <v>42549.553912037038</v>
       </c>
       <c r="G176" s="25">
         <v>1</v>
       </c>
       <c r="H176" s="25" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="I176" s="25">
-        <v>42549.686874999999</v>
+        <v>42549.564988425926</v>
       </c>
       <c r="J176" s="43">
         <v>1</v>
       </c>
       <c r="K176" s="43" t="str">
         <f>IF(ISEVEN(B176),(B176-1)&amp;"/"&amp;B176,B176&amp;"/"&amp;(B176+1))</f>
-        <v>4039/4040</v>
+        <v>4029/4030</v>
       </c>
       <c r="L176" s="43" t="str">
         <f>VLOOKUP(A176,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>DE LA ROSA</v>
+        <v>YORK</v>
       </c>
       <c r="M176" s="11">
         <f>I176-F176</f>
-        <v>1.5196759261016268E-2</v>
+        <v>1.1076388887886424E-2</v>
       </c>
       <c r="N176" s="12">
         <f>24*60*SUM($M176:$M176)</f>
-        <v>21.883333335863426</v>
+        <v>15.94999999855645</v>
       </c>
       <c r="O176" s="12"/>
       <c r="P176" s="12"/>
@@ -19608,22 +19415,22 @@
       <c r="R176" s="44"/>
       <c r="S176" s="70">
         <f>SUM(U176:U176)/12</f>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T176" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A176,3)),"Southbound","NorthBound")</f>
-        <v>Southbound</v>
+        <v>NorthBound</v>
       </c>
       <c r="U176" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T176="NorthBound","&gt;=","&lt;=")&amp;Y176,Variables!$M$2:$M$19,IF(T176="NorthBound","&lt;=","&gt;=")&amp;Z176)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V176" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E176-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I176+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B176&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 16:04:39-0600',mode:absolute,to:'2016-06-28 16:30:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 13:15:30-0600',mode:absolute,to:'2016-06-28 13:34:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W176" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA176&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X176" s="48">
@@ -19632,15 +19439,15 @@
       </c>
       <c r="Y176" s="48">
         <f>RIGHT(D176,LEN(D176)-4)/10000</f>
-        <v>5.8581000000000003</v>
+        <v>0.1237</v>
       </c>
       <c r="Z176" s="48">
         <f>RIGHT(H176,LEN(H176)-4)/10000</f>
-        <v>7.3999999999999996E-2</v>
+        <v>5.8921999999999999</v>
       </c>
       <c r="AA176" s="48">
         <f>ABS(Z176-Y176)</f>
-        <v>5.7841000000000005</v>
+        <v>5.7684999999999995</v>
       </c>
       <c r="AB176" s="49" t="e">
         <f>VLOOKUP(A176,Enforcements!$C$7:$J$32,8,0)</f>
@@ -19653,34 +19460,34 @@
     </row>
     <row r="177" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A177" s="81" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="B177" s="86">
-        <v>4029</v>
+        <v>4030</v>
       </c>
       <c r="C177" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D177" s="66" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="E177" s="78">
-        <v>42549.679710648146</v>
+        <v>42549.566342592596</v>
       </c>
       <c r="F177" s="25">
-        <v>42549.680439814816</v>
+        <v>42549.567060185182</v>
       </c>
       <c r="G177" s="25">
         <v>1</v>
       </c>
       <c r="H177" s="25" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="I177" s="25">
-        <v>42549.690671296295</v>
+        <v>42549.578634259262</v>
       </c>
       <c r="J177" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K177" s="43" t="str">
         <f>IF(ISEVEN(B177),(B177-1)&amp;"/"&amp;B177,B177&amp;"/"&amp;(B177+1))</f>
@@ -19688,15 +19495,15 @@
       </c>
       <c r="L177" s="43" t="str">
         <f>VLOOKUP(A177,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>LYNN</v>
+        <v>YORK</v>
       </c>
       <c r="M177" s="11">
         <f>I177-F177</f>
-        <v>1.0231481479422655E-2</v>
+        <v>1.1574074080272112E-2</v>
       </c>
       <c r="N177" s="12">
         <f>24*60*SUM($M177:$M177)</f>
-        <v>14.733333330368623</v>
+        <v>16.666666675591841</v>
       </c>
       <c r="O177" s="12"/>
       <c r="P177" s="12"/>
@@ -19704,22 +19511,22 @@
       <c r="R177" s="44"/>
       <c r="S177" s="70">
         <f>SUM(U177:U177)/12</f>
-        <v>0.66666666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T177" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A177,3)),"Southbound","NorthBound")</f>
-        <v>NorthBound</v>
+        <v>Southbound</v>
       </c>
       <c r="U177" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T177="NorthBound","&gt;=","&lt;=")&amp;Y177,Variables!$M$2:$M$19,IF(T177="NorthBound","&lt;=","&gt;=")&amp;Z177)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V177" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E177-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I177+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B177&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 16:17:47-0600',mode:absolute,to:'2016-06-28 16:35:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 13:34:32-0600',mode:absolute,to:'2016-06-28 13:54:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W177" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA177&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X177" s="48">
@@ -19728,15 +19535,15 @@
       </c>
       <c r="Y177" s="48">
         <f>RIGHT(D177,LEN(D177)-4)/10000</f>
-        <v>9.01E-2</v>
+        <v>5.8605999999999998</v>
       </c>
       <c r="Z177" s="48">
         <f>RIGHT(H177,LEN(H177)-4)/10000</f>
-        <v>5.8891999999999998</v>
+        <v>8.43E-2</v>
       </c>
       <c r="AA177" s="48">
         <f>ABS(Z177-Y177)</f>
-        <v>5.7991000000000001</v>
+        <v>5.7763</v>
       </c>
       <c r="AB177" s="49" t="e">
         <f>VLOOKUP(A177,Enforcements!$C$7:$J$32,8,0)</f>
@@ -19749,34 +19556,34 @@
     </row>
     <row r="178" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A178" s="81" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="B178" s="86">
-        <v>4030</v>
+        <v>4029</v>
       </c>
       <c r="C178" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D178" s="66" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="E178" s="78">
-        <v>42549.691365740742</v>
+        <v>42549.584710648145</v>
       </c>
       <c r="F178" s="25">
-        <v>42549.692060185182</v>
+        <v>42549.586828703701</v>
       </c>
       <c r="G178" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H178" s="25" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="I178" s="25">
-        <v>42549.705127314817</v>
+        <v>42549.608055555553</v>
       </c>
       <c r="J178" s="43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K178" s="43" t="str">
         <f>IF(ISEVEN(B178),(B178-1)&amp;"/"&amp;B178,B178&amp;"/"&amp;(B178+1))</f>
@@ -19788,11 +19595,11 @@
       </c>
       <c r="M178" s="11">
         <f>I178-F178</f>
-        <v>1.3067129635601304E-2</v>
+        <v>2.1226851851679385E-2</v>
       </c>
       <c r="N178" s="12">
         <f>24*60*SUM($M178:$M178)</f>
-        <v>18.816666675265878</v>
+        <v>30.566666666418314</v>
       </c>
       <c r="O178" s="12"/>
       <c r="P178" s="12"/>
@@ -19800,22 +19607,22 @@
       <c r="R178" s="44"/>
       <c r="S178" s="70">
         <f>SUM(U178:U178)/12</f>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T178" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A178,3)),"Southbound","NorthBound")</f>
-        <v>Southbound</v>
+        <v>NorthBound</v>
       </c>
       <c r="U178" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T178="NorthBound","&gt;=","&lt;=")&amp;Y178,Variables!$M$2:$M$19,IF(T178="NorthBound","&lt;=","&gt;=")&amp;Z178)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V178" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E178-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I178+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B178&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 16:34:34-0600',mode:absolute,to:'2016-06-28 16:56:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 14:00:59-0600',mode:absolute,to:'2016-06-28 14:36:36-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W178" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA178&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X178" s="48">
@@ -19824,15 +19631,15 @@
       </c>
       <c r="Y178" s="48">
         <f>RIGHT(D178,LEN(D178)-4)/10000</f>
-        <v>5.8570000000000002</v>
+        <v>0.1128</v>
       </c>
       <c r="Z178" s="48">
         <f>RIGHT(H178,LEN(H178)-4)/10000</f>
-        <v>7.0099999999999996E-2</v>
+        <v>5.8910999999999998</v>
       </c>
       <c r="AA178" s="48">
         <f>ABS(Z178-Y178)</f>
-        <v>5.7869000000000002</v>
+        <v>5.7782999999999998</v>
       </c>
       <c r="AB178" s="49" t="e">
         <f>VLOOKUP(A178,Enforcements!$C$7:$J$32,8,0)</f>
@@ -19845,50 +19652,50 @@
     </row>
     <row r="179" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A179" s="81" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="B179" s="86">
-        <v>4040</v>
+        <v>4030</v>
       </c>
       <c r="C179" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D179" s="66" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="E179" s="78">
-        <v>42549.697812500002</v>
+        <v>42549.608807870369</v>
       </c>
       <c r="F179" s="25">
-        <v>42549.699270833335</v>
+        <v>42549.6096412037</v>
       </c>
       <c r="G179" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H179" s="25" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
       <c r="I179" s="25">
-        <v>42549.712141203701</v>
+        <v>42549.623738425929</v>
       </c>
       <c r="J179" s="43">
         <v>1</v>
       </c>
       <c r="K179" s="43" t="str">
         <f>IF(ISEVEN(B179),(B179-1)&amp;"/"&amp;B179,B179&amp;"/"&amp;(B179+1))</f>
-        <v>4039/4040</v>
+        <v>4029/4030</v>
       </c>
       <c r="L179" s="43" t="str">
         <f>VLOOKUP(A179,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>ALONZO</v>
+        <v>STORY</v>
       </c>
       <c r="M179" s="11">
         <f>I179-F179</f>
-        <v>1.2870370366727002E-2</v>
+        <v>1.4097222228883766E-2</v>
       </c>
       <c r="N179" s="12">
         <f>24*60*SUM($M179:$M179)</f>
-        <v>18.533333328086883</v>
+        <v>20.300000009592623</v>
       </c>
       <c r="O179" s="12"/>
       <c r="P179" s="12"/>
@@ -19896,22 +19703,22 @@
       <c r="R179" s="44"/>
       <c r="S179" s="70">
         <f>SUM(U179:U179)/12</f>
-        <v>0.66666666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T179" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A179,3)),"Southbound","NorthBound")</f>
-        <v>NorthBound</v>
+        <v>Southbound</v>
       </c>
       <c r="U179" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T179="NorthBound","&gt;=","&lt;=")&amp;Y179,Variables!$M$2:$M$19,IF(T179="NorthBound","&lt;=","&gt;=")&amp;Z179)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V179" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E179-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I179+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B179&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 16:43:51-0600',mode:absolute,to:'2016-06-28 17:06:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 14:35:41-0600',mode:absolute,to:'2016-06-28 14:59:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W179" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA179&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X179" s="48">
@@ -19920,15 +19727,15 @@
       </c>
       <c r="Y179" s="48">
         <f>RIGHT(D179,LEN(D179)-4)/10000</f>
-        <v>0.1023</v>
+        <v>5.8586999999999998</v>
       </c>
       <c r="Z179" s="48">
         <f>RIGHT(H179,LEN(H179)-4)/10000</f>
-        <v>5.8920000000000003</v>
+        <v>6.2899999999999998E-2</v>
       </c>
       <c r="AA179" s="48">
         <f>ABS(Z179-Y179)</f>
-        <v>5.7897000000000007</v>
+        <v>5.7957999999999998</v>
       </c>
       <c r="AB179" s="49" t="e">
         <f>VLOOKUP(A179,Enforcements!$C$7:$J$32,8,0)</f>
@@ -19941,50 +19748,50 @@
     </row>
     <row r="180" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A180" s="81" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="B180" s="86">
-        <v>4039</v>
+        <v>4029</v>
       </c>
       <c r="C180" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D180" s="66" t="s">
-        <v>490</v>
+        <v>553</v>
       </c>
       <c r="E180" s="78">
-        <v>42549.713946759257</v>
+        <v>42549.633379629631</v>
       </c>
       <c r="F180" s="25">
-        <v>42549.715474537035</v>
+        <v>42549.634259259263</v>
       </c>
       <c r="G180" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H180" s="25" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
       <c r="I180" s="25">
-        <v>42549.7262962963</v>
+        <v>42549.649641203701</v>
       </c>
       <c r="J180" s="43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K180" s="43" t="str">
         <f>IF(ISEVEN(B180),(B180-1)&amp;"/"&amp;B180,B180&amp;"/"&amp;(B180+1))</f>
-        <v>4039/4040</v>
+        <v>4029/4030</v>
       </c>
       <c r="L180" s="43" t="str">
         <f>VLOOKUP(A180,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>ALONZO</v>
+        <v>LYNN</v>
       </c>
       <c r="M180" s="11">
         <f>I180-F180</f>
-        <v>1.082175926421769E-2</v>
+        <v>1.5381944438559003E-2</v>
       </c>
       <c r="N180" s="12">
         <f>24*60*SUM($M180:$M180)</f>
-        <v>15.583333340473473</v>
+        <v>22.149999991524965</v>
       </c>
       <c r="O180" s="12"/>
       <c r="P180" s="12"/>
@@ -19992,22 +19799,22 @@
       <c r="R180" s="44"/>
       <c r="S180" s="70">
         <f>SUM(U180:U180)/12</f>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T180" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A180,3)),"Southbound","NorthBound")</f>
-        <v>Southbound</v>
+        <v>NorthBound</v>
       </c>
       <c r="U180" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T180="NorthBound","&gt;=","&lt;=")&amp;Y180,Variables!$M$2:$M$19,IF(T180="NorthBound","&lt;=","&gt;=")&amp;Z180)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V180" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E180-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I180+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B180&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 17:07:05-0600',mode:absolute,to:'2016-06-28 17:26:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 15:11:04-0600',mode:absolute,to:'2016-06-28 15:36:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W180" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA180&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X180" s="48">
@@ -20016,15 +19823,15 @@
       </c>
       <c r="Y180" s="48">
         <f>RIGHT(D180,LEN(D180)-4)/10000</f>
-        <v>5.8604000000000003</v>
+        <v>9.2200000000000004E-2</v>
       </c>
       <c r="Z180" s="48">
         <f>RIGHT(H180,LEN(H180)-4)/10000</f>
-        <v>7.0800000000000002E-2</v>
+        <v>5.8906999999999998</v>
       </c>
       <c r="AA180" s="48">
         <f>ABS(Z180-Y180)</f>
-        <v>5.7896000000000001</v>
+        <v>5.7984999999999998</v>
       </c>
       <c r="AB180" s="49" t="e">
         <f>VLOOKUP(A180,Enforcements!$C$7:$J$32,8,0)</f>
@@ -20037,34 +19844,34 @@
     </row>
     <row r="181" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A181" s="81" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="B181" s="86">
-        <v>4029</v>
+        <v>4030</v>
       </c>
       <c r="C181" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D181" s="66" t="s">
-        <v>537</v>
+        <v>556</v>
       </c>
       <c r="E181" s="78">
-        <v>42549.71974537037</v>
+        <v>42549.650891203702</v>
       </c>
       <c r="F181" s="25">
-        <v>42549.721053240741</v>
+        <v>42549.651828703703</v>
       </c>
       <c r="G181" s="25">
         <v>1</v>
       </c>
       <c r="H181" s="25" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="I181" s="25">
-        <v>42549.733148148145</v>
+        <v>42549.664560185185</v>
       </c>
       <c r="J181" s="43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K181" s="43" t="str">
         <f>IF(ISEVEN(B181),(B181-1)&amp;"/"&amp;B181,B181&amp;"/"&amp;(B181+1))</f>
@@ -20072,15 +19879,15 @@
       </c>
       <c r="L181" s="43" t="str">
         <f>VLOOKUP(A181,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>LYNN</v>
+        <v>STORY</v>
       </c>
       <c r="M181" s="11">
         <f>I181-F181</f>
-        <v>1.2094907404389232E-2</v>
+        <v>1.2731481481750961E-2</v>
       </c>
       <c r="N181" s="12">
         <f>24*60*SUM($M181:$M181)</f>
-        <v>17.416666662320495</v>
+        <v>18.333333333721384</v>
       </c>
       <c r="O181" s="12"/>
       <c r="P181" s="12"/>
@@ -20088,22 +19895,22 @@
       <c r="R181" s="44"/>
       <c r="S181" s="70">
         <f>SUM(U181:U181)/12</f>
-        <v>0.66666666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T181" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A181,3)),"Southbound","NorthBound")</f>
-        <v>NorthBound</v>
+        <v>Southbound</v>
       </c>
       <c r="U181" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T181="NorthBound","&gt;=","&lt;=")&amp;Y181,Variables!$M$2:$M$19,IF(T181="NorthBound","&lt;=","&gt;=")&amp;Z181)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V181" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E181-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I181+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B181&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 17:15:26-0600',mode:absolute,to:'2016-06-28 17:36:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 15:36:17-0600',mode:absolute,to:'2016-06-28 15:57:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W181" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA181&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X181" s="48">
@@ -20112,15 +19919,15 @@
       </c>
       <c r="Y181" s="48">
         <f>RIGHT(D181,LEN(D181)-4)/10000</f>
-        <v>9.8100000000000007E-2</v>
+        <v>5.8589000000000002</v>
       </c>
       <c r="Z181" s="48">
         <f>RIGHT(H181,LEN(H181)-4)/10000</f>
-        <v>5.8906999999999998</v>
+        <v>0.1709</v>
       </c>
       <c r="AA181" s="48">
         <f>ABS(Z181-Y181)</f>
-        <v>5.7926000000000002</v>
+        <v>5.6880000000000006</v>
       </c>
       <c r="AB181" s="49" t="e">
         <f>VLOOKUP(A181,Enforcements!$C$7:$J$32,8,0)</f>
@@ -20133,50 +19940,50 @@
     </row>
     <row r="182" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A182" s="81" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="B182" s="86">
-        <v>4030</v>
+        <v>4040</v>
       </c>
       <c r="C182" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D182" s="66" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="E182" s="78">
-        <v>42549.733900462961</v>
+        <v>42549.653344907405</v>
       </c>
       <c r="F182" s="25">
-        <v>42549.735659722224</v>
+        <v>42549.654768518521</v>
       </c>
       <c r="G182" s="25">
         <v>2</v>
       </c>
       <c r="H182" s="25" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="I182" s="25">
-        <v>42549.736319444448</v>
+        <v>42549.669930555552</v>
       </c>
       <c r="J182" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K182" s="43" t="str">
         <f>IF(ISEVEN(B182),(B182-1)&amp;"/"&amp;B182,B182&amp;"/"&amp;(B182+1))</f>
-        <v>4029/4030</v>
+        <v>4039/4040</v>
       </c>
       <c r="L182" s="43" t="str">
         <f>VLOOKUP(A182,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>STORY</v>
+        <v>DE LA ROSA</v>
       </c>
       <c r="M182" s="11">
         <f>I182-F182</f>
-        <v>6.5972222364507616E-4</v>
+        <v>1.5162037030677311E-2</v>
       </c>
       <c r="N182" s="12">
         <f>24*60*SUM($M182:$M182)</f>
-        <v>0.95000000204890966</v>
+        <v>21.833333324175328</v>
       </c>
       <c r="O182" s="12"/>
       <c r="P182" s="12"/>
@@ -20184,23 +19991,23 @@
       <c r="R182" s="44"/>
       <c r="S182" s="70">
         <f>SUM(U182:U182)/12</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T182" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A182,3)),"Southbound","NorthBound")</f>
-        <v>Southbound</v>
+        <v>NorthBound</v>
       </c>
       <c r="U182" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T182="NorthBound","&gt;=","&lt;=")&amp;Y182,Variables!$M$2:$M$19,IF(T182="NorthBound","&lt;=","&gt;=")&amp;Z182)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V182" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E182-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I182+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B182&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 17:35:49-0600',mode:absolute,to:'2016-06-28 17:41:18-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 15:39:49-0600',mode:absolute,to:'2016-06-28 16:05:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W182" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>Y</v>
+        <f>IF(AA182&lt;5.5,"Y","N")</f>
+        <v>N</v>
       </c>
       <c r="X182" s="48">
         <f>VALUE(LEFT(A182,3))-VALUE(LEFT(A181,3))</f>
@@ -20208,15 +20015,15 @@
       </c>
       <c r="Y182" s="48">
         <f>RIGHT(D182,LEN(D182)-4)/10000</f>
-        <v>5.8348000000000004</v>
+        <v>9.2299999999999993E-2</v>
       </c>
       <c r="Z182" s="48">
         <f>RIGHT(H182,LEN(H182)-4)/10000</f>
-        <v>5.8305999999999996</v>
+        <v>5.8897000000000004</v>
       </c>
       <c r="AA182" s="48">
         <f>ABS(Z182-Y182)</f>
-        <v>4.2000000000008697E-3</v>
+        <v>5.7974000000000006</v>
       </c>
       <c r="AB182" s="49" t="e">
         <f>VLOOKUP(A182,Enforcements!$C$7:$J$32,8,0)</f>
@@ -20229,34 +20036,34 @@
     </row>
     <row r="183" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A183" s="81" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="B183" s="86">
-        <v>4040</v>
+        <v>4039</v>
       </c>
       <c r="C183" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D183" s="66" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="E183" s="78">
-        <v>42549.733460648145</v>
+        <v>42549.670590277776</v>
       </c>
       <c r="F183" s="25">
-        <v>42549.734652777777</v>
+        <v>42549.671678240738</v>
       </c>
       <c r="G183" s="25">
         <v>1</v>
       </c>
       <c r="H183" s="25" t="s">
-        <v>494</v>
+        <v>563</v>
       </c>
       <c r="I183" s="25">
-        <v>42549.753344907411</v>
+        <v>42549.686874999999</v>
       </c>
       <c r="J183" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K183" s="43" t="str">
         <f>IF(ISEVEN(B183),(B183-1)&amp;"/"&amp;B183,B183&amp;"/"&amp;(B183+1))</f>
@@ -20268,11 +20075,11 @@
       </c>
       <c r="M183" s="11">
         <f>I183-F183</f>
-        <v>1.8692129633564036E-2</v>
+        <v>1.5196759261016268E-2</v>
       </c>
       <c r="N183" s="12">
         <f>24*60*SUM($M183:$M183)</f>
-        <v>26.916666672332212</v>
+        <v>21.883333335863426</v>
       </c>
       <c r="O183" s="12"/>
       <c r="P183" s="12"/>
@@ -20280,22 +20087,22 @@
       <c r="R183" s="44"/>
       <c r="S183" s="70">
         <f>SUM(U183:U183)/12</f>
-        <v>0.66666666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T183" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A183,3)),"Southbound","NorthBound")</f>
-        <v>NorthBound</v>
+        <v>Southbound</v>
       </c>
       <c r="U183" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T183="NorthBound","&gt;=","&lt;=")&amp;Y183,Variables!$M$2:$M$19,IF(T183="NorthBound","&lt;=","&gt;=")&amp;Z183)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V183" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E183-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I183+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B183&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 17:35:11-0600',mode:absolute,to:'2016-06-28 18:05:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 16:04:39-0600',mode:absolute,to:'2016-06-28 16:30:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W183" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA183&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X183" s="48">
@@ -20304,15 +20111,15 @@
       </c>
       <c r="Y183" s="48">
         <f>RIGHT(D183,LEN(D183)-4)/10000</f>
-        <v>0.1018</v>
+        <v>5.8581000000000003</v>
       </c>
       <c r="Z183" s="48">
         <f>RIGHT(H183,LEN(H183)-4)/10000</f>
-        <v>5.8914</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="AA183" s="48">
         <f>ABS(Z183-Y183)</f>
-        <v>5.7896000000000001</v>
+        <v>5.7841000000000005</v>
       </c>
       <c r="AB183" s="49" t="e">
         <f>VLOOKUP(A183,Enforcements!$C$7:$J$32,8,0)</f>
@@ -20325,50 +20132,50 @@
     </row>
     <row r="184" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A184" s="81" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="B184" s="86">
-        <v>4039</v>
+        <v>4029</v>
       </c>
       <c r="C184" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D184" s="66" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="E184" s="78">
-        <v>42549.75509259259</v>
+        <v>42549.679710648146</v>
       </c>
       <c r="F184" s="25">
-        <v>42549.756458333337</v>
+        <v>42549.680439814816</v>
       </c>
       <c r="G184" s="25">
         <v>1</v>
       </c>
       <c r="H184" s="25" t="s">
-        <v>519</v>
+        <v>566</v>
       </c>
       <c r="I184" s="25">
-        <v>42549.76866898148</v>
+        <v>42549.690671296295</v>
       </c>
       <c r="J184" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K184" s="43" t="str">
         <f>IF(ISEVEN(B184),(B184-1)&amp;"/"&amp;B184,B184&amp;"/"&amp;(B184+1))</f>
-        <v>4039/4040</v>
+        <v>4029/4030</v>
       </c>
       <c r="L184" s="43" t="str">
         <f>VLOOKUP(A184,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>DE LA ROSA</v>
+        <v>LYNN</v>
       </c>
       <c r="M184" s="11">
         <f>I184-F184</f>
-        <v>1.2210648143081926E-2</v>
+        <v>1.0231481479422655E-2</v>
       </c>
       <c r="N184" s="12">
         <f>24*60*SUM($M184:$M184)</f>
-        <v>17.583333326037973</v>
+        <v>14.733333330368623</v>
       </c>
       <c r="O184" s="12"/>
       <c r="P184" s="12"/>
@@ -20376,22 +20183,22 @@
       <c r="R184" s="44"/>
       <c r="S184" s="70">
         <f>SUM(U184:U184)/12</f>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T184" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A184,3)),"Southbound","NorthBound")</f>
-        <v>Southbound</v>
+        <v>NorthBound</v>
       </c>
       <c r="U184" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T184="NorthBound","&gt;=","&lt;=")&amp;Y184,Variables!$M$2:$M$19,IF(T184="NorthBound","&lt;=","&gt;=")&amp;Z184)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V184" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E184-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I184+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B184&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 18:06:20-0600',mode:absolute,to:'2016-06-28 18:27:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 16:17:47-0600',mode:absolute,to:'2016-06-28 16:35:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W184" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA184&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X184" s="48">
@@ -20400,15 +20207,15 @@
       </c>
       <c r="Y184" s="48">
         <f>RIGHT(D184,LEN(D184)-4)/10000</f>
-        <v>5.8596000000000004</v>
+        <v>9.01E-2</v>
       </c>
       <c r="Z184" s="48">
         <f>RIGHT(H184,LEN(H184)-4)/10000</f>
-        <v>6.8500000000000005E-2</v>
+        <v>5.8891999999999998</v>
       </c>
       <c r="AA184" s="48">
         <f>ABS(Z184-Y184)</f>
-        <v>5.7911000000000001</v>
+        <v>5.7991000000000001</v>
       </c>
       <c r="AB184" s="49" t="e">
         <f>VLOOKUP(A184,Enforcements!$C$7:$J$32,8,0)</f>
@@ -20421,34 +20228,34 @@
     </row>
     <row r="185" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A185" s="81" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="B185" s="86">
-        <v>4029</v>
+        <v>4030</v>
       </c>
       <c r="C185" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D185" s="66" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="E185" s="78">
-        <v>42549.758946759262</v>
+        <v>42549.691365740742</v>
       </c>
       <c r="F185" s="25">
-        <v>42549.760347222225</v>
+        <v>42549.692060185182</v>
       </c>
       <c r="G185" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H185" s="25" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="I185" s="25">
-        <v>42549.773680555554</v>
+        <v>42549.705127314817</v>
       </c>
       <c r="J185" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K185" s="43" t="str">
         <f>IF(ISEVEN(B185),(B185-1)&amp;"/"&amp;B185,B185&amp;"/"&amp;(B185+1))</f>
@@ -20460,11 +20267,11 @@
       </c>
       <c r="M185" s="11">
         <f>I185-F185</f>
-        <v>1.3333333328773733E-2</v>
+        <v>1.3067129635601304E-2</v>
       </c>
       <c r="N185" s="12">
         <f>24*60*SUM($M185:$M185)</f>
-        <v>19.199999993434176</v>
+        <v>18.816666675265878</v>
       </c>
       <c r="O185" s="12"/>
       <c r="P185" s="12"/>
@@ -20472,22 +20279,22 @@
       <c r="R185" s="44"/>
       <c r="S185" s="70">
         <f>SUM(U185:U185)/12</f>
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T185" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A185,3)),"Southbound","NorthBound")</f>
-        <v>NorthBound</v>
+        <v>Southbound</v>
       </c>
       <c r="U185" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T185="NorthBound","&gt;=","&lt;=")&amp;Y185,Variables!$M$2:$M$19,IF(T185="NorthBound","&lt;=","&gt;=")&amp;Z185)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V185" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E185-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I185+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B185&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 18:11:53-0600',mode:absolute,to:'2016-06-28 18:35:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 16:34:34-0600',mode:absolute,to:'2016-06-28 16:56:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W185" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA185&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X185" s="48">
@@ -20496,15 +20303,15 @@
       </c>
       <c r="Y185" s="48">
         <f>RIGHT(D185,LEN(D185)-4)/10000</f>
-        <v>9.0200000000000002E-2</v>
+        <v>5.8570000000000002</v>
       </c>
       <c r="Z185" s="48">
         <f>RIGHT(H185,LEN(H185)-4)/10000</f>
-        <v>5.7653999999999996</v>
+        <v>7.0099999999999996E-2</v>
       </c>
       <c r="AA185" s="48">
         <f>ABS(Z185-Y185)</f>
-        <v>5.6751999999999994</v>
+        <v>5.7869000000000002</v>
       </c>
       <c r="AB185" s="49" t="e">
         <f>VLOOKUP(A185,Enforcements!$C$7:$J$32,8,0)</f>
@@ -20517,50 +20324,50 @@
     </row>
     <row r="186" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A186" s="81" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="B186" s="86">
-        <v>4030</v>
+        <v>4040</v>
       </c>
       <c r="C186" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D186" s="66" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="E186" s="78">
-        <v>42549.774953703702</v>
+        <v>42549.697812500002</v>
       </c>
       <c r="F186" s="25">
-        <v>42549.775914351849</v>
+        <v>42549.699270833335</v>
       </c>
       <c r="G186" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H186" s="25" t="s">
-        <v>587</v>
+        <v>532</v>
       </c>
       <c r="I186" s="25">
-        <v>42549.789143518516</v>
+        <v>42549.712141203701</v>
       </c>
       <c r="J186" s="43">
         <v>1</v>
       </c>
       <c r="K186" s="43" t="str">
         <f>IF(ISEVEN(B186),(B186-1)&amp;"/"&amp;B186,B186&amp;"/"&amp;(B186+1))</f>
-        <v>4029/4030</v>
+        <v>4039/4040</v>
       </c>
       <c r="L186" s="43" t="str">
         <f>VLOOKUP(A186,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>STORY</v>
+        <v>ALONZO</v>
       </c>
       <c r="M186" s="11">
         <f>I186-F186</f>
-        <v>1.3229166666860692E-2</v>
+        <v>1.2870370366727002E-2</v>
       </c>
       <c r="N186" s="12">
         <f>24*60*SUM($M186:$M186)</f>
-        <v>19.050000000279397</v>
+        <v>18.533333328086883</v>
       </c>
       <c r="O186" s="12"/>
       <c r="P186" s="12"/>
@@ -20568,22 +20375,22 @@
       <c r="R186" s="44"/>
       <c r="S186" s="70">
         <f>SUM(U186:U186)/12</f>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T186" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A186,3)),"Southbound","NorthBound")</f>
-        <v>Southbound</v>
+        <v>NorthBound</v>
       </c>
       <c r="U186" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T186="NorthBound","&gt;=","&lt;=")&amp;Y186,Variables!$M$2:$M$19,IF(T186="NorthBound","&lt;=","&gt;=")&amp;Z186)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V186" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E186-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I186+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B186&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 18:34:56-0600',mode:absolute,to:'2016-06-28 18:57:22-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 16:43:51-0600',mode:absolute,to:'2016-06-28 17:06:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W186" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA186&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X186" s="48">
@@ -20592,15 +20399,15 @@
       </c>
       <c r="Y186" s="48">
         <f>RIGHT(D186,LEN(D186)-4)/10000</f>
-        <v>5.8592000000000004</v>
+        <v>0.1023</v>
       </c>
       <c r="Z186" s="48">
         <f>RIGHT(H186,LEN(H186)-4)/10000</f>
-        <v>6.2600000000000003E-2</v>
+        <v>5.8920000000000003</v>
       </c>
       <c r="AA186" s="48">
         <f>ABS(Z186-Y186)</f>
-        <v>5.7966000000000006</v>
+        <v>5.7897000000000007</v>
       </c>
       <c r="AB186" s="49" t="e">
         <f>VLOOKUP(A186,Enforcements!$C$7:$J$32,8,0)</f>
@@ -20613,34 +20420,34 @@
     </row>
     <row r="187" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A187" s="81" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="B187" s="86">
-        <v>4040</v>
+        <v>4039</v>
       </c>
       <c r="C187" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D187" s="66" t="s">
-        <v>589</v>
+        <v>490</v>
       </c>
       <c r="E187" s="78">
-        <v>42549.778935185182</v>
+        <v>42549.713946759257</v>
       </c>
       <c r="F187" s="25">
-        <v>42549.780046296299</v>
+        <v>42549.715474537035</v>
       </c>
       <c r="G187" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H187" s="25" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="I187" s="25">
-        <v>42549.79451388889</v>
+        <v>42549.7262962963</v>
       </c>
       <c r="J187" s="43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K187" s="43" t="str">
         <f>IF(ISEVEN(B187),(B187-1)&amp;"/"&amp;B187,B187&amp;"/"&amp;(B187+1))</f>
@@ -20648,15 +20455,15 @@
       </c>
       <c r="L187" s="43" t="str">
         <f>VLOOKUP(A187,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>DE LA ROSA</v>
+        <v>ALONZO</v>
       </c>
       <c r="M187" s="11">
         <f>I187-F187</f>
-        <v>1.4467592591245193E-2</v>
+        <v>1.082175926421769E-2</v>
       </c>
       <c r="N187" s="12">
         <f>24*60*SUM($M187:$M187)</f>
-        <v>20.833333331393078</v>
+        <v>15.583333340473473</v>
       </c>
       <c r="O187" s="12"/>
       <c r="P187" s="12"/>
@@ -20664,22 +20471,22 @@
       <c r="R187" s="44"/>
       <c r="S187" s="70">
         <f>SUM(U187:U187)/12</f>
-        <v>0.66666666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T187" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A187,3)),"Southbound","NorthBound")</f>
-        <v>NorthBound</v>
+        <v>Southbound</v>
       </c>
       <c r="U187" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T187="NorthBound","&gt;=","&lt;=")&amp;Y187,Variables!$M$2:$M$19,IF(T187="NorthBound","&lt;=","&gt;=")&amp;Z187)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V187" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E187-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I187+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B187&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 18:40:40-0600',mode:absolute,to:'2016-06-28 19:05:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 17:07:05-0600',mode:absolute,to:'2016-06-28 17:26:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W187" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA187&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X187" s="48">
@@ -20688,15 +20495,15 @@
       </c>
       <c r="Y187" s="48">
         <f>RIGHT(D187,LEN(D187)-4)/10000</f>
-        <v>9.74E-2</v>
+        <v>5.8604000000000003</v>
       </c>
       <c r="Z187" s="48">
         <f>RIGHT(H187,LEN(H187)-4)/10000</f>
-        <v>5.8895999999999997</v>
+        <v>7.0800000000000002E-2</v>
       </c>
       <c r="AA187" s="48">
         <f>ABS(Z187-Y187)</f>
-        <v>5.7921999999999993</v>
+        <v>5.7896000000000001</v>
       </c>
       <c r="AB187" s="49" t="e">
         <f>VLOOKUP(A187,Enforcements!$C$7:$J$32,8,0)</f>
@@ -20709,34 +20516,34 @@
     </row>
     <row r="188" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A188" s="81" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="B188" s="86">
-        <v>4030</v>
+        <v>4029</v>
       </c>
       <c r="C188" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D188" s="66" t="s">
-        <v>592</v>
+        <v>537</v>
       </c>
       <c r="E188" s="78">
-        <v>42549.816712962966</v>
+        <v>42549.71974537037</v>
       </c>
       <c r="F188" s="25">
-        <v>42549.81763888889</v>
+        <v>42549.721053240741</v>
       </c>
       <c r="G188" s="25">
         <v>1</v>
       </c>
       <c r="H188" s="25" t="s">
-        <v>593</v>
+        <v>554</v>
       </c>
       <c r="I188" s="25">
-        <v>42549.830023148148</v>
+        <v>42549.733148148145</v>
       </c>
       <c r="J188" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K188" s="43" t="str">
         <f>IF(ISEVEN(B188),(B188-1)&amp;"/"&amp;B188,B188&amp;"/"&amp;(B188+1))</f>
@@ -20744,15 +20551,15 @@
       </c>
       <c r="L188" s="43" t="str">
         <f>VLOOKUP(A188,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>STORY</v>
+        <v>LYNN</v>
       </c>
       <c r="M188" s="11">
         <f>I188-F188</f>
-        <v>1.2384259258396924E-2</v>
+        <v>1.2094907404389232E-2</v>
       </c>
       <c r="N188" s="12">
         <f>24*60*SUM($M188:$M188)</f>
-        <v>17.83333333209157</v>
+        <v>17.416666662320495</v>
       </c>
       <c r="O188" s="12"/>
       <c r="P188" s="12"/>
@@ -20760,22 +20567,22 @@
       <c r="R188" s="44"/>
       <c r="S188" s="70">
         <f>SUM(U188:U188)/12</f>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T188" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A188,3)),"Southbound","NorthBound")</f>
-        <v>Southbound</v>
+        <v>NorthBound</v>
       </c>
       <c r="U188" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T188="NorthBound","&gt;=","&lt;=")&amp;Y188,Variables!$M$2:$M$19,IF(T188="NorthBound","&lt;=","&gt;=")&amp;Z188)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V188" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E188-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I188+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B188&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 19:35:04-0600',mode:absolute,to:'2016-06-28 19:56:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 17:15:26-0600',mode:absolute,to:'2016-06-28 17:36:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W188" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA188&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X188" s="48">
@@ -20784,15 +20591,15 @@
       </c>
       <c r="Y188" s="48">
         <f>RIGHT(D188,LEN(D188)-4)/10000</f>
-        <v>5.8582999999999998</v>
+        <v>9.8100000000000007E-2</v>
       </c>
       <c r="Z188" s="48">
         <f>RIGHT(H188,LEN(H188)-4)/10000</f>
-        <v>7.0599999999999996E-2</v>
+        <v>5.8906999999999998</v>
       </c>
       <c r="AA188" s="48">
         <f>ABS(Z188-Y188)</f>
-        <v>5.7877000000000001</v>
+        <v>5.7926000000000002</v>
       </c>
       <c r="AB188" s="49" t="e">
         <f>VLOOKUP(A188,Enforcements!$C$7:$J$32,8,0)</f>
@@ -20805,31 +20612,31 @@
     </row>
     <row r="189" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A189" s="81" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="B189" s="86">
-        <v>4029</v>
+        <v>4030</v>
       </c>
       <c r="C189" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D189" s="66" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
       <c r="E189" s="78">
-        <v>42549.800740740742</v>
+        <v>42549.733900462961</v>
       </c>
       <c r="F189" s="25">
-        <v>42549.802523148152</v>
+        <v>42549.735659722224</v>
       </c>
       <c r="G189" s="25">
         <v>2</v>
       </c>
       <c r="H189" s="25" t="s">
-        <v>596</v>
+        <v>577</v>
       </c>
       <c r="I189" s="25">
-        <v>42549.815740740742</v>
+        <v>42549.736319444448</v>
       </c>
       <c r="J189" s="43">
         <v>1</v>
@@ -20840,15 +20647,15 @@
       </c>
       <c r="L189" s="43" t="str">
         <f>VLOOKUP(A189,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>LYNN</v>
+        <v>STORY</v>
       </c>
       <c r="M189" s="11">
         <f>I189-F189</f>
-        <v>1.321759259008104E-2</v>
+        <v>6.5972222364507616E-4</v>
       </c>
       <c r="N189" s="12">
         <f>24*60*SUM($M189:$M189)</f>
-        <v>19.033333329716697</v>
+        <v>0.95000000204890966</v>
       </c>
       <c r="O189" s="12"/>
       <c r="P189" s="12"/>
@@ -20856,23 +20663,23 @@
       <c r="R189" s="44"/>
       <c r="S189" s="70">
         <f>SUM(U189:U189)/12</f>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="T189" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A189,3)),"Southbound","NorthBound")</f>
-        <v>NorthBound</v>
+        <v>Southbound</v>
       </c>
       <c r="U189" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T189="NorthBound","&gt;=","&lt;=")&amp;Y189,Variables!$M$2:$M$19,IF(T189="NorthBound","&lt;=","&gt;=")&amp;Z189)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="V189" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E189-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I189+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B189&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 19:12:04-0600',mode:absolute,to:'2016-06-28 19:35:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 17:35:49-0600',mode:absolute,to:'2016-06-28 17:41:18-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W189" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>N</v>
+        <f>IF(AA189&lt;5.5,"Y","N")</f>
+        <v>Y</v>
       </c>
       <c r="X189" s="48">
         <f>VALUE(LEFT(A189,3))-VALUE(LEFT(A188,3))</f>
@@ -20880,15 +20687,15 @@
       </c>
       <c r="Y189" s="48">
         <f>RIGHT(D189,LEN(D189)-4)/10000</f>
-        <v>9.0399999999999994E-2</v>
+        <v>5.8348000000000004</v>
       </c>
       <c r="Z189" s="48">
         <f>RIGHT(H189,LEN(H189)-4)/10000</f>
-        <v>5.8912000000000004</v>
+        <v>5.8305999999999996</v>
       </c>
       <c r="AA189" s="48">
         <f>ABS(Z189-Y189)</f>
-        <v>5.8008000000000006</v>
+        <v>4.2000000000008697E-3</v>
       </c>
       <c r="AB189" s="49" t="e">
         <f>VLOOKUP(A189,Enforcements!$C$7:$J$32,8,0)</f>
@@ -20901,50 +20708,50 @@
     </row>
     <row r="190" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A190" s="81" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
       <c r="B190" s="86">
-        <v>4030</v>
+        <v>4040</v>
       </c>
       <c r="C190" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D190" s="66" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="E190" s="78">
-        <v>42549.857743055552</v>
+        <v>42549.733460648145</v>
       </c>
       <c r="F190" s="25">
-        <v>42549.858506944445</v>
+        <v>42549.734652777777</v>
       </c>
       <c r="G190" s="25">
         <v>1</v>
       </c>
-      <c r="H190" s="25">
-        <v>8.5243055555555554</v>
+      <c r="H190" s="25" t="s">
+        <v>494</v>
       </c>
       <c r="I190" s="25">
-        <v>42549.87296296296</v>
+        <v>42549.753344907411</v>
       </c>
       <c r="J190" s="43">
         <v>0</v>
       </c>
       <c r="K190" s="43" t="str">
         <f>IF(ISEVEN(B190),(B190-1)&amp;"/"&amp;B190,B190&amp;"/"&amp;(B190+1))</f>
-        <v>4029/4030</v>
+        <v>4039/4040</v>
       </c>
       <c r="L190" s="43" t="str">
         <f>VLOOKUP(A190,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>STORY</v>
+        <v>DE LA ROSA</v>
       </c>
       <c r="M190" s="11">
         <f>I190-F190</f>
-        <v>1.4456018514465541E-2</v>
+        <v>1.8692129633564036E-2</v>
       </c>
       <c r="N190" s="12">
         <f>24*60*SUM($M190:$M190)</f>
-        <v>20.816666660830379</v>
+        <v>26.916666672332212</v>
       </c>
       <c r="O190" s="12"/>
       <c r="P190" s="12"/>
@@ -20952,22 +20759,22 @@
       <c r="R190" s="44"/>
       <c r="S190" s="70">
         <f>SUM(U190:U190)/12</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T190" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A190,3)),"Southbound","NorthBound")</f>
-        <v>Southbound</v>
+        <v>NorthBound</v>
       </c>
       <c r="U190" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T190="NorthBound","&gt;=","&lt;=")&amp;Y190,Variables!$M$2:$M$19,IF(T190="NorthBound","&lt;=","&gt;=")&amp;Z190)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V190" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E190-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I190+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B190&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 20:34:09-0600',mode:absolute,to:'2016-06-28 20:58:04-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 17:35:11-0600',mode:absolute,to:'2016-06-28 18:05:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W190" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA190&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X190" s="48">
@@ -20976,15 +20783,15 @@
       </c>
       <c r="Y190" s="48">
         <f>RIGHT(D190,LEN(D190)-4)/10000</f>
-        <v>5.8578999999999999</v>
+        <v>0.1018</v>
       </c>
       <c r="Z190" s="48">
         <f>RIGHT(H190,LEN(H190)-4)/10000</f>
-        <v>43055555.555600002</v>
+        <v>5.8914</v>
       </c>
       <c r="AA190" s="48">
         <f>ABS(Z190-Y190)</f>
-        <v>43055549.697700001</v>
+        <v>5.7896000000000001</v>
       </c>
       <c r="AB190" s="49" t="e">
         <f>VLOOKUP(A190,Enforcements!$C$7:$J$32,8,0)</f>
@@ -20997,50 +20804,50 @@
     </row>
     <row r="191" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A191" s="81" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="B191" s="86">
-        <v>4029</v>
+        <v>4039</v>
       </c>
       <c r="C191" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D191" s="66" t="s">
-        <v>600</v>
+        <v>581</v>
       </c>
       <c r="E191" s="78">
-        <v>42549.843495370369</v>
+        <v>42549.75509259259</v>
       </c>
       <c r="F191" s="25">
-        <v>42549.844282407408</v>
+        <v>42549.756458333337</v>
       </c>
       <c r="G191" s="25">
         <v>1</v>
       </c>
       <c r="H191" s="25" t="s">
-        <v>601</v>
+        <v>519</v>
       </c>
       <c r="I191" s="25">
-        <v>42549.857060185182</v>
+        <v>42549.76866898148</v>
       </c>
       <c r="J191" s="43">
         <v>0</v>
       </c>
       <c r="K191" s="43" t="str">
         <f>IF(ISEVEN(B191),(B191-1)&amp;"/"&amp;B191,B191&amp;"/"&amp;(B191+1))</f>
-        <v>4029/4030</v>
+        <v>4039/4040</v>
       </c>
       <c r="L191" s="43" t="str">
         <f>VLOOKUP(A191,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>LYNN</v>
+        <v>DE LA ROSA</v>
       </c>
       <c r="M191" s="11">
         <f>I191-F191</f>
-        <v>1.2777777774317656E-2</v>
+        <v>1.2210648143081926E-2</v>
       </c>
       <c r="N191" s="12">
         <f>24*60*SUM($M191:$M191)</f>
-        <v>18.399999995017424</v>
+        <v>17.583333326037973</v>
       </c>
       <c r="O191" s="12"/>
       <c r="P191" s="12"/>
@@ -21048,22 +20855,22 @@
       <c r="R191" s="44"/>
       <c r="S191" s="70">
         <f>SUM(U191:U191)/12</f>
-        <v>0.66666666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T191" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A191,3)),"Southbound","NorthBound")</f>
-        <v>NorthBound</v>
+        <v>Southbound</v>
       </c>
       <c r="U191" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T191="NorthBound","&gt;=","&lt;=")&amp;Y191,Variables!$M$2:$M$19,IF(T191="NorthBound","&lt;=","&gt;=")&amp;Z191)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V191" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E191-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I191+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B191&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 20:13:38-0600',mode:absolute,to:'2016-06-28 20:35:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 18:06:20-0600',mode:absolute,to:'2016-06-28 18:27:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W191" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA191&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X191" s="48">
@@ -21072,15 +20879,15 @@
       </c>
       <c r="Y191" s="48">
         <f>RIGHT(D191,LEN(D191)-4)/10000</f>
-        <v>9.9699999999999997E-2</v>
+        <v>5.8596000000000004</v>
       </c>
       <c r="Z191" s="48">
         <f>RIGHT(H191,LEN(H191)-4)/10000</f>
-        <v>5.8894000000000002</v>
+        <v>6.8500000000000005E-2</v>
       </c>
       <c r="AA191" s="48">
         <f>ABS(Z191-Y191)</f>
-        <v>5.7896999999999998</v>
+        <v>5.7911000000000001</v>
       </c>
       <c r="AB191" s="49" t="e">
         <f>VLOOKUP(A191,Enforcements!$C$7:$J$32,8,0)</f>
@@ -21093,34 +20900,34 @@
     </row>
     <row r="192" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A192" s="81" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="B192" s="86">
-        <v>4030</v>
+        <v>4029</v>
       </c>
       <c r="C192" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D192" s="66" t="s">
-        <v>484</v>
+        <v>583</v>
       </c>
       <c r="E192" s="78">
-        <v>42549.900289351855</v>
+        <v>42549.758946759262</v>
       </c>
       <c r="F192" s="25">
-        <v>42549.901030092595</v>
+        <v>42549.760347222225</v>
       </c>
       <c r="G192" s="25">
-        <v>1</v>
-      </c>
-      <c r="H192" s="25">
-        <v>8.5368055555555546</v>
+        <v>2</v>
+      </c>
+      <c r="H192" s="25" t="s">
+        <v>584</v>
       </c>
       <c r="I192" s="25">
-        <v>42549.914386574077</v>
+        <v>42549.773680555554</v>
       </c>
       <c r="J192" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K192" s="43" t="str">
         <f>IF(ISEVEN(B192),(B192-1)&amp;"/"&amp;B192,B192&amp;"/"&amp;(B192+1))</f>
@@ -21128,15 +20935,15 @@
       </c>
       <c r="L192" s="43" t="str">
         <f>VLOOKUP(A192,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>STORY</v>
+        <v>LYNN</v>
       </c>
       <c r="M192" s="11">
         <f>I192-F192</f>
-        <v>1.3356481482333038E-2</v>
+        <v>1.3333333328773733E-2</v>
       </c>
       <c r="N192" s="12">
         <f>24*60*SUM($M192:$M192)</f>
-        <v>19.233333334559575</v>
+        <v>19.199999993434176</v>
       </c>
       <c r="O192" s="12"/>
       <c r="P192" s="12"/>
@@ -21144,22 +20951,22 @@
       <c r="R192" s="44"/>
       <c r="S192" s="70">
         <f>SUM(U192:U192)/12</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T192" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A192,3)),"Southbound","NorthBound")</f>
-        <v>Southbound</v>
+        <v>NorthBound</v>
       </c>
       <c r="U192" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T192="NorthBound","&gt;=","&lt;=")&amp;Y192,Variables!$M$2:$M$19,IF(T192="NorthBound","&lt;=","&gt;=")&amp;Z192)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V192" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E192-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I192+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B192&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 21:35:25-0600',mode:absolute,to:'2016-06-28 21:57:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 18:11:53-0600',mode:absolute,to:'2016-06-28 18:35:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W192" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA192&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X192" s="48">
@@ -21168,15 +20975,15 @@
       </c>
       <c r="Y192" s="48">
         <f>RIGHT(D192,LEN(D192)-4)/10000</f>
-        <v>5.8624000000000001</v>
+        <v>9.0200000000000002E-2</v>
       </c>
       <c r="Z192" s="48">
         <f>RIGHT(H192,LEN(H192)-4)/10000</f>
-        <v>68055555.555500001</v>
+        <v>5.7653999999999996</v>
       </c>
       <c r="AA192" s="48">
         <f>ABS(Z192-Y192)</f>
-        <v>68055549.693100005</v>
+        <v>5.6751999999999994</v>
       </c>
       <c r="AB192" s="49" t="e">
         <f>VLOOKUP(A192,Enforcements!$C$7:$J$32,8,0)</f>
@@ -21189,34 +20996,34 @@
     </row>
     <row r="193" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A193" s="81" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="B193" s="86">
-        <v>4029</v>
+        <v>4030</v>
       </c>
       <c r="C193" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D193" s="66" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="E193" s="78">
-        <v>42549.881145833337</v>
+        <v>42549.774953703702</v>
       </c>
       <c r="F193" s="25">
-        <v>42549.881909722222</v>
+        <v>42549.775914351849</v>
       </c>
       <c r="G193" s="25">
         <v>1</v>
       </c>
       <c r="H193" s="25" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="I193" s="25">
-        <v>42549.899537037039</v>
+        <v>42549.789143518516</v>
       </c>
       <c r="J193" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K193" s="43" t="str">
         <f>IF(ISEVEN(B193),(B193-1)&amp;"/"&amp;B193,B193&amp;"/"&amp;(B193+1))</f>
@@ -21224,15 +21031,15 @@
       </c>
       <c r="L193" s="43" t="str">
         <f>VLOOKUP(A193,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>LYNN</v>
+        <v>STORY</v>
       </c>
       <c r="M193" s="11">
         <f>I193-F193</f>
-        <v>1.7627314817218576E-2</v>
+        <v>1.3229166666860692E-2</v>
       </c>
       <c r="N193" s="12">
         <f>24*60*SUM($M193:$M193)</f>
-        <v>25.383333336794749</v>
+        <v>19.050000000279397</v>
       </c>
       <c r="O193" s="12"/>
       <c r="P193" s="12"/>
@@ -21240,22 +21047,22 @@
       <c r="R193" s="44"/>
       <c r="S193" s="70">
         <f>SUM(U193:U193)/12</f>
-        <v>0.66666666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T193" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A193,3)),"Southbound","NorthBound")</f>
-        <v>NorthBound</v>
+        <v>Southbound</v>
       </c>
       <c r="U193" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T193="NorthBound","&gt;=","&lt;=")&amp;Y193,Variables!$M$2:$M$19,IF(T193="NorthBound","&lt;=","&gt;=")&amp;Z193)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V193" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E193-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I193+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B193&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 21:07:51-0600',mode:absolute,to:'2016-06-28 21:36:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 18:34:56-0600',mode:absolute,to:'2016-06-28 18:57:22-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W193" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA193&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X193" s="48">
@@ -21264,15 +21071,15 @@
       </c>
       <c r="Y193" s="48">
         <f>RIGHT(D193,LEN(D193)-4)/10000</f>
-        <v>3.3599999999999998E-2</v>
+        <v>5.8592000000000004</v>
       </c>
       <c r="Z193" s="48">
         <f>RIGHT(H193,LEN(H193)-4)/10000</f>
-        <v>5.8939000000000004</v>
+        <v>6.2600000000000003E-2</v>
       </c>
       <c r="AA193" s="48">
         <f>ABS(Z193-Y193)</f>
-        <v>5.8603000000000005</v>
+        <v>5.7966000000000006</v>
       </c>
       <c r="AB193" s="49" t="e">
         <f>VLOOKUP(A193,Enforcements!$C$7:$J$32,8,0)</f>
@@ -21285,50 +21092,50 @@
     </row>
     <row r="194" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A194" s="81" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="B194" s="86">
-        <v>4029</v>
+        <v>4040</v>
       </c>
       <c r="C194" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D194" s="66" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="E194" s="78">
-        <v>42549.928148148145</v>
+        <v>42549.778935185182</v>
       </c>
       <c r="F194" s="25">
-        <v>42549.92895833333</v>
+        <v>42549.780046296299</v>
       </c>
       <c r="G194" s="25">
         <v>1</v>
       </c>
       <c r="H194" s="25" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="I194" s="25">
-        <v>42549.942604166667</v>
+        <v>42549.79451388889</v>
       </c>
       <c r="J194" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K194" s="43" t="str">
         <f>IF(ISEVEN(B194),(B194-1)&amp;"/"&amp;B194,B194&amp;"/"&amp;(B194+1))</f>
-        <v>4029/4030</v>
+        <v>4039/4040</v>
       </c>
       <c r="L194" s="43" t="str">
         <f>VLOOKUP(A194,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>LYNN</v>
+        <v>DE LA ROSA</v>
       </c>
       <c r="M194" s="11">
         <f>I194-F194</f>
-        <v>1.3645833336340729E-2</v>
+        <v>1.4467592591245193E-2</v>
       </c>
       <c r="N194" s="12">
         <f>24*60*SUM($M194:$M194)</f>
-        <v>19.65000000433065</v>
+        <v>20.833333331393078</v>
       </c>
       <c r="O194" s="12"/>
       <c r="P194" s="12"/>
@@ -21348,27 +21155,27 @@
       </c>
       <c r="V194" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E194-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I194+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B194&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 22:15:32-0600',mode:absolute,to:'2016-06-28 22:38:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 18:40:40-0600',mode:absolute,to:'2016-06-28 19:05:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W194" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AA194&lt;5.5,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X194" s="48">
         <f>VALUE(LEFT(A194,3))-VALUE(LEFT(A193,3))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y194" s="48">
         <f>RIGHT(D194,LEN(D194)-4)/10000</f>
-        <v>3.6299999999999999E-2</v>
+        <v>9.74E-2</v>
       </c>
       <c r="Z194" s="48">
         <f>RIGHT(H194,LEN(H194)-4)/10000</f>
-        <v>5.8905000000000003</v>
+        <v>5.8895999999999997</v>
       </c>
       <c r="AA194" s="48">
         <f>ABS(Z194-Y194)</f>
-        <v>5.8542000000000005</v>
+        <v>5.7921999999999993</v>
       </c>
       <c r="AB194" s="49" t="e">
         <f>VLOOKUP(A194,Enforcements!$C$7:$J$32,8,0)</f>
@@ -21381,50 +21188,50 @@
     </row>
     <row r="195" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A195" s="81" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="B195" s="86">
-        <v>4039</v>
+        <v>4030</v>
       </c>
       <c r="C195" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D195" s="66" t="s">
-        <v>550</v>
+        <v>592</v>
       </c>
       <c r="E195" s="78">
-        <v>42549.79546296296</v>
+        <v>42549.816712962966</v>
       </c>
       <c r="F195" s="25">
-        <v>42549.796539351853</v>
+        <v>42549.81763888889</v>
       </c>
       <c r="G195" s="25">
         <v>1</v>
       </c>
       <c r="H195" s="25" t="s">
-        <v>610</v>
+        <v>593</v>
       </c>
       <c r="I195" s="25">
-        <v>42549.80673611111</v>
+        <v>42549.830023148148</v>
       </c>
       <c r="J195" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K195" s="43" t="str">
         <f>IF(ISEVEN(B195),(B195-1)&amp;"/"&amp;B195,B195&amp;"/"&amp;(B195+1))</f>
-        <v>4039/4040</v>
+        <v>4029/4030</v>
       </c>
       <c r="L195" s="43" t="str">
         <f>VLOOKUP(A195,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>DE LA ROSA</v>
+        <v>STORY</v>
       </c>
       <c r="M195" s="11">
         <f>I195-F195</f>
-        <v>1.0196759256359655E-2</v>
+        <v>1.2384259258396924E-2</v>
       </c>
       <c r="N195" s="12">
         <f>24*60*SUM($M195:$M195)</f>
-        <v>14.683333329157904</v>
+        <v>17.83333333209157</v>
       </c>
       <c r="O195" s="12"/>
       <c r="P195" s="12"/>
@@ -21432,7 +21239,7 @@
       <c r="R195" s="44"/>
       <c r="S195" s="70">
         <f>SUM(U195:U195)/12</f>
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T195" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A195,3)),"Southbound","NorthBound")</f>
@@ -21440,31 +21247,31 @@
       </c>
       <c r="U195" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T195="NorthBound","&gt;=","&lt;=")&amp;Y195,Variables!$M$2:$M$19,IF(T195="NorthBound","&lt;=","&gt;=")&amp;Z195)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V195" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E195-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I195+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B195&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 19:04:28-0600',mode:absolute,to:'2016-06-28 19:22:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 19:35:04-0600',mode:absolute,to:'2016-06-28 19:56:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W195" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>Y</v>
+        <f>IF(AA195&lt;5.5,"Y","N")</f>
+        <v>N</v>
       </c>
       <c r="X195" s="48">
         <f>VALUE(LEFT(A195,3))-VALUE(LEFT(A194,3))</f>
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="Y195" s="48">
         <f>RIGHT(D195,LEN(D195)-4)/10000</f>
-        <v>5.8586999999999998</v>
+        <v>5.8582999999999998</v>
       </c>
       <c r="Z195" s="48">
         <f>RIGHT(H195,LEN(H195)-4)/10000</f>
-        <v>2.8822000000000001</v>
+        <v>7.0599999999999996E-2</v>
       </c>
       <c r="AA195" s="48">
         <f>ABS(Z195-Y195)</f>
-        <v>2.9764999999999997</v>
+        <v>5.7877000000000001</v>
       </c>
       <c r="AB195" s="49" t="e">
         <f>VLOOKUP(A195,Enforcements!$C$7:$J$32,8,0)</f>
@@ -21477,34 +21284,34 @@
     </row>
     <row r="196" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A196" s="81" t="s">
-        <v>611</v>
+        <v>594</v>
       </c>
       <c r="B196" s="86">
-        <v>4030</v>
+        <v>4029</v>
       </c>
       <c r="C196" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D196" s="66" t="s">
-        <v>556</v>
+        <v>595</v>
       </c>
       <c r="E196" s="78">
-        <v>42549.943402777775</v>
+        <v>42549.800740740742</v>
       </c>
       <c r="F196" s="25">
-        <v>42549.944537037038</v>
+        <v>42549.802523148152</v>
       </c>
       <c r="G196" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H196" s="25" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="I196" s="25">
-        <v>42549.95239583333</v>
+        <v>42549.815740740742</v>
       </c>
       <c r="J196" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K196" s="43" t="str">
         <f>IF(ISEVEN(B196),(B196-1)&amp;"/"&amp;B196,B196&amp;"/"&amp;(B196+1))</f>
@@ -21512,15 +21319,15 @@
       </c>
       <c r="L196" s="43" t="str">
         <f>VLOOKUP(A196,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>STORY</v>
+        <v>LYNN</v>
       </c>
       <c r="M196" s="11">
         <f>I196-F196</f>
-        <v>7.8587962925666943E-3</v>
+        <v>1.321759259008104E-2</v>
       </c>
       <c r="N196" s="12">
         <f>24*60*SUM($M196:$M196)</f>
-        <v>11.31666666129604</v>
+        <v>19.033333329716697</v>
       </c>
       <c r="O196" s="12"/>
       <c r="P196" s="12"/>
@@ -21528,39 +21335,39 @@
       <c r="R196" s="44"/>
       <c r="S196" s="70">
         <f>SUM(U196:U196)/12</f>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T196" s="2" t="str">
         <f>IF(ISEVEN(LEFT(A196,3)),"Southbound","NorthBound")</f>
-        <v>Southbound</v>
+        <v>NorthBound</v>
       </c>
       <c r="U196" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T196="NorthBound","&gt;=","&lt;=")&amp;Y196,Variables!$M$2:$M$19,IF(T196="NorthBound","&lt;=","&gt;=")&amp;Z196)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V196" s="48" t="str">
         <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E196-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I196+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B196&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 22:37:30-0600',mode:absolute,to:'2016-06-28 22:52:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 19:12:04-0600',mode:absolute,to:'2016-06-28 19:35:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W196" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>Y</v>
+        <f>IF(AA196&lt;5.5,"Y","N")</f>
+        <v>N</v>
       </c>
       <c r="X196" s="48">
         <f>VALUE(LEFT(A196,3))-VALUE(LEFT(A195,3))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y196" s="48">
         <f>RIGHT(D196,LEN(D196)-4)/10000</f>
-        <v>5.8589000000000002</v>
+        <v>9.0399999999999994E-2</v>
       </c>
       <c r="Z196" s="48">
         <f>RIGHT(H196,LEN(H196)-4)/10000</f>
-        <v>2.1629</v>
+        <v>5.8912000000000004</v>
       </c>
       <c r="AA196" s="48">
         <f>ABS(Z196-Y196)</f>
-        <v>3.6960000000000002</v>
+        <v>5.8008000000000006</v>
       </c>
       <c r="AB196" s="49" t="e">
         <f>VLOOKUP(A196,Enforcements!$C$7:$J$32,8,0)</f>
@@ -21572,68 +21379,932 @@
       </c>
     </row>
     <row r="197" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B197" s="42"/>
-      <c r="C197" s="42"/>
-      <c r="D197" s="42"/>
-      <c r="J197" s="42"/>
+      <c r="A197" s="81" t="s">
+        <v>597</v>
+      </c>
+      <c r="B197" s="86">
+        <v>4030</v>
+      </c>
+      <c r="C197" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="D197" s="66" t="s">
+        <v>598</v>
+      </c>
+      <c r="E197" s="78">
+        <v>42549.857743055552</v>
+      </c>
+      <c r="F197" s="25">
+        <v>42549.858506944445</v>
+      </c>
+      <c r="G197" s="25">
+        <v>1</v>
+      </c>
+      <c r="H197" s="25">
+        <v>8.5243055555555554</v>
+      </c>
+      <c r="I197" s="25">
+        <v>42549.87296296296</v>
+      </c>
+      <c r="J197" s="43">
+        <v>0</v>
+      </c>
+      <c r="K197" s="43" t="str">
+        <f>IF(ISEVEN(B197),(B197-1)&amp;"/"&amp;B197,B197&amp;"/"&amp;(B197+1))</f>
+        <v>4029/4030</v>
+      </c>
+      <c r="L197" s="43" t="str">
+        <f>VLOOKUP(A197,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
+        <v>STORY</v>
+      </c>
+      <c r="M197" s="11">
+        <f>I197-F197</f>
+        <v>1.4456018514465541E-2</v>
+      </c>
+      <c r="N197" s="12">
+        <f>24*60*SUM($M197:$M197)</f>
+        <v>20.816666660830379</v>
+      </c>
+      <c r="O197" s="12"/>
+      <c r="P197" s="12"/>
+      <c r="Q197" s="44"/>
+      <c r="R197" s="44"/>
+      <c r="S197" s="70">
+        <f>SUM(U197:U197)/12</f>
+        <v>0</v>
+      </c>
+      <c r="T197" s="2" t="str">
+        <f>IF(ISEVEN(LEFT(A197,3)),"Southbound","NorthBound")</f>
+        <v>Southbound</v>
+      </c>
+      <c r="U197" s="2">
+        <f>COUNTIFS(Variables!$M$2:$M$19,IF(T197="NorthBound","&gt;=","&lt;=")&amp;Y197,Variables!$M$2:$M$19,IF(T197="NorthBound","&lt;=","&gt;=")&amp;Z197)</f>
+        <v>0</v>
+      </c>
+      <c r="V197" s="48" t="str">
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E197-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I197+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B197&amp;"%22')),sort:!(Time,asc))"</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 20:34:09-0600',mode:absolute,to:'2016-06-28 20:58:04-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="W197" s="48" t="str">
+        <f>IF(AA197&lt;5.5,"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="X197" s="48">
+        <f>VALUE(LEFT(A197,3))-VALUE(LEFT(A196,3))</f>
+        <v>1</v>
+      </c>
+      <c r="Y197" s="48">
+        <f>RIGHT(D197,LEN(D197)-4)/10000</f>
+        <v>5.8578999999999999</v>
+      </c>
+      <c r="Z197" s="48">
+        <f>RIGHT(H197,LEN(H197)-4)/10000</f>
+        <v>43055555.555600002</v>
+      </c>
+      <c r="AA197" s="48">
+        <f>ABS(Z197-Y197)</f>
+        <v>43055549.697700001</v>
+      </c>
+      <c r="AB197" s="49" t="e">
+        <f>VLOOKUP(A197,Enforcements!$C$7:$J$32,8,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC197" s="49" t="e">
+        <f>VLOOKUP(A197,Enforcements!$C$7:$E$32,3,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="198" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B198" s="42"/>
-      <c r="C198" s="42"/>
-      <c r="D198" s="42"/>
-      <c r="J198" s="42"/>
+      <c r="A198" s="81" t="s">
+        <v>599</v>
+      </c>
+      <c r="B198" s="86">
+        <v>4029</v>
+      </c>
+      <c r="C198" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="D198" s="66" t="s">
+        <v>600</v>
+      </c>
+      <c r="E198" s="78">
+        <v>42549.843495370369</v>
+      </c>
+      <c r="F198" s="25">
+        <v>42549.844282407408</v>
+      </c>
+      <c r="G198" s="25">
+        <v>1</v>
+      </c>
+      <c r="H198" s="25" t="s">
+        <v>601</v>
+      </c>
+      <c r="I198" s="25">
+        <v>42549.857060185182</v>
+      </c>
+      <c r="J198" s="43">
+        <v>0</v>
+      </c>
+      <c r="K198" s="43" t="str">
+        <f>IF(ISEVEN(B198),(B198-1)&amp;"/"&amp;B198,B198&amp;"/"&amp;(B198+1))</f>
+        <v>4029/4030</v>
+      </c>
+      <c r="L198" s="43" t="str">
+        <f>VLOOKUP(A198,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
+        <v>LYNN</v>
+      </c>
+      <c r="M198" s="11">
+        <f>I198-F198</f>
+        <v>1.2777777774317656E-2</v>
+      </c>
+      <c r="N198" s="12">
+        <f>24*60*SUM($M198:$M198)</f>
+        <v>18.399999995017424</v>
+      </c>
+      <c r="O198" s="12"/>
+      <c r="P198" s="12"/>
+      <c r="Q198" s="44"/>
+      <c r="R198" s="44"/>
+      <c r="S198" s="70">
+        <f>SUM(U198:U198)/12</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T198" s="2" t="str">
+        <f>IF(ISEVEN(LEFT(A198,3)),"Southbound","NorthBound")</f>
+        <v>NorthBound</v>
+      </c>
+      <c r="U198" s="2">
+        <f>COUNTIFS(Variables!$M$2:$M$19,IF(T198="NorthBound","&gt;=","&lt;=")&amp;Y198,Variables!$M$2:$M$19,IF(T198="NorthBound","&lt;=","&gt;=")&amp;Z198)</f>
+        <v>8</v>
+      </c>
+      <c r="V198" s="48" t="str">
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E198-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I198+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B198&amp;"%22')),sort:!(Time,asc))"</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 20:13:38-0600',mode:absolute,to:'2016-06-28 20:35:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="W198" s="48" t="str">
+        <f>IF(AA198&lt;5.5,"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="X198" s="48">
+        <f>VALUE(LEFT(A198,3))-VALUE(LEFT(A197,3))</f>
+        <v>1</v>
+      </c>
+      <c r="Y198" s="48">
+        <f>RIGHT(D198,LEN(D198)-4)/10000</f>
+        <v>9.9699999999999997E-2</v>
+      </c>
+      <c r="Z198" s="48">
+        <f>RIGHT(H198,LEN(H198)-4)/10000</f>
+        <v>5.8894000000000002</v>
+      </c>
+      <c r="AA198" s="48">
+        <f>ABS(Z198-Y198)</f>
+        <v>5.7896999999999998</v>
+      </c>
+      <c r="AB198" s="49" t="e">
+        <f>VLOOKUP(A198,Enforcements!$C$7:$J$32,8,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC198" s="49" t="e">
+        <f>VLOOKUP(A198,Enforcements!$C$7:$E$32,3,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="199" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B199" s="42"/>
-      <c r="C199" s="42"/>
-      <c r="D199" s="42"/>
-      <c r="J199" s="42"/>
+      <c r="A199" s="81" t="s">
+        <v>602</v>
+      </c>
+      <c r="B199" s="86">
+        <v>4030</v>
+      </c>
+      <c r="C199" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="D199" s="66" t="s">
+        <v>484</v>
+      </c>
+      <c r="E199" s="78">
+        <v>42549.900289351855</v>
+      </c>
+      <c r="F199" s="25">
+        <v>42549.901030092595</v>
+      </c>
+      <c r="G199" s="25">
+        <v>1</v>
+      </c>
+      <c r="H199" s="25">
+        <v>8.5368055555555546</v>
+      </c>
+      <c r="I199" s="25">
+        <v>42549.914386574077</v>
+      </c>
+      <c r="J199" s="43">
+        <v>0</v>
+      </c>
+      <c r="K199" s="43" t="str">
+        <f>IF(ISEVEN(B199),(B199-1)&amp;"/"&amp;B199,B199&amp;"/"&amp;(B199+1))</f>
+        <v>4029/4030</v>
+      </c>
+      <c r="L199" s="43" t="str">
+        <f>VLOOKUP(A199,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
+        <v>STORY</v>
+      </c>
+      <c r="M199" s="11">
+        <f>I199-F199</f>
+        <v>1.3356481482333038E-2</v>
+      </c>
+      <c r="N199" s="12">
+        <f>24*60*SUM($M199:$M199)</f>
+        <v>19.233333334559575</v>
+      </c>
+      <c r="O199" s="12"/>
+      <c r="P199" s="12"/>
+      <c r="Q199" s="44"/>
+      <c r="R199" s="44"/>
+      <c r="S199" s="70">
+        <f>SUM(U199:U199)/12</f>
+        <v>0</v>
+      </c>
+      <c r="T199" s="2" t="str">
+        <f>IF(ISEVEN(LEFT(A199,3)),"Southbound","NorthBound")</f>
+        <v>Southbound</v>
+      </c>
+      <c r="U199" s="2">
+        <f>COUNTIFS(Variables!$M$2:$M$19,IF(T199="NorthBound","&gt;=","&lt;=")&amp;Y199,Variables!$M$2:$M$19,IF(T199="NorthBound","&lt;=","&gt;=")&amp;Z199)</f>
+        <v>0</v>
+      </c>
+      <c r="V199" s="48" t="str">
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E199-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I199+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B199&amp;"%22')),sort:!(Time,asc))"</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 21:35:25-0600',mode:absolute,to:'2016-06-28 21:57:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="W199" s="48" t="str">
+        <f>IF(AA199&lt;5.5,"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="X199" s="48">
+        <f>VALUE(LEFT(A199,3))-VALUE(LEFT(A198,3))</f>
+        <v>1</v>
+      </c>
+      <c r="Y199" s="48">
+        <f>RIGHT(D199,LEN(D199)-4)/10000</f>
+        <v>5.8624000000000001</v>
+      </c>
+      <c r="Z199" s="48">
+        <f>RIGHT(H199,LEN(H199)-4)/10000</f>
+        <v>68055555.555500001</v>
+      </c>
+      <c r="AA199" s="48">
+        <f>ABS(Z199-Y199)</f>
+        <v>68055549.693100005</v>
+      </c>
+      <c r="AB199" s="49" t="e">
+        <f>VLOOKUP(A199,Enforcements!$C$7:$J$32,8,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC199" s="49" t="e">
+        <f>VLOOKUP(A199,Enforcements!$C$7:$E$32,3,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="200" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B200" s="42"/>
-      <c r="C200" s="42"/>
-      <c r="D200" s="42"/>
-      <c r="J200" s="42"/>
+      <c r="A200" s="81" t="s">
+        <v>603</v>
+      </c>
+      <c r="B200" s="86">
+        <v>4029</v>
+      </c>
+      <c r="C200" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="D200" s="66" t="s">
+        <v>604</v>
+      </c>
+      <c r="E200" s="78">
+        <v>42549.881145833337</v>
+      </c>
+      <c r="F200" s="25">
+        <v>42549.881909722222</v>
+      </c>
+      <c r="G200" s="25">
+        <v>1</v>
+      </c>
+      <c r="H200" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="I200" s="25">
+        <v>42549.899537037039</v>
+      </c>
+      <c r="J200" s="43">
+        <v>0</v>
+      </c>
+      <c r="K200" s="43" t="str">
+        <f>IF(ISEVEN(B200),(B200-1)&amp;"/"&amp;B200,B200&amp;"/"&amp;(B200+1))</f>
+        <v>4029/4030</v>
+      </c>
+      <c r="L200" s="43" t="str">
+        <f>VLOOKUP(A200,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
+        <v>LYNN</v>
+      </c>
+      <c r="M200" s="11">
+        <f>I200-F200</f>
+        <v>1.7627314817218576E-2</v>
+      </c>
+      <c r="N200" s="12">
+        <f>24*60*SUM($M200:$M200)</f>
+        <v>25.383333336794749</v>
+      </c>
+      <c r="O200" s="12"/>
+      <c r="P200" s="12"/>
+      <c r="Q200" s="44"/>
+      <c r="R200" s="44"/>
+      <c r="S200" s="70">
+        <f>SUM(U200:U200)/12</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T200" s="2" t="str">
+        <f>IF(ISEVEN(LEFT(A200,3)),"Southbound","NorthBound")</f>
+        <v>NorthBound</v>
+      </c>
+      <c r="U200" s="2">
+        <f>COUNTIFS(Variables!$M$2:$M$19,IF(T200="NorthBound","&gt;=","&lt;=")&amp;Y200,Variables!$M$2:$M$19,IF(T200="NorthBound","&lt;=","&gt;=")&amp;Z200)</f>
+        <v>8</v>
+      </c>
+      <c r="V200" s="48" t="str">
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E200-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I200+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B200&amp;"%22')),sort:!(Time,asc))"</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 21:07:51-0600',mode:absolute,to:'2016-06-28 21:36:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="W200" s="48" t="str">
+        <f>IF(AA200&lt;5.5,"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="X200" s="48">
+        <f>VALUE(LEFT(A200,3))-VALUE(LEFT(A199,3))</f>
+        <v>1</v>
+      </c>
+      <c r="Y200" s="48">
+        <f>RIGHT(D200,LEN(D200)-4)/10000</f>
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="Z200" s="48">
+        <f>RIGHT(H200,LEN(H200)-4)/10000</f>
+        <v>5.8939000000000004</v>
+      </c>
+      <c r="AA200" s="48">
+        <f>ABS(Z200-Y200)</f>
+        <v>5.8603000000000005</v>
+      </c>
+      <c r="AB200" s="49" t="e">
+        <f>VLOOKUP(A200,Enforcements!$C$7:$J$32,8,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC200" s="49" t="e">
+        <f>VLOOKUP(A200,Enforcements!$C$7:$E$32,3,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="201" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B201" s="42"/>
-      <c r="C201" s="42"/>
-      <c r="D201" s="42"/>
-      <c r="J201" s="42"/>
+      <c r="A201" s="43" t="s">
+        <v>606</v>
+      </c>
+      <c r="B201" s="43">
+        <v>4029</v>
+      </c>
+      <c r="C201" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D201" s="43" t="s">
+        <v>607</v>
+      </c>
+      <c r="E201" s="25">
+        <v>42549.928148148145</v>
+      </c>
+      <c r="F201" s="25">
+        <v>42549.92895833333</v>
+      </c>
+      <c r="G201" s="25">
+        <v>1</v>
+      </c>
+      <c r="H201" s="25" t="s">
+        <v>608</v>
+      </c>
+      <c r="I201" s="25">
+        <v>42549.942604166667</v>
+      </c>
+      <c r="J201" s="43">
+        <v>1</v>
+      </c>
+      <c r="K201" s="43" t="str">
+        <f>IF(ISEVEN(B201),(B201-1)&amp;"/"&amp;B201,B201&amp;"/"&amp;(B201+1))</f>
+        <v>4029/4030</v>
+      </c>
+      <c r="L201" s="43" t="str">
+        <f>VLOOKUP(A201,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
+        <v>LYNN</v>
+      </c>
+      <c r="M201" s="11">
+        <f>I201-F201</f>
+        <v>1.3645833336340729E-2</v>
+      </c>
+      <c r="N201" s="12">
+        <f>24*60*SUM($M201:$M201)</f>
+        <v>19.65000000433065</v>
+      </c>
+      <c r="O201" s="12"/>
+      <c r="P201" s="12"/>
+      <c r="Q201" s="44"/>
+      <c r="R201" s="44"/>
+      <c r="S201" s="70">
+        <f>SUM(U201:U201)/12</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T201" s="2" t="str">
+        <f>IF(ISEVEN(LEFT(A201,3)),"Southbound","NorthBound")</f>
+        <v>NorthBound</v>
+      </c>
+      <c r="U201" s="2">
+        <f>COUNTIFS(Variables!$M$2:$M$19,IF(T201="NorthBound","&gt;=","&lt;=")&amp;Y201,Variables!$M$2:$M$19,IF(T201="NorthBound","&lt;=","&gt;=")&amp;Z201)</f>
+        <v>8</v>
+      </c>
+      <c r="V201" s="48" t="str">
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E201-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I201+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B201&amp;"%22')),sort:!(Time,asc))"</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 22:15:32-0600',mode:absolute,to:'2016-06-28 22:38:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="W201" s="48" t="str">
+        <f>IF(AA201&lt;23,"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="X201" s="48">
+        <f>VALUE(LEFT(A201,3))-VALUE(LEFT(A200,3))</f>
+        <v>2</v>
+      </c>
+      <c r="Y201" s="48">
+        <f>RIGHT(D201,LEN(D201)-4)/10000</f>
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="Z201" s="48">
+        <f>RIGHT(H201,LEN(H201)-4)/10000</f>
+        <v>5.8905000000000003</v>
+      </c>
+      <c r="AA201" s="48">
+        <f>ABS(Z201-Y201)</f>
+        <v>5.8542000000000005</v>
+      </c>
+      <c r="AB201" s="49" t="e">
+        <f>VLOOKUP(A201,Enforcements!$C$7:$J$32,8,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC201" s="49" t="e">
+        <f>VLOOKUP(A201,Enforcements!$C$7:$E$32,3,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="202" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B202" s="42"/>
-      <c r="C202" s="42"/>
-      <c r="D202" s="42"/>
-      <c r="J202" s="42"/>
+      <c r="A202" s="81" t="s">
+        <v>606</v>
+      </c>
+      <c r="B202" s="86">
+        <v>4029</v>
+      </c>
+      <c r="C202" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="D202" s="66" t="s">
+        <v>607</v>
+      </c>
+      <c r="E202" s="78">
+        <v>42549.928148148145</v>
+      </c>
+      <c r="F202" s="25">
+        <v>42549.92895833333</v>
+      </c>
+      <c r="G202" s="25">
+        <v>1</v>
+      </c>
+      <c r="H202" s="25" t="s">
+        <v>608</v>
+      </c>
+      <c r="I202" s="25">
+        <v>42549.942604166667</v>
+      </c>
+      <c r="J202" s="43">
+        <v>1</v>
+      </c>
+      <c r="K202" s="43" t="str">
+        <f>IF(ISEVEN(B202),(B202-1)&amp;"/"&amp;B202,B202&amp;"/"&amp;(B202+1))</f>
+        <v>4029/4030</v>
+      </c>
+      <c r="L202" s="43" t="str">
+        <f>VLOOKUP(A202,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
+        <v>LYNN</v>
+      </c>
+      <c r="M202" s="11">
+        <f>I202-F202</f>
+        <v>1.3645833336340729E-2</v>
+      </c>
+      <c r="N202" s="12">
+        <f>24*60*SUM($M202:$M202)</f>
+        <v>19.65000000433065</v>
+      </c>
+      <c r="O202" s="12"/>
+      <c r="P202" s="12"/>
+      <c r="Q202" s="44"/>
+      <c r="R202" s="44"/>
+      <c r="S202" s="70">
+        <f>SUM(U202:U202)/12</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T202" s="2" t="str">
+        <f>IF(ISEVEN(LEFT(A202,3)),"Southbound","NorthBound")</f>
+        <v>NorthBound</v>
+      </c>
+      <c r="U202" s="2">
+        <f>COUNTIFS(Variables!$M$2:$M$19,IF(T202="NorthBound","&gt;=","&lt;=")&amp;Y202,Variables!$M$2:$M$19,IF(T202="NorthBound","&lt;=","&gt;=")&amp;Z202)</f>
+        <v>8</v>
+      </c>
+      <c r="V202" s="48" t="str">
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E202-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I202+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B202&amp;"%22')),sort:!(Time,asc))"</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 22:15:32-0600',mode:absolute,to:'2016-06-28 22:38:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="W202" s="48" t="str">
+        <f>IF(AA202&lt;5.5,"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="X202" s="48">
+        <f>VALUE(LEFT(A202,3))-VALUE(LEFT(A201,3))</f>
+        <v>0</v>
+      </c>
+      <c r="Y202" s="48">
+        <f>RIGHT(D202,LEN(D202)-4)/10000</f>
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="Z202" s="48">
+        <f>RIGHT(H202,LEN(H202)-4)/10000</f>
+        <v>5.8905000000000003</v>
+      </c>
+      <c r="AA202" s="48">
+        <f>ABS(Z202-Y202)</f>
+        <v>5.8542000000000005</v>
+      </c>
+      <c r="AB202" s="49" t="e">
+        <f>VLOOKUP(A202,Enforcements!$C$7:$J$32,8,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC202" s="49" t="e">
+        <f>VLOOKUP(A202,Enforcements!$C$7:$E$32,3,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="203" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B203" s="42"/>
-      <c r="C203" s="42"/>
-      <c r="D203" s="42"/>
-      <c r="J203" s="42"/>
+      <c r="A203" s="81" t="s">
+        <v>609</v>
+      </c>
+      <c r="B203" s="86">
+        <v>4039</v>
+      </c>
+      <c r="C203" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="D203" s="66" t="s">
+        <v>550</v>
+      </c>
+      <c r="E203" s="78">
+        <v>42549.79546296296</v>
+      </c>
+      <c r="F203" s="25">
+        <v>42549.796539351853</v>
+      </c>
+      <c r="G203" s="25">
+        <v>1</v>
+      </c>
+      <c r="H203" s="25" t="s">
+        <v>610</v>
+      </c>
+      <c r="I203" s="25">
+        <v>42549.80673611111</v>
+      </c>
+      <c r="J203" s="43">
+        <v>0</v>
+      </c>
+      <c r="K203" s="43" t="str">
+        <f>IF(ISEVEN(B203),(B203-1)&amp;"/"&amp;B203,B203&amp;"/"&amp;(B203+1))</f>
+        <v>4039/4040</v>
+      </c>
+      <c r="L203" s="43" t="str">
+        <f>VLOOKUP(A203,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
+        <v>DE LA ROSA</v>
+      </c>
+      <c r="M203" s="11">
+        <f>I203-F203</f>
+        <v>1.0196759256359655E-2</v>
+      </c>
+      <c r="N203" s="12">
+        <f>24*60*SUM($M203:$M203)</f>
+        <v>14.683333329157904</v>
+      </c>
+      <c r="O203" s="12"/>
+      <c r="P203" s="12"/>
+      <c r="Q203" s="44"/>
+      <c r="R203" s="44"/>
+      <c r="S203" s="70">
+        <f>SUM(U203:U203)/12</f>
+        <v>0.5</v>
+      </c>
+      <c r="T203" s="2" t="str">
+        <f>IF(ISEVEN(LEFT(A203,3)),"Southbound","NorthBound")</f>
+        <v>Southbound</v>
+      </c>
+      <c r="U203" s="2">
+        <f>COUNTIFS(Variables!$M$2:$M$19,IF(T203="NorthBound","&gt;=","&lt;=")&amp;Y203,Variables!$M$2:$M$19,IF(T203="NorthBound","&lt;=","&gt;=")&amp;Z203)</f>
+        <v>6</v>
+      </c>
+      <c r="V203" s="48" t="str">
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E203-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I203+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B203&amp;"%22')),sort:!(Time,asc))"</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 19:04:28-0600',mode:absolute,to:'2016-06-28 19:22:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="W203" s="48" t="str">
+        <f>IF(AA203&lt;5.5,"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="X203" s="48">
+        <f>VALUE(LEFT(A203,3))-VALUE(LEFT(A202,3))</f>
+        <v>59</v>
+      </c>
+      <c r="Y203" s="48">
+        <f>RIGHT(D203,LEN(D203)-4)/10000</f>
+        <v>5.8586999999999998</v>
+      </c>
+      <c r="Z203" s="48">
+        <f>RIGHT(H203,LEN(H203)-4)/10000</f>
+        <v>2.8822000000000001</v>
+      </c>
+      <c r="AA203" s="48">
+        <f>ABS(Z203-Y203)</f>
+        <v>2.9764999999999997</v>
+      </c>
+      <c r="AB203" s="49" t="e">
+        <f>VLOOKUP(A203,Enforcements!$C$7:$J$32,8,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC203" s="49" t="e">
+        <f>VLOOKUP(A203,Enforcements!$C$7:$E$32,3,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="204" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B204" s="42"/>
-      <c r="C204" s="42"/>
-      <c r="D204" s="42"/>
-      <c r="J204" s="42"/>
+      <c r="A204" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="B204" s="43">
+        <v>4030</v>
+      </c>
+      <c r="C204" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D204" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="E204" s="25">
+        <v>42549.943402777775</v>
+      </c>
+      <c r="F204" s="25">
+        <v>42549.944537037038</v>
+      </c>
+      <c r="G204" s="25">
+        <v>1</v>
+      </c>
+      <c r="H204" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="I204" s="25">
+        <v>42549.95239583333</v>
+      </c>
+      <c r="J204" s="43">
+        <v>0</v>
+      </c>
+      <c r="K204" s="43" t="str">
+        <f>IF(ISEVEN(B204),(B204-1)&amp;"/"&amp;B204,B204&amp;"/"&amp;(B204+1))</f>
+        <v>4029/4030</v>
+      </c>
+      <c r="L204" s="43" t="str">
+        <f>VLOOKUP(A204,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
+        <v>STORY</v>
+      </c>
+      <c r="M204" s="11">
+        <f>I204-F204</f>
+        <v>7.8587962925666943E-3</v>
+      </c>
+      <c r="N204" s="12">
+        <f>24*60*SUM($M204:$M204)</f>
+        <v>11.31666666129604</v>
+      </c>
+      <c r="O204" s="12"/>
+      <c r="P204" s="12"/>
+      <c r="Q204" s="44"/>
+      <c r="R204" s="44"/>
+      <c r="S204" s="70">
+        <f>SUM(U204:U204)/12</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="T204" s="2" t="str">
+        <f>IF(ISEVEN(LEFT(A204,3)),"Southbound","NorthBound")</f>
+        <v>Southbound</v>
+      </c>
+      <c r="U204" s="2">
+        <f>COUNTIFS(Variables!$M$2:$M$19,IF(T204="NorthBound","&gt;=","&lt;=")&amp;Y204,Variables!$M$2:$M$19,IF(T204="NorthBound","&lt;=","&gt;=")&amp;Z204)</f>
+        <v>7</v>
+      </c>
+      <c r="V204" s="48" t="str">
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E204-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I204+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B204&amp;"%22')),sort:!(Time,asc))"</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 22:37:30-0600',mode:absolute,to:'2016-06-28 22:52:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="W204" s="48" t="str">
+        <f>IF(AA204&lt;23,"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="X204" s="48">
+        <f>VALUE(LEFT(A204,3))-VALUE(LEFT(A203,3))</f>
+        <v>2</v>
+      </c>
+      <c r="Y204" s="48">
+        <f>RIGHT(D204,LEN(D204)-4)/10000</f>
+        <v>5.8589000000000002</v>
+      </c>
+      <c r="Z204" s="48">
+        <f>RIGHT(H204,LEN(H204)-4)/10000</f>
+        <v>2.1629</v>
+      </c>
+      <c r="AA204" s="48">
+        <f>ABS(Z204-Y204)</f>
+        <v>3.6960000000000002</v>
+      </c>
+      <c r="AB204" s="49" t="e">
+        <f>VLOOKUP(A204,Enforcements!$C$7:$J$32,8,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC204" s="49" t="e">
+        <f>VLOOKUP(A204,Enforcements!$C$7:$E$32,3,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="205" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B205" s="42"/>
-      <c r="C205" s="42"/>
-      <c r="D205" s="42"/>
-      <c r="J205" s="42"/>
+      <c r="A205" s="81" t="s">
+        <v>611</v>
+      </c>
+      <c r="B205" s="86">
+        <v>4030</v>
+      </c>
+      <c r="C205" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="D205" s="66" t="s">
+        <v>556</v>
+      </c>
+      <c r="E205" s="78">
+        <v>42549.943402777775</v>
+      </c>
+      <c r="F205" s="25">
+        <v>42549.944537037038</v>
+      </c>
+      <c r="G205" s="25">
+        <v>1</v>
+      </c>
+      <c r="H205" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="I205" s="25">
+        <v>42549.95239583333</v>
+      </c>
+      <c r="J205" s="43">
+        <v>0</v>
+      </c>
+      <c r="K205" s="43" t="str">
+        <f>IF(ISEVEN(B205),(B205-1)&amp;"/"&amp;B205,B205&amp;"/"&amp;(B205+1))</f>
+        <v>4029/4030</v>
+      </c>
+      <c r="L205" s="43" t="str">
+        <f>VLOOKUP(A205,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
+        <v>STORY</v>
+      </c>
+      <c r="M205" s="11">
+        <f>I205-F205</f>
+        <v>7.8587962925666943E-3</v>
+      </c>
+      <c r="N205" s="12">
+        <f>24*60*SUM($M205:$M205)</f>
+        <v>11.31666666129604</v>
+      </c>
+      <c r="O205" s="12"/>
+      <c r="P205" s="12"/>
+      <c r="Q205" s="44"/>
+      <c r="R205" s="44"/>
+      <c r="S205" s="70">
+        <f>SUM(U205:U205)/12</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="T205" s="2" t="str">
+        <f>IF(ISEVEN(LEFT(A205,3)),"Southbound","NorthBound")</f>
+        <v>Southbound</v>
+      </c>
+      <c r="U205" s="2">
+        <f>COUNTIFS(Variables!$M$2:$M$19,IF(T205="NorthBound","&gt;=","&lt;=")&amp;Y205,Variables!$M$2:$M$19,IF(T205="NorthBound","&lt;=","&gt;=")&amp;Z205)</f>
+        <v>7</v>
+      </c>
+      <c r="V205" s="48" t="str">
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E205-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I205+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B205&amp;"%22')),sort:!(Time,asc))"</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 22:37:30-0600',mode:absolute,to:'2016-06-28 22:52:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="W205" s="48" t="str">
+        <f>IF(AA205&lt;5.5,"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="X205" s="48">
+        <f>VALUE(LEFT(A205,3))-VALUE(LEFT(A204,3))</f>
+        <v>0</v>
+      </c>
+      <c r="Y205" s="48">
+        <f>RIGHT(D205,LEN(D205)-4)/10000</f>
+        <v>5.8589000000000002</v>
+      </c>
+      <c r="Z205" s="48">
+        <f>RIGHT(H205,LEN(H205)-4)/10000</f>
+        <v>2.1629</v>
+      </c>
+      <c r="AA205" s="48">
+        <f>ABS(Z205-Y205)</f>
+        <v>3.6960000000000002</v>
+      </c>
+      <c r="AB205" s="49" t="e">
+        <f>VLOOKUP(A205,Enforcements!$C$7:$J$32,8,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC205" s="49" t="e">
+        <f>VLOOKUP(A205,Enforcements!$C$7:$E$32,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B206" s="42"/>
+      <c r="C206" s="42"/>
+      <c r="D206" s="42"/>
+      <c r="J206" s="42"/>
+    </row>
+    <row r="207" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B207" s="42"/>
+      <c r="C207" s="42"/>
+      <c r="D207" s="42"/>
+      <c r="J207" s="42"/>
+    </row>
+    <row r="208" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B208" s="42"/>
+      <c r="C208" s="42"/>
+      <c r="D208" s="42"/>
+      <c r="J208" s="42"/>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B209" s="42"/>
+      <c r="C209" s="42"/>
+      <c r="D209" s="42"/>
+      <c r="J209" s="42"/>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B210" s="42"/>
+      <c r="C210" s="42"/>
+      <c r="D210" s="42"/>
+      <c r="J210" s="42"/>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B211" s="42"/>
+      <c r="C211" s="42"/>
+      <c r="D211" s="42"/>
+      <c r="J211" s="42"/>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B212" s="42"/>
+      <c r="C212" s="42"/>
+      <c r="D212" s="42"/>
+      <c r="J212" s="42"/>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B213" s="42"/>
+      <c r="C213" s="42"/>
+      <c r="D213" s="42"/>
+      <c r="J213" s="42"/>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B214" s="42"/>
+      <c r="C214" s="42"/>
+      <c r="D214" s="42"/>
+      <c r="J214" s="42"/>
     </row>
   </sheetData>
-  <autoFilter ref="A12:AC155">
+  <autoFilter ref="A12:AC164">
     <sortState ref="A13:AC196">
       <sortCondition ref="A12:A155"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A14:AC147">
-    <sortCondition ref="A14:A147"/>
-    <sortCondition ref="F14:F147"/>
+  <sortState ref="A13:AC209">
+    <sortCondition ref="A13:A209"/>
+    <sortCondition ref="F13:F209"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="A11:P11"/>
@@ -21642,37 +22313,37 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="W11:W12 W13:X1048576">
-    <cfRule type="cellIs" dxfId="48" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="72" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13:X1048576">
-    <cfRule type="cellIs" dxfId="47" priority="55" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="55" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12:X1048576">
-    <cfRule type="cellIs" dxfId="46" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:J13 L13:M13 F155:S196 A14:M147 N13:S147 A148:S154">
-    <cfRule type="expression" dxfId="45" priority="48">
+  <conditionalFormatting sqref="A13:J13 L13:M13 F164:S205 A157:S163 A14:M156 N13:S156">
+    <cfRule type="expression" dxfId="11" priority="48">
       <formula>$O13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:J13 L13:M13 F155:S196 A14:M147 N13:S147 A148:S154">
-    <cfRule type="expression" dxfId="44" priority="47">
+  <conditionalFormatting sqref="A13:J13 L13:M13 F164:S205 A157:S163 A14:M156 N13:S156">
+    <cfRule type="expression" dxfId="10" priority="47">
       <formula>$P13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="43" priority="3">
+    <cfRule type="expression" dxfId="26" priority="3">
       <formula>$O13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="42" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>$P13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21692,7 +22363,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A13:J13 L13:M13 F155:S196 A14:M147 N13:S147 A148:S154</xm:sqref>
+          <xm:sqref>A13:J13 L13:M13 F164:S205 A157:S163 A14:M156 N13:S156</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{B1FEFFDD-B469-4D8E-B2ED-CFD893628599}">
@@ -21717,7 +22388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q113"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
@@ -21882,11 +22553,11 @@
       </c>
       <c r="N7" s="16"/>
       <c r="P7" s="54" t="str">
-        <f>VLOOKUP(C7,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C7,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 14:56:13-0600',mode:absolute,to:'2016-06-28 15:01:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q7" s="14" t="str">
-        <f>MID(B7,13,4)</f>
+        <f t="shared" ref="Q7:Q38" si="0">MID(B7,13,4)</f>
         <v>4042</v>
       </c>
     </row>
@@ -21933,11 +22604,11 @@
       </c>
       <c r="N8" s="16"/>
       <c r="P8" s="54" t="e">
-        <f>VLOOKUP(C8,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C8,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q8" s="14" t="str">
-        <f>MID(B8,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4012</v>
       </c>
     </row>
@@ -21984,11 +22655,11 @@
       </c>
       <c r="N9" s="16"/>
       <c r="P9" s="54" t="str">
-        <f>VLOOKUP(C9,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C9,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 11:25:09-0600',mode:absolute,to:'2016-06-28 11:45:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q9" s="14" t="str">
-        <f>MID(B9,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4042</v>
       </c>
     </row>
@@ -22035,11 +22706,11 @@
       </c>
       <c r="N10" s="16"/>
       <c r="P10" s="54" t="str">
-        <f>VLOOKUP(C10,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C10,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 14:09:50-0600',mode:absolute,to:'2016-06-28 14:54:04-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q10" s="14" t="str">
-        <f>MID(B10,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4018</v>
       </c>
     </row>
@@ -22086,11 +22757,11 @@
       </c>
       <c r="N11" s="16"/>
       <c r="P11" s="54" t="str">
-        <f>VLOOKUP(C11,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C11,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 15:53:44-0600',mode:absolute,to:'2016-06-28 16:50:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q11" s="14" t="str">
-        <f>MID(B11,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4018</v>
       </c>
     </row>
@@ -22137,11 +22808,11 @@
       </c>
       <c r="N12" s="16"/>
       <c r="P12" s="54" t="str">
-        <f>VLOOKUP(C12,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C12,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 16:52:47-0600',mode:absolute,to:'2016-06-28 17:37:50-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q12" s="14" t="str">
-        <f>MID(B12,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4017</v>
       </c>
     </row>
@@ -22188,11 +22859,11 @@
       </c>
       <c r="N13" s="16"/>
       <c r="P13" s="54" t="str">
-        <f>VLOOKUP(C13,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C13,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 16:49:04-0600',mode:absolute,to:'2016-06-28 18:43:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q13" s="14" t="str">
-        <f>MID(B13,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4031</v>
       </c>
     </row>
@@ -22239,11 +22910,11 @@
       </c>
       <c r="N14" s="16"/>
       <c r="P14" s="54" t="str">
-        <f>VLOOKUP(C14,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C14,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 16:49:04-0600',mode:absolute,to:'2016-06-28 18:43:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q14" s="14" t="str">
-        <f>MID(B14,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4031</v>
       </c>
     </row>
@@ -22290,11 +22961,11 @@
       </c>
       <c r="N15" s="66"/>
       <c r="P15" s="54" t="str">
-        <f>VLOOKUP(C15,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C15,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 16:49:04-0600',mode:absolute,to:'2016-06-28 18:43:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q15" s="14" t="str">
-        <f>MID(B15,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4031</v>
       </c>
     </row>
@@ -22341,11 +23012,11 @@
       </c>
       <c r="N16" s="66"/>
       <c r="P16" s="54" t="str">
-        <f>VLOOKUP(C16,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C16,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 18:24:17-0600',mode:absolute,to:'2016-06-28 19:14:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q16" s="14" t="str">
-        <f>MID(B16,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4023</v>
       </c>
     </row>
@@ -22392,11 +23063,11 @@
       </c>
       <c r="N17" s="66"/>
       <c r="P17" s="54" t="str">
-        <f>VLOOKUP(C17,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C17,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 22:26:37-0600',mode:absolute,to:'2016-06-28 23:12:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q17" s="14" t="str">
-        <f>MID(B17,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4027</v>
       </c>
     </row>
@@ -22443,11 +23114,11 @@
       </c>
       <c r="N18" s="16"/>
       <c r="P18" s="54" t="str">
-        <f>VLOOKUP(C18,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C18,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 09:18:45-0600',mode:absolute,to:'2016-06-28 10:07:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q18" s="14" t="str">
-        <f>MID(B18,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4025</v>
       </c>
     </row>
@@ -22494,11 +23165,11 @@
       </c>
       <c r="N19" s="16"/>
       <c r="P19" s="54" t="str">
-        <f>VLOOKUP(C19,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C19,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 12:48:55-0600',mode:absolute,to:'2016-06-28 13:36:26-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q19" s="14" t="str">
-        <f>MID(B19,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4019</v>
       </c>
     </row>
@@ -22545,11 +23216,11 @@
       </c>
       <c r="N20" s="16"/>
       <c r="P20" s="54" t="str">
-        <f>VLOOKUP(C20,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C20,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 13:14:58-0600',mode:absolute,to:'2016-06-28 14:05:31-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q20" s="14" t="str">
-        <f>MID(B20,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4028</v>
       </c>
     </row>
@@ -22596,11 +23267,11 @@
       </c>
       <c r="N21" s="16"/>
       <c r="P21" s="54" t="str">
-        <f>VLOOKUP(C21,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C21,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 15:46:37-0600',mode:absolute,to:'2016-06-28 16:33:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q21" s="14" t="str">
-        <f>MID(B21,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4024</v>
       </c>
     </row>
@@ -22647,11 +23318,11 @@
       </c>
       <c r="N22" s="16"/>
       <c r="P22" s="54" t="str">
-        <f>VLOOKUP(C22,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C22,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 15:53:44-0600',mode:absolute,to:'2016-06-28 16:50:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q22" s="14" t="str">
-        <f>MID(B22,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4018</v>
       </c>
     </row>
@@ -22698,11 +23369,11 @@
       </c>
       <c r="N23" s="66"/>
       <c r="P23" s="54" t="str">
-        <f>VLOOKUP(C23,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C23,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 18:10:25-0600',mode:absolute,to:'2016-06-28 18:55:37-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q23" s="14" t="str">
-        <f>MID(B23,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4025</v>
       </c>
     </row>
@@ -22749,11 +23420,11 @@
       </c>
       <c r="N24" s="66"/>
       <c r="P24" s="54" t="str">
-        <f>VLOOKUP(C24,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C24,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 19:04:45-0600',mode:absolute,to:'2016-06-28 19:38:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q24" s="14" t="str">
-        <f>MID(B24,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4026</v>
       </c>
     </row>
@@ -22800,11 +23471,11 @@
       </c>
       <c r="N25" s="16"/>
       <c r="P25" s="54" t="str">
-        <f>VLOOKUP(C25,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C25,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 10:30:53-0600',mode:absolute,to:'2016-06-28 11:21:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q25" s="14" t="str">
-        <f>MID(B25,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4041</v>
       </c>
     </row>
@@ -22851,11 +23522,11 @@
       </c>
       <c r="N26" s="16"/>
       <c r="P26" s="54" t="str">
-        <f>VLOOKUP(C26,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C26,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 16:49:04-0600',mode:absolute,to:'2016-06-28 18:43:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q26" s="14" t="str">
-        <f>MID(B26,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4031</v>
       </c>
     </row>
@@ -22902,11 +23573,11 @@
       </c>
       <c r="N27" s="66"/>
       <c r="P27" s="54" t="str">
-        <f>VLOOKUP(C27,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C27,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 22:19:47-0600',mode:absolute,to:'2016-06-28 23:04:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q27" s="14" t="str">
-        <f>MID(B27,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4017</v>
       </c>
     </row>
@@ -22953,11 +23624,11 @@
       </c>
       <c r="N28" s="16"/>
       <c r="P28" s="54" t="str">
-        <f>VLOOKUP(C28,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C28,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 11:27:20-0600',mode:absolute,to:'2016-06-28 12:20:25-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q28" s="14" t="str">
-        <f>MID(B28,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4028</v>
       </c>
     </row>
@@ -23004,11 +23675,11 @@
       </c>
       <c r="N29" s="16"/>
       <c r="P29" s="54" t="str">
-        <f>VLOOKUP(C29,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C29,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 06:03:37-0600',mode:absolute,to:'2016-06-28 06:53:50-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q29" s="14" t="str">
-        <f>MID(B29,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4012</v>
       </c>
     </row>
@@ -23055,11 +23726,11 @@
       </c>
       <c r="N30" s="16"/>
       <c r="P30" s="54" t="str">
-        <f>VLOOKUP(C30,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C30,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 06:36:20-0600',mode:absolute,to:'2016-06-28 07:21:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q30" s="14" t="str">
-        <f>MID(B30,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4043</v>
       </c>
     </row>
@@ -23106,11 +23777,11 @@
       </c>
       <c r="N31" s="16"/>
       <c r="P31" s="54" t="str">
-        <f>VLOOKUP(C31,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C31,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 06:36:20-0600',mode:absolute,to:'2016-06-28 07:21:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q31" s="14" t="str">
-        <f>MID(B31,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4043</v>
       </c>
     </row>
@@ -23157,11 +23828,11 @@
       </c>
       <c r="N32" s="16"/>
       <c r="P32" s="54" t="str">
-        <f>VLOOKUP(C32,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C32,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 07:33:45-0600',mode:absolute,to:'2016-06-28 08:19:50-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q32" s="14" t="str">
-        <f>MID(B32,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4019</v>
       </c>
     </row>
@@ -23209,11 +23880,11 @@
       <c r="N33" s="16"/>
       <c r="O33" s="2"/>
       <c r="P33" s="54" t="str">
-        <f>VLOOKUP(C33,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C33,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 06:53:57-0600',mode:absolute,to:'2016-06-28 07:38:19-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q33" s="14" t="str">
-        <f>MID(B33,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4011</v>
       </c>
     </row>
@@ -23261,11 +23932,11 @@
       <c r="N34" s="16"/>
       <c r="O34" s="2"/>
       <c r="P34" s="54" t="str">
-        <f>VLOOKUP(C34,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C34,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 07:22:51-0600',mode:absolute,to:'2016-06-28 08:07:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q34" s="14" t="str">
-        <f>MID(B34,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4044</v>
       </c>
     </row>
@@ -23313,11 +23984,11 @@
       <c r="N35" s="16"/>
       <c r="O35" s="2"/>
       <c r="P35" s="54" t="str">
-        <f>VLOOKUP(C35,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C35,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 08:37:05-0600',mode:absolute,to:'2016-06-28 09:25:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q35" s="14" t="str">
-        <f>MID(B35,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4011</v>
       </c>
     </row>
@@ -23365,11 +24036,11 @@
       <c r="N36" s="16"/>
       <c r="O36" s="2"/>
       <c r="P36" s="54" t="str">
-        <f>VLOOKUP(C36,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C36,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 10:46:21-0600',mode:absolute,to:'2016-06-28 11:35:54-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q36" s="14" t="str">
-        <f>MID(B36,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4017</v>
       </c>
     </row>
@@ -23417,11 +24088,11 @@
       <c r="N37" s="16"/>
       <c r="O37" s="2"/>
       <c r="P37" s="54" t="str">
-        <f>VLOOKUP(C37,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C37,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 11:09:24-0600',mode:absolute,to:'2016-06-28 11:53:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q37" s="14" t="str">
-        <f>MID(B37,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4025</v>
       </c>
     </row>
@@ -23469,11 +24140,11 @@
       <c r="N38" s="16"/>
       <c r="O38" s="2"/>
       <c r="P38" s="54" t="str">
-        <f>VLOOKUP(C38,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C38,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 12:37:03-0600',mode:absolute,to:'2016-06-28 13:25:46-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q38" s="14" t="str">
-        <f>MID(B38,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4017</v>
       </c>
     </row>
@@ -23521,11 +24192,11 @@
       <c r="N39" s="16"/>
       <c r="O39" s="2"/>
       <c r="P39" s="54" t="str">
-        <f>VLOOKUP(C39,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C39,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 12:48:55-0600',mode:absolute,to:'2016-06-28 13:36:26-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q39" s="14" t="str">
-        <f>MID(B39,13,4)</f>
+        <f t="shared" ref="Q39:Q70" si="1">MID(B39,13,4)</f>
         <v>4019</v>
       </c>
     </row>
@@ -23573,11 +24244,11 @@
       <c r="N40" s="16"/>
       <c r="O40" s="2"/>
       <c r="P40" s="54" t="str">
-        <f>VLOOKUP(C40,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C40,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 12:58:30-0600',mode:absolute,to:'2016-06-28 13:38:31-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q40" s="14" t="str">
-        <f>MID(B40,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4025</v>
       </c>
     </row>
@@ -23625,11 +24296,11 @@
       <c r="N41" s="16"/>
       <c r="O41" s="2"/>
       <c r="P41" s="54" t="str">
-        <f>VLOOKUP(C41,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C41,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 13:28:37-0600',mode:absolute,to:'2016-06-28 14:11:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q41" s="14" t="str">
-        <f>MID(B41,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4011</v>
       </c>
     </row>
@@ -23677,11 +24348,11 @@
       <c r="N42" s="16"/>
       <c r="O42" s="2"/>
       <c r="P42" s="54" t="str">
-        <f>VLOOKUP(C42,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C42,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 13:55:13-0600',mode:absolute,to:'2016-06-28 14:48:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q42" s="14" t="str">
-        <f>MID(B42,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4024</v>
       </c>
     </row>
@@ -23729,11 +24400,11 @@
       <c r="N43" s="16"/>
       <c r="O43" s="2"/>
       <c r="P43" s="54" t="str">
-        <f>VLOOKUP(C43,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C43,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 15:37:36-0600',mode:absolute,to:'2016-06-28 16:26:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q43" s="14" t="str">
-        <f>MID(B43,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4026</v>
       </c>
     </row>
@@ -23781,11 +24452,11 @@
       <c r="N44" s="16"/>
       <c r="O44" s="2"/>
       <c r="P44" s="54" t="str">
-        <f>VLOOKUP(C44,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C44,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 16:18:55-0600',mode:absolute,to:'2016-06-28 17:15:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q44" s="14" t="str">
-        <f>MID(B44,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4019</v>
       </c>
     </row>
@@ -23833,11 +24504,11 @@
       <c r="N45" s="16"/>
       <c r="O45" s="2"/>
       <c r="P45" s="54" t="str">
-        <f>VLOOKUP(C45,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C45,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 15:46:37-0600',mode:absolute,to:'2016-06-28 16:33:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q45" s="14" t="str">
-        <f>MID(B45,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4024</v>
       </c>
     </row>
@@ -23885,11 +24556,11 @@
       <c r="N46" s="16"/>
       <c r="O46" s="2"/>
       <c r="P46" s="54" t="str">
-        <f>VLOOKUP(C46,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C46,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 17:03:58-0600',mode:absolute,to:'2016-06-28 17:55:57-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q46" s="14" t="str">
-        <f>MID(B46,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4043</v>
       </c>
     </row>
@@ -23937,11 +24608,11 @@
       <c r="N47" s="16"/>
       <c r="O47" s="2"/>
       <c r="P47" s="54" t="str">
-        <f>VLOOKUP(C47,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C47,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 17:29:49-0600',mode:absolute,to:'2016-06-28 18:19:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q47" s="14" t="str">
-        <f>MID(B47,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4024</v>
       </c>
     </row>
@@ -23989,11 +24660,11 @@
       <c r="N48" s="66"/>
       <c r="O48" s="2"/>
       <c r="P48" s="54" t="str">
-        <f>VLOOKUP(C48,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C48,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 21:43:23-0600',mode:absolute,to:'2016-06-28 22:36:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q48" s="14" t="str">
-        <f>MID(B48,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4019</v>
       </c>
     </row>
@@ -24041,11 +24712,11 @@
       <c r="N49" s="16"/>
       <c r="O49" s="2"/>
       <c r="P49" s="54" t="str">
-        <f>VLOOKUP(C49,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C49,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 06:18:44-0600',mode:absolute,to:'2016-06-28 06:40:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q49" s="14" t="str">
-        <f>MID(B49,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4029</v>
       </c>
     </row>
@@ -24093,11 +24764,11 @@
       <c r="N50" s="16"/>
       <c r="O50" s="2"/>
       <c r="P50" s="54" t="e">
-        <f>VLOOKUP(C50,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C50,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q50" s="14" t="str">
-        <f>MID(B50,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4029</v>
       </c>
     </row>
@@ -24145,11 +24816,11 @@
       <c r="N51" s="16"/>
       <c r="O51" s="2"/>
       <c r="P51" s="54" t="e">
-        <f>VLOOKUP(C51,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C51,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q51" s="14" t="str">
-        <f>MID(B51,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4029</v>
       </c>
     </row>
@@ -24197,11 +24868,11 @@
       <c r="N52" s="16"/>
       <c r="O52" s="2"/>
       <c r="P52" s="54" t="e">
-        <f>VLOOKUP(C52,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C52,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q52" s="14" t="str">
-        <f>MID(B52,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4029</v>
       </c>
     </row>
@@ -24249,11 +24920,11 @@
       <c r="N53" s="16"/>
       <c r="O53" s="2"/>
       <c r="P53" s="54" t="e">
-        <f>VLOOKUP(C53,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C53,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q53" s="14" t="str">
-        <f>MID(B53,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4039</v>
       </c>
     </row>
@@ -24301,11 +24972,11 @@
       <c r="N54" s="16"/>
       <c r="O54" s="2"/>
       <c r="P54" s="54" t="e">
-        <f>VLOOKUP(C54,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C54,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q54" s="14" t="str">
-        <f>MID(B54,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4040</v>
       </c>
     </row>
@@ -24353,11 +25024,11 @@
       <c r="N55" s="16"/>
       <c r="O55" s="2"/>
       <c r="P55" s="54" t="e">
-        <f>VLOOKUP(C55,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C55,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q55" s="14" t="str">
-        <f>MID(B55,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4039</v>
       </c>
     </row>
@@ -24405,11 +25076,11 @@
       <c r="N56" s="66"/>
       <c r="O56" s="42"/>
       <c r="P56" s="54" t="e">
-        <f>VLOOKUP(C56,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C56,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q56" s="14" t="str">
-        <f>MID(B56,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4029</v>
       </c>
     </row>
@@ -24457,11 +25128,11 @@
       <c r="N57" s="66"/>
       <c r="O57" s="42"/>
       <c r="P57" s="54" t="e">
-        <f>VLOOKUP(C57,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C57,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q57" s="14" t="str">
-        <f>MID(B57,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4029</v>
       </c>
     </row>
@@ -24509,11 +25180,11 @@
       <c r="N58" s="15"/>
       <c r="O58" s="42"/>
       <c r="P58" s="54" t="e">
-        <f>VLOOKUP(C58,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C58,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q58" s="14" t="str">
-        <f>MID(B58,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4030</v>
       </c>
     </row>
@@ -24561,11 +25232,11 @@
       <c r="N59" s="15"/>
       <c r="O59" s="42"/>
       <c r="P59" s="54" t="e">
-        <f>VLOOKUP(C59,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C59,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q59" s="14" t="str">
-        <f>MID(B59,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4030</v>
       </c>
     </row>
@@ -24613,11 +25284,11 @@
       <c r="N60" s="16"/>
       <c r="O60" s="2"/>
       <c r="P60" s="54" t="str">
-        <f>VLOOKUP(C60,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C60,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 07:04:35-0600',mode:absolute,to:'2016-06-28 07:26:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q60" s="14" t="str">
-        <f>MID(B60,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4039</v>
       </c>
     </row>
@@ -24665,11 +25336,11 @@
       <c r="N61" s="16"/>
       <c r="O61" s="2"/>
       <c r="P61" s="54" t="e">
-        <f>VLOOKUP(C61,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C61,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q61" s="14" t="str">
-        <f>MID(B61,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4039</v>
       </c>
     </row>
@@ -24717,11 +25388,11 @@
       <c r="N62" s="16"/>
       <c r="O62" s="2"/>
       <c r="P62" s="54" t="e">
-        <f>VLOOKUP(C62,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C62,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q62" s="14" t="str">
-        <f>MID(B62,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4029</v>
       </c>
     </row>
@@ -24769,11 +25440,11 @@
       <c r="N63" s="16"/>
       <c r="O63" s="2"/>
       <c r="P63" s="54" t="e">
-        <f>VLOOKUP(C63,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C63,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q63" s="14" t="str">
-        <f>MID(B63,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4029</v>
       </c>
     </row>
@@ -24821,11 +25492,11 @@
       <c r="N64" s="16"/>
       <c r="O64" s="2"/>
       <c r="P64" s="54" t="e">
-        <f>VLOOKUP(C64,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C64,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q64" s="14" t="str">
-        <f>MID(B64,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4029</v>
       </c>
     </row>
@@ -24873,11 +25544,11 @@
       <c r="N65" s="16"/>
       <c r="O65" s="2"/>
       <c r="P65" s="54" t="e">
-        <f>VLOOKUP(C65,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C65,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q65" s="14" t="str">
-        <f>MID(B65,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4029</v>
       </c>
     </row>
@@ -24925,11 +25596,11 @@
       <c r="N66" s="16"/>
       <c r="O66" s="2"/>
       <c r="P66" s="54" t="e">
-        <f>VLOOKUP(C66,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C66,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q66" s="14" t="str">
-        <f>MID(B66,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4030</v>
       </c>
     </row>
@@ -24977,11 +25648,11 @@
       <c r="N67" s="16"/>
       <c r="O67" s="2"/>
       <c r="P67" s="54" t="e">
-        <f>VLOOKUP(C67,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C67,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q67" s="14" t="str">
-        <f>MID(B67,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4029</v>
       </c>
     </row>
@@ -25029,11 +25700,11 @@
       <c r="N68" s="16"/>
       <c r="O68" s="2"/>
       <c r="P68" s="54" t="e">
-        <f>VLOOKUP(C68,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C68,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q68" s="14" t="str">
-        <f>MID(B68,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4029</v>
       </c>
     </row>
@@ -25081,11 +25752,11 @@
       <c r="N69" s="16"/>
       <c r="O69" s="2"/>
       <c r="P69" s="54" t="e">
-        <f>VLOOKUP(C69,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C69,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q69" s="14" t="str">
-        <f>MID(B69,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4030</v>
       </c>
     </row>
@@ -25133,11 +25804,11 @@
       <c r="N70" s="16"/>
       <c r="O70" s="2"/>
       <c r="P70" s="54" t="e">
-        <f>VLOOKUP(C70,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C70,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q70" s="14" t="str">
-        <f>MID(B70,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4039</v>
       </c>
     </row>
@@ -25185,11 +25856,11 @@
       <c r="N71" s="16"/>
       <c r="O71" s="2"/>
       <c r="P71" s="54" t="e">
-        <f>VLOOKUP(C71,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C71,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q71" s="14" t="str">
-        <f>MID(B71,13,4)</f>
+        <f t="shared" ref="Q71:Q78" si="2">MID(B71,13,4)</f>
         <v>4029</v>
       </c>
     </row>
@@ -25237,11 +25908,11 @@
       <c r="N72" s="16"/>
       <c r="O72" s="2"/>
       <c r="P72" s="54" t="e">
-        <f>VLOOKUP(C72,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C72,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q72" s="14" t="str">
-        <f>MID(B72,13,4)</f>
+        <f t="shared" si="2"/>
         <v>4029</v>
       </c>
     </row>
@@ -25288,11 +25959,11 @@
       </c>
       <c r="N73" s="66"/>
       <c r="P73" s="54" t="e">
-        <f>VLOOKUP(C73,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C73,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q73" s="14" t="str">
-        <f>MID(B73,13,4)</f>
+        <f t="shared" si="2"/>
         <v>4029</v>
       </c>
     </row>
@@ -25339,11 +26010,11 @@
       </c>
       <c r="N74" s="66"/>
       <c r="P74" s="54" t="e">
-        <f>VLOOKUP(C74,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C74,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q74" s="14" t="str">
-        <f>MID(B74,13,4)</f>
+        <f t="shared" si="2"/>
         <v>4030</v>
       </c>
     </row>
@@ -25390,11 +26061,11 @@
       </c>
       <c r="N75" s="66"/>
       <c r="P75" s="54" t="e">
-        <f>VLOOKUP(C75,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C75,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q75" s="14" t="str">
-        <f>MID(B75,13,4)</f>
+        <f t="shared" si="2"/>
         <v>4030</v>
       </c>
     </row>
@@ -25441,11 +26112,11 @@
       </c>
       <c r="N76" s="66"/>
       <c r="P76" s="54" t="e">
-        <f>VLOOKUP(C76,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C76,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q76" s="14" t="str">
-        <f>MID(B76,13,4)</f>
+        <f t="shared" si="2"/>
         <v>4029</v>
       </c>
     </row>
@@ -25492,11 +26163,11 @@
       </c>
       <c r="N77" s="66"/>
       <c r="P77" s="54" t="e">
-        <f>VLOOKUP(C77,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C77,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q77" s="14" t="str">
-        <f>MID(B77,13,4)</f>
+        <f t="shared" si="2"/>
         <v>4029</v>
       </c>
     </row>
@@ -25543,11 +26214,11 @@
       </c>
       <c r="N78" s="66"/>
       <c r="P78" s="54" t="e">
-        <f>VLOOKUP(C78,'Train Runs'!$A$13:$V$155,22,0)</f>
+        <f>VLOOKUP(C78,'Train Runs'!$A$13:$V$164,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q78" s="14" t="str">
-        <f>MID(B78,13,4)</f>
+        <f t="shared" si="2"/>
         <v>4029</v>
       </c>
     </row>
@@ -26111,17 +26782,17 @@
     <mergeCell ref="A5:M5"/>
   </mergeCells>
   <conditionalFormatting sqref="P6 M6:N6 M114:M1048576 L79:L113 M7:M78 N69:N70">
-    <cfRule type="cellIs" dxfId="39" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:L7 L8:L78 M7:N68 M41:M78 N69:N70 A8:K70">
-    <cfRule type="expression" dxfId="38" priority="3">
+    <cfRule type="expression" dxfId="22" priority="3">
       <formula>$M7="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M3">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26132,10 +26803,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J132"/>
+  <dimension ref="A1:J125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A3" sqref="A3:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26274,209 +26945,94 @@
       <c r="I6" s="42"/>
       <c r="J6" s="42"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="66" t="s">
-        <v>614</v>
+        <v>347</v>
       </c>
       <c r="B7" s="66"/>
       <c r="C7" s="66"/>
       <c r="D7" s="66"/>
       <c r="E7" s="43" t="str">
         <f>VLOOKUP(A7,'Trips&amp;Operators'!$C$2:$E$10000,3,FALSE)</f>
-        <v>DAVIS</v>
+        <v>SPECTOR</v>
       </c>
       <c r="F7" s="43" t="str">
         <f>VLOOKUP(A7,'Trips&amp;Operators'!$C$1:$F$10000,4,FALSE)</f>
-        <v>rtdc.l.rtdc.4012:itc</v>
+        <v>rtdc.l.rtdc.4027:itc</v>
       </c>
       <c r="G7" s="65">
         <f>VLOOKUP(A7,'Trips&amp;Operators'!$C$1:$H$10000,5,FALSE)</f>
-        <v>42549.672858796293</v>
-      </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
+        <v>42549.372719907406</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="B8" s="66"/>
       <c r="C8" s="66"/>
       <c r="D8" s="66"/>
       <c r="E8" s="43" t="str">
         <f>VLOOKUP(A8,'Trips&amp;Operators'!$C$2:$E$10000,3,FALSE)</f>
-        <v>BARTLETT</v>
+        <v>DAVIS</v>
       </c>
       <c r="F8" s="43" t="str">
         <f>VLOOKUP(A8,'Trips&amp;Operators'!$C$1:$F$10000,4,FALSE)</f>
-        <v>rtdc.l.rtdc.4028:itc</v>
+        <v>rtdc.l.rtdc.4012:itc</v>
       </c>
       <c r="G8" s="65">
         <f>VLOOKUP(A8,'Trips&amp;Operators'!$C$1:$H$10000,5,FALSE)</f>
-        <v>42549.974108796298</v>
+        <v>42549.672858796293</v>
       </c>
       <c r="H8" s="42"/>
       <c r="I8" s="42"/>
       <c r="J8" s="42"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="66" t="s">
-        <v>619</v>
-      </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="43" t="str">
-        <f>VLOOKUP(A9,'Trips&amp;Operators'!$C$2:$E$10000,3,FALSE)</f>
-        <v>LEVERE</v>
-      </c>
-      <c r="F9" s="43" t="str">
-        <f>VLOOKUP(A9,'Trips&amp;Operators'!$C$1:$F$10000,4,FALSE)</f>
-        <v>rtdc.l.rtdc.4019:itc</v>
-      </c>
-      <c r="G9" s="65">
-        <f>VLOOKUP(A9,'Trips&amp;Operators'!$C$1:$H$10000,5,FALSE)</f>
-        <v>42549.991805555554</v>
-      </c>
+      <c r="B9"/>
+      <c r="C9"/>
       <c r="H9" s="42"/>
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="66" t="s">
-        <v>630</v>
-      </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="43" t="str">
-        <f>VLOOKUP(A10,'Trips&amp;Operators'!$C$2:$E$10000,3,FALSE)</f>
-        <v>MOSES</v>
-      </c>
-      <c r="F10" s="43" t="str">
-        <f>VLOOKUP(A10,'Trips&amp;Operators'!$C$1:$F$10000,4,FALSE)</f>
-        <v>rtdc.l.rtdc.4018:itc</v>
-      </c>
-      <c r="G10" s="65">
-        <f>VLOOKUP(A10,'Trips&amp;Operators'!$C$1:$H$10000,5,FALSE)</f>
-        <v>42549.973287037035</v>
-      </c>
+      <c r="B10"/>
+      <c r="C10"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
       <c r="J10" s="42"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
-        <v>629</v>
-      </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="43" t="str">
-        <f>VLOOKUP(A11,'Trips&amp;Operators'!$C$2:$E$10000,3,FALSE)</f>
-        <v>MOSES</v>
-      </c>
-      <c r="F11" s="43" t="str">
-        <f>VLOOKUP(A11,'Trips&amp;Operators'!$C$1:$F$10000,4,FALSE)</f>
-        <v>rtdc.l.rtdc.4017:itc</v>
-      </c>
-      <c r="G11" s="65">
-        <f>VLOOKUP(A11,'Trips&amp;Operators'!$C$1:$H$10000,5,FALSE)</f>
-        <v>42550.012743055559</v>
-      </c>
+      <c r="B11"/>
+      <c r="C11"/>
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="66" t="s">
-        <v>617</v>
-      </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="43" t="str">
-        <f>VLOOKUP(A12,'Trips&amp;Operators'!$C$2:$E$10000,3,FALSE)</f>
-        <v>ADANE</v>
-      </c>
-      <c r="F12" s="43" t="str">
-        <f>VLOOKUP(A12,'Trips&amp;Operators'!$C$1:$F$10000,4,FALSE)</f>
-        <v>rtdc.l.rtdc.4025:itc</v>
-      </c>
-      <c r="G12" s="65">
-        <f>VLOOKUP(A12,'Trips&amp;Operators'!$C$1:$H$10000,5,FALSE)</f>
-        <v>42549.993750000001</v>
-      </c>
+      <c r="B12"/>
+      <c r="C12"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="66" t="s">
-        <v>622</v>
-      </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="43" t="str">
-        <f>VLOOKUP(A13,'Trips&amp;Operators'!$C$2:$E$10000,3,FALSE)</f>
-        <v>ADANE</v>
-      </c>
-      <c r="F13" s="43" t="str">
-        <f>VLOOKUP(A13,'Trips&amp;Operators'!$C$1:$F$10000,4,FALSE)</f>
-        <v>rtdc.l.rtdc.4026:itc</v>
-      </c>
-      <c r="G13" s="65">
-        <f>VLOOKUP(A13,'Trips&amp;Operators'!$C$1:$H$10000,5,FALSE)</f>
-        <v>42550.038541666669</v>
-      </c>
+      <c r="B13"/>
+      <c r="C13"/>
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
       <c r="J13" s="42"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="66" t="s">
-        <v>621</v>
-      </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="43" t="str">
-        <f>VLOOKUP(A14,'Trips&amp;Operators'!$C$2:$E$10000,3,FALSE)</f>
-        <v>BARTLETT</v>
-      </c>
-      <c r="F14" s="43" t="str">
-        <f>VLOOKUP(A14,'Trips&amp;Operators'!$C$1:$F$10000,4,FALSE)</f>
-        <v>rtdc.l.rtdc.4027:itc</v>
-      </c>
-      <c r="G14" s="65">
-        <f>VLOOKUP(A14,'Trips&amp;Operators'!$C$1:$H$10000,5,FALSE)</f>
-        <v>42550.012291666666</v>
-      </c>
+      <c r="B14"/>
+      <c r="C14"/>
       <c r="H14" s="42"/>
       <c r="I14" s="42"/>
       <c r="J14" s="42"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="66" t="s">
-        <v>631</v>
-      </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="43" t="str">
-        <f>VLOOKUP(A15,'Trips&amp;Operators'!$C$2:$E$10000,3,FALSE)</f>
-        <v>BARTLETT</v>
-      </c>
-      <c r="F15" s="43" t="str">
-        <f>VLOOKUP(A15,'Trips&amp;Operators'!$C$1:$F$10000,4,FALSE)</f>
-        <v>rtdc.l.rtdc.4028:itc</v>
-      </c>
-      <c r="G15" s="65">
-        <f>VLOOKUP(A15,'Trips&amp;Operators'!$C$1:$H$10000,5,FALSE)</f>
-        <v>42550.056712962964</v>
-      </c>
+      <c r="B15"/>
+      <c r="C15"/>
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
       <c r="J15" s="42"/>
@@ -27245,58 +27801,9 @@
       <c r="J124" s="42"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B125"/>
-      <c r="C125"/>
       <c r="H125" s="42"/>
       <c r="I125" s="42"/>
       <c r="J125" s="42"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B126"/>
-      <c r="C126"/>
-      <c r="H126" s="42"/>
-      <c r="I126" s="42"/>
-      <c r="J126" s="42"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B127"/>
-      <c r="C127"/>
-      <c r="H127" s="42"/>
-      <c r="I127" s="42"/>
-      <c r="J127" s="42"/>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B128"/>
-      <c r="C128"/>
-      <c r="H128" s="42"/>
-      <c r="I128" s="42"/>
-      <c r="J128" s="42"/>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B129"/>
-      <c r="C129"/>
-      <c r="H129" s="42"/>
-      <c r="I129" s="42"/>
-      <c r="J129" s="42"/>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B130"/>
-      <c r="C130"/>
-      <c r="H130" s="42"/>
-      <c r="I130" s="42"/>
-      <c r="J130" s="42"/>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B131"/>
-      <c r="C131"/>
-      <c r="H131" s="42"/>
-      <c r="I131" s="42"/>
-      <c r="J131" s="42"/>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H132" s="42"/>
-      <c r="I132" s="42"/>
-      <c r="J132" s="42"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:G2">
@@ -33976,7 +34483,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EC/Train Runs and Enforcements 2016-06-28.xlsx
+++ b/EC/Train Runs and Enforcements 2016-06-28.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wabtec\Documents\GitHub\eaglep3-reporting\EC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stu\Documents\GitHub\eaglep3-reporting\EC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -2364,7 +2364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2603,19 +2603,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_XINGS" xfId="1"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -2742,7 +2736,13 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>181-25</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
@@ -3018,8 +3018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM215"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3379,6 +3379,10 @@
       <c r="N11" s="88"/>
       <c r="O11" s="88"/>
       <c r="P11" s="88"/>
+      <c r="S11" s="98">
+        <f>AVERAGE(S13:S99999)</f>
+        <v>0.91608391608391604</v>
+      </c>
     </row>
     <row r="12" spans="1:91" s="10" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
@@ -17303,10 +17307,7 @@
       <c r="P156" s="12"/>
       <c r="Q156" s="44"/>
       <c r="R156" s="44"/>
-      <c r="S156" s="70">
-        <f t="shared" si="52"/>
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="S156" s="70"/>
       <c r="T156" s="2" t="str">
         <f t="shared" si="53"/>
         <v>Southbound</v>
@@ -17399,10 +17400,7 @@
       <c r="P157" s="12"/>
       <c r="Q157" s="44"/>
       <c r="R157" s="44"/>
-      <c r="S157" s="70">
-        <f t="shared" si="52"/>
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="S157" s="70"/>
       <c r="T157" s="2" t="str">
         <f t="shared" si="53"/>
         <v>NorthBound</v>
@@ -17495,10 +17493,7 @@
       <c r="P158" s="12"/>
       <c r="Q158" s="44"/>
       <c r="R158" s="44"/>
-      <c r="S158" s="70">
-        <f t="shared" si="52"/>
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="S158" s="70"/>
       <c r="T158" s="2" t="str">
         <f t="shared" si="53"/>
         <v>Southbound</v>
@@ -17591,10 +17586,7 @@
       <c r="P159" s="12"/>
       <c r="Q159" s="44"/>
       <c r="R159" s="44"/>
-      <c r="S159" s="70">
-        <f t="shared" si="52"/>
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="S159" s="70"/>
       <c r="T159" s="2" t="str">
         <f t="shared" si="53"/>
         <v>NorthBound</v>
@@ -17687,10 +17679,7 @@
       <c r="P160" s="12"/>
       <c r="Q160" s="44"/>
       <c r="R160" s="44"/>
-      <c r="S160" s="70">
-        <f t="shared" si="52"/>
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="S160" s="70"/>
       <c r="T160" s="2" t="str">
         <f t="shared" si="53"/>
         <v>Southbound</v>
@@ -17783,10 +17772,7 @@
       <c r="P161" s="12"/>
       <c r="Q161" s="44"/>
       <c r="R161" s="44"/>
-      <c r="S161" s="70">
-        <f t="shared" si="52"/>
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="S161" s="70"/>
       <c r="T161" s="2" t="str">
         <f t="shared" si="53"/>
         <v>NorthBound</v>
@@ -17879,10 +17865,7 @@
       <c r="P162" s="12"/>
       <c r="Q162" s="44"/>
       <c r="R162" s="44"/>
-      <c r="S162" s="70">
-        <f t="shared" si="52"/>
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="S162" s="70"/>
       <c r="T162" s="2" t="str">
         <f t="shared" si="53"/>
         <v>Southbound</v>
@@ -17975,10 +17958,7 @@
       <c r="P163" s="12"/>
       <c r="Q163" s="44"/>
       <c r="R163" s="44"/>
-      <c r="S163" s="70">
-        <f t="shared" si="52"/>
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="S163" s="70"/>
       <c r="T163" s="2" t="str">
         <f t="shared" si="53"/>
         <v>NorthBound</v>
@@ -18071,10 +18051,7 @@
       <c r="P164" s="12"/>
       <c r="Q164" s="44"/>
       <c r="R164" s="44"/>
-      <c r="S164" s="70">
-        <f t="shared" si="52"/>
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="S164" s="70"/>
       <c r="T164" s="2" t="str">
         <f t="shared" si="53"/>
         <v>Southbound</v>
@@ -18167,10 +18144,7 @@
       <c r="P165" s="12"/>
       <c r="Q165" s="44"/>
       <c r="R165" s="44"/>
-      <c r="S165" s="70">
-        <f t="shared" si="52"/>
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="S165" s="70"/>
       <c r="T165" s="2" t="str">
         <f t="shared" si="53"/>
         <v>NorthBound</v>
@@ -18263,10 +18237,7 @@
       <c r="P166" s="12"/>
       <c r="Q166" s="44"/>
       <c r="R166" s="44"/>
-      <c r="S166" s="70">
-        <f t="shared" si="52"/>
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="S166" s="70"/>
       <c r="T166" s="2" t="str">
         <f t="shared" si="53"/>
         <v>Southbound</v>
@@ -18359,10 +18330,7 @@
       <c r="P167" s="12"/>
       <c r="Q167" s="44"/>
       <c r="R167" s="44"/>
-      <c r="S167" s="70">
-        <f t="shared" si="52"/>
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="S167" s="70"/>
       <c r="T167" s="2" t="str">
         <f t="shared" si="53"/>
         <v>NorthBound</v>
@@ -18455,10 +18423,7 @@
       <c r="P168" s="12"/>
       <c r="Q168" s="44"/>
       <c r="R168" s="44"/>
-      <c r="S168" s="70">
-        <f t="shared" si="52"/>
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="S168" s="70"/>
       <c r="T168" s="2" t="str">
         <f t="shared" si="53"/>
         <v>Southbound</v>
@@ -18551,10 +18516,7 @@
       <c r="P169" s="12"/>
       <c r="Q169" s="44"/>
       <c r="R169" s="44"/>
-      <c r="S169" s="70">
-        <f t="shared" si="52"/>
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="S169" s="70"/>
       <c r="T169" s="2" t="str">
         <f t="shared" si="53"/>
         <v>NorthBound</v>
@@ -18647,10 +18609,7 @@
       <c r="P170" s="12"/>
       <c r="Q170" s="44"/>
       <c r="R170" s="44"/>
-      <c r="S170" s="70">
-        <f t="shared" si="52"/>
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="S170" s="70"/>
       <c r="T170" s="2" t="str">
         <f t="shared" si="53"/>
         <v>Southbound</v>
@@ -18743,10 +18702,7 @@
       <c r="P171" s="12"/>
       <c r="Q171" s="44"/>
       <c r="R171" s="44"/>
-      <c r="S171" s="70">
-        <f t="shared" si="52"/>
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="S171" s="70"/>
       <c r="T171" s="2" t="str">
         <f t="shared" si="53"/>
         <v>NorthBound</v>
@@ -18839,10 +18795,7 @@
       <c r="P172" s="12"/>
       <c r="Q172" s="44"/>
       <c r="R172" s="44"/>
-      <c r="S172" s="70">
-        <f t="shared" si="52"/>
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="S172" s="70"/>
       <c r="T172" s="2" t="str">
         <f t="shared" si="53"/>
         <v>Southbound</v>
@@ -18935,12 +18888,9 @@
       <c r="P173" s="12"/>
       <c r="Q173" s="44"/>
       <c r="R173" s="44"/>
-      <c r="S173" s="70">
-        <f t="shared" ref="S173:S206" si="64">SUM(U173:U173)/12</f>
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="S173" s="70"/>
       <c r="T173" s="2" t="str">
-        <f t="shared" ref="T173:T206" si="65">IF(ISEVEN(LEFT(A173,3)),"Southbound","NorthBound")</f>
+        <f t="shared" ref="T173:T206" si="64">IF(ISEVEN(LEFT(A173,3)),"Southbound","NorthBound")</f>
         <v>NorthBound</v>
       </c>
       <c r="U173" s="2">
@@ -18948,7 +18898,7 @@
         <v>8</v>
       </c>
       <c r="V173" s="48" t="str">
-        <f t="shared" ref="V173:V206" si="66">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E173-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I173+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B173&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="V173:V206" si="65">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E173-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I173+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B173&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 11:12:24-0600',mode:absolute,to:'2016-06-28 11:35:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W173" s="48" t="str">
@@ -18960,7 +18910,7 @@
         <v>1</v>
       </c>
       <c r="Y173" s="48">
-        <f t="shared" ref="Y173:Y206" si="67">RIGHT(D173,LEN(D173)-4)/10000</f>
+        <f t="shared" ref="Y173:Y206" si="66">RIGHT(D173,LEN(D173)-4)/10000</f>
         <v>0.1021</v>
       </c>
       <c r="Z173" s="48">
@@ -18968,7 +18918,7 @@
         <v>5.8920000000000003</v>
       </c>
       <c r="AA173" s="48">
-        <f t="shared" ref="AA173:AA204" si="68">ABS(Z173-Y173)</f>
+        <f t="shared" ref="AA173:AA204" si="67">ABS(Z173-Y173)</f>
         <v>5.7899000000000003</v>
       </c>
       <c r="AB173" s="49" t="e">
@@ -19031,12 +18981,9 @@
       <c r="P174" s="12"/>
       <c r="Q174" s="44"/>
       <c r="R174" s="44"/>
-      <c r="S174" s="70">
+      <c r="S174" s="70"/>
+      <c r="T174" s="2" t="str">
         <f t="shared" si="64"/>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="T174" s="2" t="str">
-        <f t="shared" si="65"/>
         <v>Southbound</v>
       </c>
       <c r="U174" s="2">
@@ -19044,7 +18991,7 @@
         <v>7</v>
       </c>
       <c r="V174" s="48" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 11:37:24-0600',mode:absolute,to:'2016-06-28 11:54:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W174" s="48" t="str">
@@ -19056,7 +19003,7 @@
         <v>1</v>
       </c>
       <c r="Y174" s="48">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>5.8608000000000002</v>
       </c>
       <c r="Z174" s="48">
@@ -19064,7 +19011,7 @@
         <v>6.9800000000000001E-2</v>
       </c>
       <c r="AA174" s="48">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>5.7910000000000004</v>
       </c>
       <c r="AB174" s="49" t="e">
@@ -19127,12 +19074,9 @@
       <c r="P175" s="12"/>
       <c r="Q175" s="44"/>
       <c r="R175" s="44"/>
-      <c r="S175" s="70">
+      <c r="S175" s="70"/>
+      <c r="T175" s="2" t="str">
         <f t="shared" si="64"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="T175" s="2" t="str">
-        <f t="shared" si="65"/>
         <v>NorthBound</v>
       </c>
       <c r="U175" s="2">
@@ -19140,7 +19084,7 @@
         <v>8</v>
       </c>
       <c r="V175" s="48" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 12:17:51-0600',mode:absolute,to:'2016-06-28 12:34:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W175" s="48" t="str">
@@ -19152,7 +19096,7 @@
         <v>1</v>
       </c>
       <c r="Y175" s="48">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>9.8100000000000007E-2</v>
       </c>
       <c r="Z175" s="48">
@@ -19160,7 +19104,7 @@
         <v>5.8914</v>
       </c>
       <c r="AA175" s="48">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>5.7933000000000003</v>
       </c>
       <c r="AB175" s="49" t="e">
@@ -19223,12 +19167,9 @@
       <c r="P176" s="12"/>
       <c r="Q176" s="44"/>
       <c r="R176" s="44"/>
-      <c r="S176" s="70">
+      <c r="S176" s="70"/>
+      <c r="T176" s="2" t="str">
         <f t="shared" si="64"/>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="T176" s="2" t="str">
-        <f t="shared" si="65"/>
         <v>Southbound</v>
       </c>
       <c r="U176" s="2">
@@ -19236,7 +19177,7 @@
         <v>7</v>
       </c>
       <c r="V176" s="48" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 12:35:41-0600',mode:absolute,to:'2016-06-28 12:54:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W176" s="48" t="str">
@@ -19248,7 +19189,7 @@
         <v>1</v>
       </c>
       <c r="Y176" s="48">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>5.8604000000000003</v>
       </c>
       <c r="Z176" s="48">
@@ -19256,7 +19197,7 @@
         <v>9.2899999999999996E-2</v>
       </c>
       <c r="AA176" s="48">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>5.7675000000000001</v>
       </c>
       <c r="AB176" s="49" t="e">
@@ -19319,12 +19260,9 @@
       <c r="P177" s="12"/>
       <c r="Q177" s="44"/>
       <c r="R177" s="44"/>
-      <c r="S177" s="70">
+      <c r="S177" s="70"/>
+      <c r="T177" s="2" t="str">
         <f t="shared" si="64"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="T177" s="2" t="str">
-        <f t="shared" si="65"/>
         <v>NorthBound</v>
       </c>
       <c r="U177" s="2">
@@ -19332,7 +19270,7 @@
         <v>8</v>
       </c>
       <c r="V177" s="48" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 13:15:30-0600',mode:absolute,to:'2016-06-28 13:34:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W177" s="48" t="str">
@@ -19344,7 +19282,7 @@
         <v>1</v>
       </c>
       <c r="Y177" s="48">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>0.1237</v>
       </c>
       <c r="Z177" s="48">
@@ -19352,7 +19290,7 @@
         <v>5.8921999999999999</v>
       </c>
       <c r="AA177" s="48">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>5.7684999999999995</v>
       </c>
       <c r="AB177" s="49" t="e">
@@ -19415,12 +19353,9 @@
       <c r="P178" s="12"/>
       <c r="Q178" s="44"/>
       <c r="R178" s="44"/>
-      <c r="S178" s="70">
+      <c r="S178" s="70"/>
+      <c r="T178" s="2" t="str">
         <f t="shared" si="64"/>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="T178" s="2" t="str">
-        <f t="shared" si="65"/>
         <v>Southbound</v>
       </c>
       <c r="U178" s="2">
@@ -19428,7 +19363,7 @@
         <v>7</v>
       </c>
       <c r="V178" s="48" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 13:34:32-0600',mode:absolute,to:'2016-06-28 13:54:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W178" s="48" t="str">
@@ -19440,7 +19375,7 @@
         <v>1</v>
       </c>
       <c r="Y178" s="48">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>5.8605999999999998</v>
       </c>
       <c r="Z178" s="48">
@@ -19448,7 +19383,7 @@
         <v>8.43E-2</v>
       </c>
       <c r="AA178" s="48">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>5.7763</v>
       </c>
       <c r="AB178" s="49" t="e">
@@ -19511,12 +19446,9 @@
       <c r="P179" s="12"/>
       <c r="Q179" s="44"/>
       <c r="R179" s="44"/>
-      <c r="S179" s="70">
+      <c r="S179" s="70"/>
+      <c r="T179" s="2" t="str">
         <f t="shared" si="64"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="T179" s="2" t="str">
-        <f t="shared" si="65"/>
         <v>NorthBound</v>
       </c>
       <c r="U179" s="2">
@@ -19524,7 +19456,7 @@
         <v>8</v>
       </c>
       <c r="V179" s="48" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 14:00:59-0600',mode:absolute,to:'2016-06-28 14:36:36-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W179" s="48" t="str">
@@ -19536,7 +19468,7 @@
         <v>1</v>
       </c>
       <c r="Y179" s="48">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>0.1128</v>
       </c>
       <c r="Z179" s="48">
@@ -19544,7 +19476,7 @@
         <v>5.8910999999999998</v>
       </c>
       <c r="AA179" s="48">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>5.7782999999999998</v>
       </c>
       <c r="AB179" s="49" t="e">
@@ -19607,12 +19539,9 @@
       <c r="P180" s="12"/>
       <c r="Q180" s="44"/>
       <c r="R180" s="44"/>
-      <c r="S180" s="70">
+      <c r="S180" s="70"/>
+      <c r="T180" s="2" t="str">
         <f t="shared" si="64"/>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="T180" s="2" t="str">
-        <f t="shared" si="65"/>
         <v>Southbound</v>
       </c>
       <c r="U180" s="2">
@@ -19620,7 +19549,7 @@
         <v>7</v>
       </c>
       <c r="V180" s="48" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 14:35:41-0600',mode:absolute,to:'2016-06-28 14:59:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W180" s="48" t="str">
@@ -19632,7 +19561,7 @@
         <v>1</v>
       </c>
       <c r="Y180" s="48">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>5.8586999999999998</v>
       </c>
       <c r="Z180" s="48">
@@ -19640,7 +19569,7 @@
         <v>6.2899999999999998E-2</v>
       </c>
       <c r="AA180" s="48">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>5.7957999999999998</v>
       </c>
       <c r="AB180" s="49" t="e">
@@ -19703,12 +19632,9 @@
       <c r="P181" s="12"/>
       <c r="Q181" s="44"/>
       <c r="R181" s="44"/>
-      <c r="S181" s="70">
+      <c r="S181" s="70"/>
+      <c r="T181" s="2" t="str">
         <f t="shared" si="64"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="T181" s="2" t="str">
-        <f t="shared" si="65"/>
         <v>NorthBound</v>
       </c>
       <c r="U181" s="2">
@@ -19716,7 +19642,7 @@
         <v>8</v>
       </c>
       <c r="V181" s="48" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 15:11:04-0600',mode:absolute,to:'2016-06-28 15:36:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W181" s="48" t="str">
@@ -19728,15 +19654,15 @@
         <v>1</v>
       </c>
       <c r="Y181" s="48">
+        <f t="shared" si="66"/>
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="Z181" s="48">
+        <f t="shared" ref="Z181:Z206" si="68">RIGHT(H181,LEN(H181)-4)/10000</f>
+        <v>5.8906999999999998</v>
+      </c>
+      <c r="AA181" s="48">
         <f t="shared" si="67"/>
-        <v>9.2200000000000004E-2</v>
-      </c>
-      <c r="Z181" s="48">
-        <f t="shared" ref="Z181:Z206" si="69">RIGHT(H181,LEN(H181)-4)/10000</f>
-        <v>5.8906999999999998</v>
-      </c>
-      <c r="AA181" s="48">
-        <f t="shared" si="68"/>
         <v>5.7984999999999998</v>
       </c>
       <c r="AB181" s="49" t="e">
@@ -19799,12 +19725,9 @@
       <c r="P182" s="12"/>
       <c r="Q182" s="44"/>
       <c r="R182" s="44"/>
-      <c r="S182" s="70">
+      <c r="S182" s="70"/>
+      <c r="T182" s="2" t="str">
         <f t="shared" si="64"/>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="T182" s="2" t="str">
-        <f t="shared" si="65"/>
         <v>Southbound</v>
       </c>
       <c r="U182" s="2">
@@ -19812,7 +19735,7 @@
         <v>7</v>
       </c>
       <c r="V182" s="48" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 15:36:17-0600',mode:absolute,to:'2016-06-28 15:57:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W182" s="48" t="str">
@@ -19824,15 +19747,15 @@
         <v>1</v>
       </c>
       <c r="Y182" s="48">
+        <f t="shared" si="66"/>
+        <v>5.8589000000000002</v>
+      </c>
+      <c r="Z182" s="48">
+        <f t="shared" si="68"/>
+        <v>0.1709</v>
+      </c>
+      <c r="AA182" s="48">
         <f t="shared" si="67"/>
-        <v>5.8589000000000002</v>
-      </c>
-      <c r="Z182" s="48">
-        <f t="shared" si="69"/>
-        <v>0.1709</v>
-      </c>
-      <c r="AA182" s="48">
-        <f t="shared" si="68"/>
         <v>5.6880000000000006</v>
       </c>
       <c r="AB182" s="49" t="e">
@@ -19895,12 +19818,9 @@
       <c r="P183" s="12"/>
       <c r="Q183" s="44"/>
       <c r="R183" s="44"/>
-      <c r="S183" s="70">
+      <c r="S183" s="70"/>
+      <c r="T183" s="2" t="str">
         <f t="shared" si="64"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="T183" s="2" t="str">
-        <f t="shared" si="65"/>
         <v>NorthBound</v>
       </c>
       <c r="U183" s="2">
@@ -19908,7 +19828,7 @@
         <v>8</v>
       </c>
       <c r="V183" s="48" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 15:39:49-0600',mode:absolute,to:'2016-06-28 16:05:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W183" s="48" t="str">
@@ -19920,15 +19840,15 @@
         <v>1</v>
       </c>
       <c r="Y183" s="48">
+        <f t="shared" si="66"/>
+        <v>9.2299999999999993E-2</v>
+      </c>
+      <c r="Z183" s="48">
+        <f t="shared" si="68"/>
+        <v>5.8897000000000004</v>
+      </c>
+      <c r="AA183" s="48">
         <f t="shared" si="67"/>
-        <v>9.2299999999999993E-2</v>
-      </c>
-      <c r="Z183" s="48">
-        <f t="shared" si="69"/>
-        <v>5.8897000000000004</v>
-      </c>
-      <c r="AA183" s="48">
-        <f t="shared" si="68"/>
         <v>5.7974000000000006</v>
       </c>
       <c r="AB183" s="49" t="e">
@@ -19991,12 +19911,9 @@
       <c r="P184" s="12"/>
       <c r="Q184" s="44"/>
       <c r="R184" s="44"/>
-      <c r="S184" s="70">
+      <c r="S184" s="70"/>
+      <c r="T184" s="2" t="str">
         <f t="shared" si="64"/>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="T184" s="2" t="str">
-        <f t="shared" si="65"/>
         <v>Southbound</v>
       </c>
       <c r="U184" s="2">
@@ -20004,7 +19921,7 @@
         <v>7</v>
       </c>
       <c r="V184" s="48" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 16:04:39-0600',mode:absolute,to:'2016-06-28 16:30:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W184" s="48" t="str">
@@ -20016,15 +19933,15 @@
         <v>1</v>
       </c>
       <c r="Y184" s="48">
+        <f t="shared" si="66"/>
+        <v>5.8581000000000003</v>
+      </c>
+      <c r="Z184" s="48">
+        <f t="shared" si="68"/>
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="AA184" s="48">
         <f t="shared" si="67"/>
-        <v>5.8581000000000003</v>
-      </c>
-      <c r="Z184" s="48">
-        <f t="shared" si="69"/>
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="AA184" s="48">
-        <f t="shared" si="68"/>
         <v>5.7841000000000005</v>
       </c>
       <c r="AB184" s="49" t="e">
@@ -20087,12 +20004,9 @@
       <c r="P185" s="12"/>
       <c r="Q185" s="44"/>
       <c r="R185" s="44"/>
-      <c r="S185" s="70">
+      <c r="S185" s="70"/>
+      <c r="T185" s="2" t="str">
         <f t="shared" si="64"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="T185" s="2" t="str">
-        <f t="shared" si="65"/>
         <v>NorthBound</v>
       </c>
       <c r="U185" s="2">
@@ -20100,7 +20014,7 @@
         <v>8</v>
       </c>
       <c r="V185" s="48" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 16:17:47-0600',mode:absolute,to:'2016-06-28 16:35:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W185" s="48" t="str">
@@ -20112,15 +20026,15 @@
         <v>1</v>
       </c>
       <c r="Y185" s="48">
+        <f t="shared" si="66"/>
+        <v>9.01E-2</v>
+      </c>
+      <c r="Z185" s="48">
+        <f t="shared" si="68"/>
+        <v>5.8891999999999998</v>
+      </c>
+      <c r="AA185" s="48">
         <f t="shared" si="67"/>
-        <v>9.01E-2</v>
-      </c>
-      <c r="Z185" s="48">
-        <f t="shared" si="69"/>
-        <v>5.8891999999999998</v>
-      </c>
-      <c r="AA185" s="48">
-        <f t="shared" si="68"/>
         <v>5.7991000000000001</v>
       </c>
       <c r="AB185" s="49" t="e">
@@ -20183,12 +20097,9 @@
       <c r="P186" s="12"/>
       <c r="Q186" s="44"/>
       <c r="R186" s="44"/>
-      <c r="S186" s="70">
+      <c r="S186" s="70"/>
+      <c r="T186" s="2" t="str">
         <f t="shared" si="64"/>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="T186" s="2" t="str">
-        <f t="shared" si="65"/>
         <v>Southbound</v>
       </c>
       <c r="U186" s="2">
@@ -20196,7 +20107,7 @@
         <v>7</v>
       </c>
       <c r="V186" s="48" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 16:34:34-0600',mode:absolute,to:'2016-06-28 16:56:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W186" s="48" t="str">
@@ -20208,15 +20119,15 @@
         <v>1</v>
       </c>
       <c r="Y186" s="48">
+        <f t="shared" si="66"/>
+        <v>5.8570000000000002</v>
+      </c>
+      <c r="Z186" s="48">
+        <f t="shared" si="68"/>
+        <v>7.0099999999999996E-2</v>
+      </c>
+      <c r="AA186" s="48">
         <f t="shared" si="67"/>
-        <v>5.8570000000000002</v>
-      </c>
-      <c r="Z186" s="48">
-        <f t="shared" si="69"/>
-        <v>7.0099999999999996E-2</v>
-      </c>
-      <c r="AA186" s="48">
-        <f t="shared" si="68"/>
         <v>5.7869000000000002</v>
       </c>
       <c r="AB186" s="49" t="e">
@@ -20272,19 +20183,16 @@
         <v>1.2870370366727002E-2</v>
       </c>
       <c r="N187" s="12">
-        <f t="shared" ref="N187:N206" si="70">24*60*SUM($M187:$M187)</f>
+        <f t="shared" ref="N187:N206" si="69">24*60*SUM($M187:$M187)</f>
         <v>18.533333328086883</v>
       </c>
       <c r="O187" s="12"/>
       <c r="P187" s="12"/>
       <c r="Q187" s="44"/>
       <c r="R187" s="44"/>
-      <c r="S187" s="70">
+      <c r="S187" s="70"/>
+      <c r="T187" s="2" t="str">
         <f t="shared" si="64"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="T187" s="2" t="str">
-        <f t="shared" si="65"/>
         <v>NorthBound</v>
       </c>
       <c r="U187" s="2">
@@ -20292,7 +20200,7 @@
         <v>8</v>
       </c>
       <c r="V187" s="48" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 16:43:51-0600',mode:absolute,to:'2016-06-28 17:06:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W187" s="48" t="str">
@@ -20304,15 +20212,15 @@
         <v>1</v>
       </c>
       <c r="Y187" s="48">
+        <f t="shared" si="66"/>
+        <v>0.1023</v>
+      </c>
+      <c r="Z187" s="48">
+        <f t="shared" si="68"/>
+        <v>5.8920000000000003</v>
+      </c>
+      <c r="AA187" s="48">
         <f t="shared" si="67"/>
-        <v>0.1023</v>
-      </c>
-      <c r="Z187" s="48">
-        <f t="shared" si="69"/>
-        <v>5.8920000000000003</v>
-      </c>
-      <c r="AA187" s="48">
-        <f t="shared" si="68"/>
         <v>5.7897000000000007</v>
       </c>
       <c r="AB187" s="49" t="e">
@@ -20368,19 +20276,16 @@
         <v>1.082175926421769E-2</v>
       </c>
       <c r="N188" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>15.583333340473473</v>
       </c>
       <c r="O188" s="12"/>
       <c r="P188" s="12"/>
       <c r="Q188" s="44"/>
       <c r="R188" s="44"/>
-      <c r="S188" s="70">
+      <c r="S188" s="70"/>
+      <c r="T188" s="2" t="str">
         <f t="shared" si="64"/>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="T188" s="2" t="str">
-        <f t="shared" si="65"/>
         <v>Southbound</v>
       </c>
       <c r="U188" s="2">
@@ -20388,7 +20293,7 @@
         <v>7</v>
       </c>
       <c r="V188" s="48" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 17:07:05-0600',mode:absolute,to:'2016-06-28 17:26:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W188" s="48" t="str">
@@ -20400,15 +20305,15 @@
         <v>1</v>
       </c>
       <c r="Y188" s="48">
+        <f t="shared" si="66"/>
+        <v>5.8604000000000003</v>
+      </c>
+      <c r="Z188" s="48">
+        <f t="shared" si="68"/>
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="AA188" s="48">
         <f t="shared" si="67"/>
-        <v>5.8604000000000003</v>
-      </c>
-      <c r="Z188" s="48">
-        <f t="shared" si="69"/>
-        <v>7.0800000000000002E-2</v>
-      </c>
-      <c r="AA188" s="48">
-        <f t="shared" si="68"/>
         <v>5.7896000000000001</v>
       </c>
       <c r="AB188" s="49" t="e">
@@ -20464,19 +20369,16 @@
         <v>1.2094907404389232E-2</v>
       </c>
       <c r="N189" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>17.416666662320495</v>
       </c>
       <c r="O189" s="12"/>
       <c r="P189" s="12"/>
       <c r="Q189" s="44"/>
       <c r="R189" s="44"/>
-      <c r="S189" s="70">
+      <c r="S189" s="70"/>
+      <c r="T189" s="2" t="str">
         <f t="shared" si="64"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="T189" s="2" t="str">
-        <f t="shared" si="65"/>
         <v>NorthBound</v>
       </c>
       <c r="U189" s="2">
@@ -20484,7 +20386,7 @@
         <v>8</v>
       </c>
       <c r="V189" s="48" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 17:15:26-0600',mode:absolute,to:'2016-06-28 17:36:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W189" s="48" t="str">
@@ -20496,15 +20398,15 @@
         <v>1</v>
       </c>
       <c r="Y189" s="48">
+        <f t="shared" si="66"/>
+        <v>9.8100000000000007E-2</v>
+      </c>
+      <c r="Z189" s="48">
+        <f t="shared" si="68"/>
+        <v>5.8906999999999998</v>
+      </c>
+      <c r="AA189" s="48">
         <f t="shared" si="67"/>
-        <v>9.8100000000000007E-2</v>
-      </c>
-      <c r="Z189" s="48">
-        <f t="shared" si="69"/>
-        <v>5.8906999999999998</v>
-      </c>
-      <c r="AA189" s="48">
-        <f t="shared" si="68"/>
         <v>5.7926000000000002</v>
       </c>
       <c r="AB189" s="49" t="e">
@@ -20560,19 +20462,16 @@
         <v>6.5972222364507616E-4</v>
       </c>
       <c r="N190" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>0.95000000204890966</v>
       </c>
       <c r="O190" s="12"/>
       <c r="P190" s="12"/>
       <c r="Q190" s="44"/>
       <c r="R190" s="44"/>
-      <c r="S190" s="70">
+      <c r="S190" s="70"/>
+      <c r="T190" s="2" t="str">
         <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="T190" s="2" t="str">
-        <f t="shared" si="65"/>
         <v>Southbound</v>
       </c>
       <c r="U190" s="2">
@@ -20580,7 +20479,7 @@
         <v>0</v>
       </c>
       <c r="V190" s="48" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 17:35:49-0600',mode:absolute,to:'2016-06-28 17:41:18-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W190" s="48" t="str">
@@ -20592,15 +20491,15 @@
         <v>1</v>
       </c>
       <c r="Y190" s="48">
+        <f t="shared" si="66"/>
+        <v>5.8348000000000004</v>
+      </c>
+      <c r="Z190" s="48">
+        <f t="shared" si="68"/>
+        <v>5.8305999999999996</v>
+      </c>
+      <c r="AA190" s="48">
         <f t="shared" si="67"/>
-        <v>5.8348000000000004</v>
-      </c>
-      <c r="Z190" s="48">
-        <f t="shared" si="69"/>
-        <v>5.8305999999999996</v>
-      </c>
-      <c r="AA190" s="48">
-        <f t="shared" si="68"/>
         <v>4.2000000000008697E-3</v>
       </c>
       <c r="AB190" s="49" t="e">
@@ -20656,19 +20555,16 @@
         <v>1.8692129633564036E-2</v>
       </c>
       <c r="N191" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>26.916666672332212</v>
       </c>
       <c r="O191" s="12"/>
       <c r="P191" s="12"/>
       <c r="Q191" s="44"/>
       <c r="R191" s="44"/>
-      <c r="S191" s="70">
+      <c r="S191" s="70"/>
+      <c r="T191" s="2" t="str">
         <f t="shared" si="64"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="T191" s="2" t="str">
-        <f t="shared" si="65"/>
         <v>NorthBound</v>
       </c>
       <c r="U191" s="2">
@@ -20676,7 +20572,7 @@
         <v>8</v>
       </c>
       <c r="V191" s="48" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 17:35:11-0600',mode:absolute,to:'2016-06-28 18:05:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W191" s="48" t="str">
@@ -20688,15 +20584,15 @@
         <v>1</v>
       </c>
       <c r="Y191" s="48">
+        <f t="shared" si="66"/>
+        <v>0.1018</v>
+      </c>
+      <c r="Z191" s="48">
+        <f t="shared" si="68"/>
+        <v>5.8914</v>
+      </c>
+      <c r="AA191" s="48">
         <f t="shared" si="67"/>
-        <v>0.1018</v>
-      </c>
-      <c r="Z191" s="48">
-        <f t="shared" si="69"/>
-        <v>5.8914</v>
-      </c>
-      <c r="AA191" s="48">
-        <f t="shared" si="68"/>
         <v>5.7896000000000001</v>
       </c>
       <c r="AB191" s="49" t="e">
@@ -20752,19 +20648,16 @@
         <v>1.2210648143081926E-2</v>
       </c>
       <c r="N192" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>17.583333326037973</v>
       </c>
       <c r="O192" s="12"/>
       <c r="P192" s="12"/>
       <c r="Q192" s="44"/>
       <c r="R192" s="44"/>
-      <c r="S192" s="70">
+      <c r="S192" s="70"/>
+      <c r="T192" s="2" t="str">
         <f t="shared" si="64"/>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="T192" s="2" t="str">
-        <f t="shared" si="65"/>
         <v>Southbound</v>
       </c>
       <c r="U192" s="2">
@@ -20772,7 +20665,7 @@
         <v>7</v>
       </c>
       <c r="V192" s="48" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 18:06:20-0600',mode:absolute,to:'2016-06-28 18:27:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W192" s="48" t="str">
@@ -20784,15 +20677,15 @@
         <v>1</v>
       </c>
       <c r="Y192" s="48">
+        <f t="shared" si="66"/>
+        <v>5.8596000000000004</v>
+      </c>
+      <c r="Z192" s="48">
+        <f t="shared" si="68"/>
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="AA192" s="48">
         <f t="shared" si="67"/>
-        <v>5.8596000000000004</v>
-      </c>
-      <c r="Z192" s="48">
-        <f t="shared" si="69"/>
-        <v>6.8500000000000005E-2</v>
-      </c>
-      <c r="AA192" s="48">
-        <f t="shared" si="68"/>
         <v>5.7911000000000001</v>
       </c>
       <c r="AB192" s="49" t="e">
@@ -20848,19 +20741,16 @@
         <v>1.3333333328773733E-2</v>
       </c>
       <c r="N193" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>19.199999993434176</v>
       </c>
       <c r="O193" s="12"/>
       <c r="P193" s="12"/>
       <c r="Q193" s="44"/>
       <c r="R193" s="44"/>
-      <c r="S193" s="70">
+      <c r="S193" s="70"/>
+      <c r="T193" s="2" t="str">
         <f t="shared" si="64"/>
-        <v>0.5</v>
-      </c>
-      <c r="T193" s="2" t="str">
-        <f t="shared" si="65"/>
         <v>NorthBound</v>
       </c>
       <c r="U193" s="2">
@@ -20868,7 +20758,7 @@
         <v>6</v>
       </c>
       <c r="V193" s="48" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 18:11:53-0600',mode:absolute,to:'2016-06-28 18:35:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W193" s="48" t="str">
@@ -20880,15 +20770,15 @@
         <v>1</v>
       </c>
       <c r="Y193" s="48">
+        <f t="shared" si="66"/>
+        <v>9.0200000000000002E-2</v>
+      </c>
+      <c r="Z193" s="48">
+        <f t="shared" si="68"/>
+        <v>5.7653999999999996</v>
+      </c>
+      <c r="AA193" s="48">
         <f t="shared" si="67"/>
-        <v>9.0200000000000002E-2</v>
-      </c>
-      <c r="Z193" s="48">
-        <f t="shared" si="69"/>
-        <v>5.7653999999999996</v>
-      </c>
-      <c r="AA193" s="48">
-        <f t="shared" si="68"/>
         <v>5.6751999999999994</v>
       </c>
       <c r="AB193" s="49" t="e">
@@ -20944,19 +20834,16 @@
         <v>1.3229166666860692E-2</v>
       </c>
       <c r="N194" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>19.050000000279397</v>
       </c>
       <c r="O194" s="12"/>
       <c r="P194" s="12"/>
       <c r="Q194" s="44"/>
       <c r="R194" s="44"/>
-      <c r="S194" s="70">
+      <c r="S194" s="70"/>
+      <c r="T194" s="2" t="str">
         <f t="shared" si="64"/>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="T194" s="2" t="str">
-        <f t="shared" si="65"/>
         <v>Southbound</v>
       </c>
       <c r="U194" s="2">
@@ -20964,7 +20851,7 @@
         <v>7</v>
       </c>
       <c r="V194" s="48" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 18:34:56-0600',mode:absolute,to:'2016-06-28 18:57:22-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W194" s="48" t="str">
@@ -20976,15 +20863,15 @@
         <v>1</v>
       </c>
       <c r="Y194" s="48">
+        <f t="shared" si="66"/>
+        <v>5.8592000000000004</v>
+      </c>
+      <c r="Z194" s="48">
+        <f t="shared" si="68"/>
+        <v>6.2600000000000003E-2</v>
+      </c>
+      <c r="AA194" s="48">
         <f t="shared" si="67"/>
-        <v>5.8592000000000004</v>
-      </c>
-      <c r="Z194" s="48">
-        <f t="shared" si="69"/>
-        <v>6.2600000000000003E-2</v>
-      </c>
-      <c r="AA194" s="48">
-        <f t="shared" si="68"/>
         <v>5.7966000000000006</v>
       </c>
       <c r="AB194" s="49" t="e">
@@ -21040,19 +20927,16 @@
         <v>1.4467592591245193E-2</v>
       </c>
       <c r="N195" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>20.833333331393078</v>
       </c>
       <c r="O195" s="12"/>
       <c r="P195" s="12"/>
       <c r="Q195" s="44"/>
       <c r="R195" s="44"/>
-      <c r="S195" s="70">
+      <c r="S195" s="70"/>
+      <c r="T195" s="2" t="str">
         <f t="shared" si="64"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="T195" s="2" t="str">
-        <f t="shared" si="65"/>
         <v>NorthBound</v>
       </c>
       <c r="U195" s="2">
@@ -21060,7 +20944,7 @@
         <v>8</v>
       </c>
       <c r="V195" s="48" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 18:40:40-0600',mode:absolute,to:'2016-06-28 19:05:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W195" s="48" t="str">
@@ -21072,15 +20956,15 @@
         <v>1</v>
       </c>
       <c r="Y195" s="48">
+        <f t="shared" si="66"/>
+        <v>9.74E-2</v>
+      </c>
+      <c r="Z195" s="48">
+        <f t="shared" si="68"/>
+        <v>5.8895999999999997</v>
+      </c>
+      <c r="AA195" s="48">
         <f t="shared" si="67"/>
-        <v>9.74E-2</v>
-      </c>
-      <c r="Z195" s="48">
-        <f t="shared" si="69"/>
-        <v>5.8895999999999997</v>
-      </c>
-      <c r="AA195" s="48">
-        <f t="shared" si="68"/>
         <v>5.7921999999999993</v>
       </c>
       <c r="AB195" s="49" t="e">
@@ -21136,19 +21020,16 @@
         <v>1.2384259258396924E-2</v>
       </c>
       <c r="N196" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>17.83333333209157</v>
       </c>
       <c r="O196" s="12"/>
       <c r="P196" s="12"/>
       <c r="Q196" s="44"/>
       <c r="R196" s="44"/>
-      <c r="S196" s="70">
+      <c r="S196" s="70"/>
+      <c r="T196" s="2" t="str">
         <f t="shared" si="64"/>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="T196" s="2" t="str">
-        <f t="shared" si="65"/>
         <v>Southbound</v>
       </c>
       <c r="U196" s="2">
@@ -21156,7 +21037,7 @@
         <v>7</v>
       </c>
       <c r="V196" s="48" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 19:35:04-0600',mode:absolute,to:'2016-06-28 19:56:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W196" s="48" t="str">
@@ -21168,15 +21049,15 @@
         <v>1</v>
       </c>
       <c r="Y196" s="48">
+        <f t="shared" si="66"/>
+        <v>5.8582999999999998</v>
+      </c>
+      <c r="Z196" s="48">
+        <f t="shared" si="68"/>
+        <v>7.0599999999999996E-2</v>
+      </c>
+      <c r="AA196" s="48">
         <f t="shared" si="67"/>
-        <v>5.8582999999999998</v>
-      </c>
-      <c r="Z196" s="48">
-        <f t="shared" si="69"/>
-        <v>7.0599999999999996E-2</v>
-      </c>
-      <c r="AA196" s="48">
-        <f t="shared" si="68"/>
         <v>5.7877000000000001</v>
       </c>
       <c r="AB196" s="49" t="e">
@@ -21232,19 +21113,16 @@
         <v>1.321759259008104E-2</v>
       </c>
       <c r="N197" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>19.033333329716697</v>
       </c>
       <c r="O197" s="12"/>
       <c r="P197" s="12"/>
       <c r="Q197" s="44"/>
       <c r="R197" s="44"/>
-      <c r="S197" s="70">
+      <c r="S197" s="70"/>
+      <c r="T197" s="2" t="str">
         <f t="shared" si="64"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="T197" s="2" t="str">
-        <f t="shared" si="65"/>
         <v>NorthBound</v>
       </c>
       <c r="U197" s="2">
@@ -21252,7 +21130,7 @@
         <v>8</v>
       </c>
       <c r="V197" s="48" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 19:12:04-0600',mode:absolute,to:'2016-06-28 19:35:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W197" s="48" t="str">
@@ -21264,15 +21142,15 @@
         <v>1</v>
       </c>
       <c r="Y197" s="48">
+        <f t="shared" si="66"/>
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="Z197" s="48">
+        <f t="shared" si="68"/>
+        <v>5.8912000000000004</v>
+      </c>
+      <c r="AA197" s="48">
         <f t="shared" si="67"/>
-        <v>9.0399999999999994E-2</v>
-      </c>
-      <c r="Z197" s="48">
-        <f t="shared" si="69"/>
-        <v>5.8912000000000004</v>
-      </c>
-      <c r="AA197" s="48">
-        <f t="shared" si="68"/>
         <v>5.8008000000000006</v>
       </c>
       <c r="AB197" s="49" t="e">
@@ -21328,19 +21206,16 @@
         <v>1.4456018514465541E-2</v>
       </c>
       <c r="N198" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>20.816666660830379</v>
       </c>
       <c r="O198" s="12"/>
       <c r="P198" s="12"/>
       <c r="Q198" s="44"/>
       <c r="R198" s="44"/>
-      <c r="S198" s="70">
+      <c r="S198" s="70"/>
+      <c r="T198" s="2" t="str">
         <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="T198" s="2" t="str">
-        <f t="shared" si="65"/>
         <v>Southbound</v>
       </c>
       <c r="U198" s="2">
@@ -21348,7 +21223,7 @@
         <v>0</v>
       </c>
       <c r="V198" s="48" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 20:34:09-0600',mode:absolute,to:'2016-06-28 20:58:04-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W198" s="48" t="str">
@@ -21360,15 +21235,15 @@
         <v>1</v>
       </c>
       <c r="Y198" s="48">
+        <f t="shared" si="66"/>
+        <v>5.8578999999999999</v>
+      </c>
+      <c r="Z198" s="48">
+        <f t="shared" si="68"/>
+        <v>43055555.555600002</v>
+      </c>
+      <c r="AA198" s="48">
         <f t="shared" si="67"/>
-        <v>5.8578999999999999</v>
-      </c>
-      <c r="Z198" s="48">
-        <f t="shared" si="69"/>
-        <v>43055555.555600002</v>
-      </c>
-      <c r="AA198" s="48">
-        <f t="shared" si="68"/>
         <v>43055549.697700001</v>
       </c>
       <c r="AB198" s="49" t="e">
@@ -21424,19 +21299,16 @@
         <v>1.2777777774317656E-2</v>
       </c>
       <c r="N199" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>18.399999995017424</v>
       </c>
       <c r="O199" s="12"/>
       <c r="P199" s="12"/>
       <c r="Q199" s="44"/>
       <c r="R199" s="44"/>
-      <c r="S199" s="70">
+      <c r="S199" s="70"/>
+      <c r="T199" s="2" t="str">
         <f t="shared" si="64"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="T199" s="2" t="str">
-        <f t="shared" si="65"/>
         <v>NorthBound</v>
       </c>
       <c r="U199" s="2">
@@ -21444,7 +21316,7 @@
         <v>8</v>
       </c>
       <c r="V199" s="48" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 20:13:38-0600',mode:absolute,to:'2016-06-28 20:35:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W199" s="48" t="str">
@@ -21456,15 +21328,15 @@
         <v>1</v>
       </c>
       <c r="Y199" s="48">
+        <f t="shared" si="66"/>
+        <v>9.9699999999999997E-2</v>
+      </c>
+      <c r="Z199" s="48">
+        <f t="shared" si="68"/>
+        <v>5.8894000000000002</v>
+      </c>
+      <c r="AA199" s="48">
         <f t="shared" si="67"/>
-        <v>9.9699999999999997E-2</v>
-      </c>
-      <c r="Z199" s="48">
-        <f t="shared" si="69"/>
-        <v>5.8894000000000002</v>
-      </c>
-      <c r="AA199" s="48">
-        <f t="shared" si="68"/>
         <v>5.7896999999999998</v>
       </c>
       <c r="AB199" s="49" t="e">
@@ -21520,19 +21392,16 @@
         <v>1.3356481482333038E-2</v>
       </c>
       <c r="N200" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>19.233333334559575</v>
       </c>
       <c r="O200" s="12"/>
       <c r="P200" s="12"/>
       <c r="Q200" s="44"/>
       <c r="R200" s="44"/>
-      <c r="S200" s="70">
+      <c r="S200" s="70"/>
+      <c r="T200" s="2" t="str">
         <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="T200" s="2" t="str">
-        <f t="shared" si="65"/>
         <v>Southbound</v>
       </c>
       <c r="U200" s="2">
@@ -21540,7 +21409,7 @@
         <v>0</v>
       </c>
       <c r="V200" s="48" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 21:35:25-0600',mode:absolute,to:'2016-06-28 21:57:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W200" s="48" t="str">
@@ -21552,15 +21421,15 @@
         <v>1</v>
       </c>
       <c r="Y200" s="48">
+        <f t="shared" si="66"/>
+        <v>5.8624000000000001</v>
+      </c>
+      <c r="Z200" s="48">
+        <f t="shared" si="68"/>
+        <v>68055555.555500001</v>
+      </c>
+      <c r="AA200" s="48">
         <f t="shared" si="67"/>
-        <v>5.8624000000000001</v>
-      </c>
-      <c r="Z200" s="48">
-        <f t="shared" si="69"/>
-        <v>68055555.555500001</v>
-      </c>
-      <c r="AA200" s="48">
-        <f t="shared" si="68"/>
         <v>68055549.693100005</v>
       </c>
       <c r="AB200" s="49" t="e">
@@ -21616,19 +21485,16 @@
         <v>1.7627314817218576E-2</v>
       </c>
       <c r="N201" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>25.383333336794749</v>
       </c>
       <c r="O201" s="12"/>
       <c r="P201" s="12"/>
       <c r="Q201" s="44"/>
       <c r="R201" s="44"/>
-      <c r="S201" s="70">
+      <c r="S201" s="70"/>
+      <c r="T201" s="2" t="str">
         <f t="shared" si="64"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="T201" s="2" t="str">
-        <f t="shared" si="65"/>
         <v>NorthBound</v>
       </c>
       <c r="U201" s="2">
@@ -21636,7 +21502,7 @@
         <v>8</v>
       </c>
       <c r="V201" s="48" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 21:07:51-0600',mode:absolute,to:'2016-06-28 21:36:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W201" s="48" t="str">
@@ -21648,15 +21514,15 @@
         <v>1</v>
       </c>
       <c r="Y201" s="48">
+        <f t="shared" si="66"/>
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="Z201" s="48">
+        <f t="shared" si="68"/>
+        <v>5.8939000000000004</v>
+      </c>
+      <c r="AA201" s="48">
         <f t="shared" si="67"/>
-        <v>3.3599999999999998E-2</v>
-      </c>
-      <c r="Z201" s="48">
-        <f t="shared" si="69"/>
-        <v>5.8939000000000004</v>
-      </c>
-      <c r="AA201" s="48">
-        <f t="shared" si="68"/>
         <v>5.8603000000000005</v>
       </c>
       <c r="AB201" s="49" t="e">
@@ -21712,19 +21578,16 @@
         <v>1.3645833336340729E-2</v>
       </c>
       <c r="N202" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>19.65000000433065</v>
       </c>
       <c r="O202" s="12"/>
       <c r="P202" s="12"/>
       <c r="Q202" s="44"/>
       <c r="R202" s="44"/>
-      <c r="S202" s="70">
+      <c r="S202" s="70"/>
+      <c r="T202" s="2" t="str">
         <f t="shared" si="64"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="T202" s="2" t="str">
-        <f t="shared" si="65"/>
         <v>NorthBound</v>
       </c>
       <c r="U202" s="2">
@@ -21732,7 +21595,7 @@
         <v>8</v>
       </c>
       <c r="V202" s="48" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 22:15:32-0600',mode:absolute,to:'2016-06-28 22:38:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W202" s="48" t="str">
@@ -21744,15 +21607,15 @@
         <v>2</v>
       </c>
       <c r="Y202" s="48">
+        <f t="shared" si="66"/>
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="Z202" s="48">
+        <f t="shared" si="68"/>
+        <v>5.8905000000000003</v>
+      </c>
+      <c r="AA202" s="48">
         <f t="shared" si="67"/>
-        <v>3.6299999999999999E-2</v>
-      </c>
-      <c r="Z202" s="48">
-        <f t="shared" si="69"/>
-        <v>5.8905000000000003</v>
-      </c>
-      <c r="AA202" s="48">
-        <f t="shared" si="68"/>
         <v>5.8542000000000005</v>
       </c>
       <c r="AB202" s="49" t="e">
@@ -21808,19 +21671,16 @@
         <v>1.3645833336340729E-2</v>
       </c>
       <c r="N203" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>19.65000000433065</v>
       </c>
       <c r="O203" s="12"/>
       <c r="P203" s="12"/>
       <c r="Q203" s="44"/>
       <c r="R203" s="44"/>
-      <c r="S203" s="70">
+      <c r="S203" s="70"/>
+      <c r="T203" s="2" t="str">
         <f t="shared" si="64"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="T203" s="2" t="str">
-        <f t="shared" si="65"/>
         <v>NorthBound</v>
       </c>
       <c r="U203" s="2">
@@ -21828,7 +21688,7 @@
         <v>8</v>
       </c>
       <c r="V203" s="48" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 22:15:32-0600',mode:absolute,to:'2016-06-28 22:38:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W203" s="48" t="str">
@@ -21840,15 +21700,15 @@
         <v>0</v>
       </c>
       <c r="Y203" s="48">
+        <f t="shared" si="66"/>
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="Z203" s="48">
+        <f t="shared" si="68"/>
+        <v>5.8905000000000003</v>
+      </c>
+      <c r="AA203" s="48">
         <f t="shared" si="67"/>
-        <v>3.6299999999999999E-2</v>
-      </c>
-      <c r="Z203" s="48">
-        <f t="shared" si="69"/>
-        <v>5.8905000000000003</v>
-      </c>
-      <c r="AA203" s="48">
-        <f t="shared" si="68"/>
         <v>5.8542000000000005</v>
       </c>
       <c r="AB203" s="49" t="e">
@@ -21904,19 +21764,16 @@
         <v>1.0196759256359655E-2</v>
       </c>
       <c r="N204" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>14.683333329157904</v>
       </c>
       <c r="O204" s="12"/>
       <c r="P204" s="12"/>
       <c r="Q204" s="44"/>
       <c r="R204" s="44"/>
-      <c r="S204" s="70">
+      <c r="S204" s="70"/>
+      <c r="T204" s="2" t="str">
         <f t="shared" si="64"/>
-        <v>0.5</v>
-      </c>
-      <c r="T204" s="2" t="str">
-        <f t="shared" si="65"/>
         <v>Southbound</v>
       </c>
       <c r="U204" s="2">
@@ -21924,7 +21781,7 @@
         <v>6</v>
       </c>
       <c r="V204" s="48" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 19:04:28-0600',mode:absolute,to:'2016-06-28 19:22:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W204" s="48" t="str">
@@ -21936,15 +21793,15 @@
         <v>59</v>
       </c>
       <c r="Y204" s="48">
+        <f t="shared" si="66"/>
+        <v>5.8586999999999998</v>
+      </c>
+      <c r="Z204" s="48">
+        <f t="shared" si="68"/>
+        <v>2.8822000000000001</v>
+      </c>
+      <c r="AA204" s="48">
         <f t="shared" si="67"/>
-        <v>5.8586999999999998</v>
-      </c>
-      <c r="Z204" s="48">
-        <f t="shared" si="69"/>
-        <v>2.8822000000000001</v>
-      </c>
-      <c r="AA204" s="48">
-        <f t="shared" si="68"/>
         <v>2.9764999999999997</v>
       </c>
       <c r="AB204" s="49" t="e">
@@ -22000,19 +21857,16 @@
         <v>7.8587962925666943E-3</v>
       </c>
       <c r="N205" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>11.31666666129604</v>
       </c>
       <c r="O205" s="12"/>
       <c r="P205" s="12"/>
       <c r="Q205" s="44"/>
       <c r="R205" s="44"/>
-      <c r="S205" s="70">
+      <c r="S205" s="70"/>
+      <c r="T205" s="2" t="str">
         <f t="shared" si="64"/>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="T205" s="2" t="str">
-        <f t="shared" si="65"/>
         <v>Southbound</v>
       </c>
       <c r="U205" s="2">
@@ -22020,7 +21874,7 @@
         <v>7</v>
       </c>
       <c r="V205" s="48" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 22:37:30-0600',mode:absolute,to:'2016-06-28 22:52:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W205" s="48" t="str">
@@ -22032,15 +21886,15 @@
         <v>2</v>
       </c>
       <c r="Y205" s="48">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>5.8589000000000002</v>
       </c>
       <c r="Z205" s="48">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>2.1629</v>
       </c>
       <c r="AA205" s="48">
-        <f t="shared" ref="AA205:AA236" si="71">ABS(Z205-Y205)</f>
+        <f t="shared" ref="AA205:AA206" si="70">ABS(Z205-Y205)</f>
         <v>3.6960000000000002</v>
       </c>
       <c r="AB205" s="49" t="e">
@@ -22096,19 +21950,16 @@
         <v>7.8587962925666943E-3</v>
       </c>
       <c r="N206" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>11.31666666129604</v>
       </c>
       <c r="O206" s="12"/>
       <c r="P206" s="12"/>
       <c r="Q206" s="44"/>
       <c r="R206" s="44"/>
-      <c r="S206" s="70">
+      <c r="S206" s="70"/>
+      <c r="T206" s="2" t="str">
         <f t="shared" si="64"/>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="T206" s="2" t="str">
-        <f t="shared" si="65"/>
         <v>Southbound</v>
       </c>
       <c r="U206" s="2">
@@ -22116,7 +21967,7 @@
         <v>7</v>
       </c>
       <c r="V206" s="48" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-28 22:37:30-0600',mode:absolute,to:'2016-06-28 22:52:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W206" s="48" t="str">
@@ -22128,15 +21979,15 @@
         <v>0</v>
       </c>
       <c r="Y206" s="48">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>5.8589000000000002</v>
       </c>
       <c r="Z206" s="48">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>2.1629</v>
       </c>
       <c r="AA206" s="48">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>3.6960000000000002</v>
       </c>
       <c r="AB206" s="49" t="e">
@@ -22219,37 +22070,37 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="W11:W12 W13:X1048576">
-    <cfRule type="cellIs" dxfId="12" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="72" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13:X1048576">
-    <cfRule type="cellIs" dxfId="11" priority="55" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="55" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12:X1048576">
-    <cfRule type="cellIs" dxfId="10" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:J13 L13:M13 F165:S206 A155:S164 A14:M154 N13:S154">
-    <cfRule type="expression" dxfId="9" priority="48">
+    <cfRule type="expression" dxfId="8" priority="48">
       <formula>$O13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:J13 L13:M13 F165:S206 A155:S164 A14:M154 N13:S154">
-    <cfRule type="expression" dxfId="8" priority="47">
+    <cfRule type="expression" dxfId="7" priority="47">
       <formula>$P13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>$O13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$P13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22294,7 +22145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
@@ -26614,17 +26465,17 @@
     <mergeCell ref="A5:M5"/>
   </mergeCells>
   <conditionalFormatting sqref="P6 M6:N6 M112:M1048576 L77:L111 N67:N68 M7:M76">
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M39:M76 N67:N68 L7:L76 A7:K68 M7:N66">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$M7="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M3">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
